--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_266.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_266.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d226056-Reviews-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>146</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Woodland-Hills.h522118.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_266.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_266.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="730">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2130 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r591325118-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>226056</t>
+  </si>
+  <si>
+    <t>591325118</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Very basic hotel</t>
+  </si>
+  <si>
+    <t>Hotel was cheap, clean and friendly.  Don't expect even the most basic amenities.  Shampoo and conditioner were "on back order." House cleaning was not an option but they offered new towels, until someone asked and they were "out."  Kitchenettes in the rooms, but you must ask for everything and there is no guarantee what is in stock.  The "free" breakfast was coffee and packaged oatmeal, both of which ran out.  If you want to "splurge," there is a Ralph's grocery and Denny's restaurant nearby.The police forcibly evicted the tenants a few doors down from us, followed by the fire department investigating who knows what.  If your primary concern is your budget, stay here.  Otherwise, look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded 4 days ago</t>
+  </si>
+  <si>
+    <t>Responded 4 days ago</t>
+  </si>
+  <si>
+    <t>Hotel was cheap, clean and friendly.  Don't expect even the most basic amenities.  Shampoo and conditioner were "on back order." House cleaning was not an option but they offered new towels, until someone asked and they were "out."  Kitchenettes in the rooms, but you must ask for everything and there is no guarantee what is in stock.  The "free" breakfast was coffee and packaged oatmeal, both of which ran out.  If you want to "splurge," there is a Ralph's grocery and Denny's restaurant nearby.The police forcibly evicted the tenants a few doors down from us, followed by the fire department investigating who knows what.  If your primary concern is your budget, stay here.  Otherwise, look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r588057144-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588057144</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>DONT STAY HERE! Please Listen to Me</t>
+  </si>
+  <si>
+    <t>This place is discusting! The lobby was dirty the evelator even more! My first room smelled like smoke  and the kitchen  way sorry. The second room  the bath room was not velan, no towels even though they told me they had just clean it. My partner and I went out and cam3 back when de were getting ready for Best de noticies the En Esta has blood stains and crums of i dont know what... and hairs all over. They had clearly not changed the sheets. Look at other comments its true this is not a hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This place is discusting! The lobby was dirty the evelator even more! My first room smelled like smoke  and the kitchen  way sorry. The second room  the bath room was not velan, no towels even though they told me they had just clean it. My partner and I went out and cam3 back when de were getting ready for Best de noticies the En Esta has blood stains and crums of i dont know what... and hairs all over. They had clearly not changed the sheets. Look at other comments its true this is not a hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r577413828-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577413828</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>NOT A HOTEL</t>
+  </si>
+  <si>
+    <t>Came to stay at this hotel on a business trip with a team of six professionals. Each of us reserved a room for 4 nights. One team member saw their room upon check-in and immediately checked out. The other five after toughing it out for one night, checked out and requested a refund the next day. The customer service skills of the front desk staff are dismal. It is obvious they are used to dealing with clients that would steal the wallpaper if they could. Of the six rooms we were given, most were in disrepair to include blood stains on mattresses, mold, stains on sheets, no coat hangars or a place to hang clothes, switches that do not work, window locks that are broken, extreme pet odors, and other issues. Additionally, the hotel wreaked of various unknown types of smoke - at times it smelled like a pot shop or an incense store. This should be noted for folks making reservations who are sensitive to smoke and other strong scents. Interesting characters hung out around side exit doors at all hours of the night and the area smelled of urine. Multiple members of our team were kept up by neighbors apparently partying until the wee hours to the point of having to call security multiple times and be moved. Even when hotel staff did move her, they charged her for the move to a different room even though it...Came to stay at this hotel on a business trip with a team of six professionals. Each of us reserved a room for 4 nights. One team member saw their room upon check-in and immediately checked out. The other five after toughing it out for one night, checked out and requested a refund the next day. The customer service skills of the front desk staff are dismal. It is obvious they are used to dealing with clients that would steal the wallpaper if they could. Of the six rooms we were given, most were in disrepair to include blood stains on mattresses, mold, stains on sheets, no coat hangars or a place to hang clothes, switches that do not work, window locks that are broken, extreme pet odors, and other issues. Additionally, the hotel wreaked of various unknown types of smoke - at times it smelled like a pot shop or an incense store. This should be noted for folks making reservations who are sensitive to smoke and other strong scents. Interesting characters hung out around side exit doors at all hours of the night and the area smelled of urine. Multiple members of our team were kept up by neighbors apparently partying until the wee hours to the point of having to call security multiple times and be moved. Even when hotel staff did move her, they charged her for the move to a different room even though it was through no fault of her own. This is NOT a hotel. It is low cost/subsidized housing and should NOT be advertised as a hotel. We work with the State of CA and we will be requesting that this hotel be removed from the State's travel system as a viable option immediately.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Came to stay at this hotel on a business trip with a team of six professionals. Each of us reserved a room for 4 nights. One team member saw their room upon check-in and immediately checked out. The other five after toughing it out for one night, checked out and requested a refund the next day. The customer service skills of the front desk staff are dismal. It is obvious they are used to dealing with clients that would steal the wallpaper if they could. Of the six rooms we were given, most were in disrepair to include blood stains on mattresses, mold, stains on sheets, no coat hangars or a place to hang clothes, switches that do not work, window locks that are broken, extreme pet odors, and other issues. Additionally, the hotel wreaked of various unknown types of smoke - at times it smelled like a pot shop or an incense store. This should be noted for folks making reservations who are sensitive to smoke and other strong scents. Interesting characters hung out around side exit doors at all hours of the night and the area smelled of urine. Multiple members of our team were kept up by neighbors apparently partying until the wee hours to the point of having to call security multiple times and be moved. Even when hotel staff did move her, they charged her for the move to a different room even though it...Came to stay at this hotel on a business trip with a team of six professionals. Each of us reserved a room for 4 nights. One team member saw their room upon check-in and immediately checked out. The other five after toughing it out for one night, checked out and requested a refund the next day. The customer service skills of the front desk staff are dismal. It is obvious they are used to dealing with clients that would steal the wallpaper if they could. Of the six rooms we were given, most were in disrepair to include blood stains on mattresses, mold, stains on sheets, no coat hangars or a place to hang clothes, switches that do not work, window locks that are broken, extreme pet odors, and other issues. Additionally, the hotel wreaked of various unknown types of smoke - at times it smelled like a pot shop or an incense store. This should be noted for folks making reservations who are sensitive to smoke and other strong scents. Interesting characters hung out around side exit doors at all hours of the night and the area smelled of urine. Multiple members of our team were kept up by neighbors apparently partying until the wee hours to the point of having to call security multiple times and be moved. Even when hotel staff did move her, they charged her for the move to a different room even though it was through no fault of her own. This is NOT a hotel. It is low cost/subsidized housing and should NOT be advertised as a hotel. We work with the State of CA and we will be requesting that this hotel be removed from the State's travel system as a viable option immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r565007628-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>565007628</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>This hotel did not live up to the expectation set by the internet ad. It was dirty and every little thing you have to ask the desk for. When you have to bring your old towels up to the desk to get new ones there is something not right in the service area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>This hotel did not live up to the expectation set by the internet ad. It was dirty and every little thing you have to ask the desk for. When you have to bring your old towels up to the desk to get new ones there is something not right in the service area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r563266495-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>563266495</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Find another hotel!!!</t>
+  </si>
+  <si>
+    <t>This place is shabby! I was shocked at the state of the room.  No toiletries - I had to ask for soap and a wash cloth.  They do not provide tub stoppers so you can't take a bath!!!  I had to use a cat food lid as a stopper to take a bath. The tub faucet drips loudly so the bath was not relaxing.
+The A/C-heater shudders noisily every time it shuts down.  Even though it wasn't all that busy when I checked in (early) there were no luggage carts, so I had to make several trips for my 7-night stay.  
+The bedside clock was on the kitchen counter, unplugged, and when I picked it up it fell apart in my hands.  I took it to the front desk but they didn't even offer me another one. 
+The room smells like it was a smoking room not too long ago - yech.  The kitchen trash can had not been emptied from previous customer.  One of the electrical outlets is missing the faceplate.  Clothes hangers are not provided - who travels with clothes hangers? 
+I've been here only one night and I'm ready to demand a refund and move to another hotel.  
+When I got there early (rooms were not ready yet) I asked to use the bathroom.  They do not have a lobby bathroom and said I would have to walk down the (steep) hill to Dennys. I said I...This place is shabby! I was shocked at the state of the room.  No toiletries - I had to ask for soap and a wash cloth.  They do not provide tub stoppers so you can't take a bath!!!  I had to use a cat food lid as a stopper to take a bath. The tub faucet drips loudly so the bath was not relaxing.The A/C-heater shudders noisily every time it shuts down.  Even though it wasn't all that busy when I checked in (early) there were no luggage carts, so I had to make several trips for my 7-night stay.  The bedside clock was on the kitchen counter, unplugged, and when I picked it up it fell apart in my hands.  I took it to the front desk but they didn't even offer me another one. The room smells like it was a smoking room not too long ago - yech.  The kitchen trash can had not been emptied from previous customer.  One of the electrical outlets is missing the faceplate.  Clothes hangers are not provided - who travels with clothes hangers? I've been here only one night and I'm ready to demand a refund and move to another hotel.  When I got there early (rooms were not ready yet) I asked to use the bathroom.  They do not have a lobby bathroom and said I would have to walk down the (steep) hill to Dennys. I said I could not do that and finally, before I speed my pants, they gave me a room key for a "cleaned" room and that would be my room, come back to finidh check-in process.  Good grief!I wish I had checked Trip advisor first.  I would have made other arrangements.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>This place is shabby! I was shocked at the state of the room.  No toiletries - I had to ask for soap and a wash cloth.  They do not provide tub stoppers so you can't take a bath!!!  I had to use a cat food lid as a stopper to take a bath. The tub faucet drips loudly so the bath was not relaxing.
+The A/C-heater shudders noisily every time it shuts down.  Even though it wasn't all that busy when I checked in (early) there were no luggage carts, so I had to make several trips for my 7-night stay.  
+The bedside clock was on the kitchen counter, unplugged, and when I picked it up it fell apart in my hands.  I took it to the front desk but they didn't even offer me another one. 
+The room smells like it was a smoking room not too long ago - yech.  The kitchen trash can had not been emptied from previous customer.  One of the electrical outlets is missing the faceplate.  Clothes hangers are not provided - who travels with clothes hangers? 
+I've been here only one night and I'm ready to demand a refund and move to another hotel.  
+When I got there early (rooms were not ready yet) I asked to use the bathroom.  They do not have a lobby bathroom and said I would have to walk down the (steep) hill to Dennys. I said I...This place is shabby! I was shocked at the state of the room.  No toiletries - I had to ask for soap and a wash cloth.  They do not provide tub stoppers so you can't take a bath!!!  I had to use a cat food lid as a stopper to take a bath. The tub faucet drips loudly so the bath was not relaxing.The A/C-heater shudders noisily every time it shuts down.  Even though it wasn't all that busy when I checked in (early) there were no luggage carts, so I had to make several trips for my 7-night stay.  The bedside clock was on the kitchen counter, unplugged, and when I picked it up it fell apart in my hands.  I took it to the front desk but they didn't even offer me another one. The room smells like it was a smoking room not too long ago - yech.  The kitchen trash can had not been emptied from previous customer.  One of the electrical outlets is missing the faceplate.  Clothes hangers are not provided - who travels with clothes hangers? I've been here only one night and I'm ready to demand a refund and move to another hotel.  When I got there early (rooms were not ready yet) I asked to use the bathroom.  They do not have a lobby bathroom and said I would have to walk down the (steep) hill to Dennys. I said I could not do that and finally, before I speed my pants, they gave me a room key for a "cleaned" room and that would be my room, come back to finidh check-in process.  Good grief!I wish I had checked Trip advisor first.  I would have made other arrangements.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r563080268-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>563080268</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>A real dump!</t>
+  </si>
+  <si>
+    <t>There are no daily cleaning of the rooms; the bath towels were soiled and worn away and need to be replaced! The shower diverter needs to be replaced, so there is shower flow. The room was filthy! A real dump in a upscale neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>There are no daily cleaning of the rooms; the bath towels were soiled and worn away and need to be replaced! The shower diverter needs to be replaced, so there is shower flow. The room was filthy! A real dump in a upscale neighborhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r553458331-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>553458331</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>The staff are very nice but the guest need to be more responsible for their pets and pick up after them. There are never any muffins for the continental breakfast but the coffee is excellent! I've stayed here several times and will probably stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>The staff are very nice but the guest need to be more responsible for their pets and pick up after them. There are never any muffins for the continental breakfast but the coffee is excellent! I've stayed here several times and will probably stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r550738813-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>550738813</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Weekend stay to visit son.</t>
+  </si>
+  <si>
+    <t>We stayed  2 nights at the Extented Stay and was really disapointed.We stayed here a few weeks earlier and thougt they had a bad day.This time the room smelled of smokers,no hangers and cars in the lot that looked like they had been there for weeks.The breakfast ? was a joke ,coffee was empty and just granola bars and oatmeal packets.The parking lot was noisey and litter was not cleaned,there was vomit in the lot and we never felt safe.The hallways were dirty and not much help at the front desk.Very disapointed and not well managed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>We stayed  2 nights at the Extented Stay and was really disapointed.We stayed here a few weeks earlier and thougt they had a bad day.This time the room smelled of smokers,no hangers and cars in the lot that looked like they had been there for weeks.The breakfast ? was a joke ,coffee was empty and just granola bars and oatmeal packets.The parking lot was noisey and litter was not cleaned,there was vomit in the lot and we never felt safe.The hallways were dirty and not much help at the front desk.Very disapointed and not well managed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r549673972-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>549673972</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Room 134 Woodland Hills, CA</t>
+  </si>
+  <si>
+    <t>The room we had was strange - looked like a space that was previously outdoors and later was enclosed. No carpet. Fuse box on wall. Water would not get hot, just warmish, and faucet leaked. Heater/cooler was old and loud. There were no drinking glasses, no shampoo except a used tube in the tub that had hair on it. Ick! There were smelly transients in the lobby at night and in the morning. Beds were clean and comfortable though. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>The room we had was strange - looked like a space that was previously outdoors and later was enclosed. No carpet. Fuse box on wall. Water would not get hot, just warmish, and faucet leaked. Heater/cooler was old and loud. There were no drinking glasses, no shampoo except a used tube in the tub that had hair on it. Ick! There were smelly transients in the lobby at night and in the morning. Beds were clean and comfortable though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r544330908-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>544330908</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>It was...let's just leave it at that.</t>
+  </si>
+  <si>
+    <t>OK let's start with the positives.  The bed was comfortable. The bathroom was clean. Towels and linens were clean. It is convenient to the freeway. The room was pretty quiet despite facing the freeway. The exterior looked clean. The negatives. The place smelled.  I understand that it's an extended stay hotel and the rooms have a kitchenette and the hotel has limited control about what people cook or bring in, but they really need to work on doing something about the smell in the hallways.  it really smelled gross. The smell was approaching old garbage smell. The lobby was dirty. Samantha at check-in was overwhelmed being alone. She was very pleasant and tried hard to make sure people were accommodated. But she was struggling. There was dog pee in the entrance to the lobby. The tile areas on the floors hadn't been mopped in a while. The carpets in the hallway hadn't been cleaned in a while. The carpet in the rooms hadn't been cleaned in a while either.  There were questionable stains on them, that probably could have been spot cleaned, but a good shampooing was in order.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>OK let's start with the positives.  The bed was comfortable. The bathroom was clean. Towels and linens were clean. It is convenient to the freeway. The room was pretty quiet despite facing the freeway. The exterior looked clean. The negatives. The place smelled.  I understand that it's an extended stay hotel and the rooms have a kitchenette and the hotel has limited control about what people cook or bring in, but they really need to work on doing something about the smell in the hallways.  it really smelled gross. The smell was approaching old garbage smell. The lobby was dirty. Samantha at check-in was overwhelmed being alone. She was very pleasant and tried hard to make sure people were accommodated. But she was struggling. There was dog pee in the entrance to the lobby. The tile areas on the floors hadn't been mopped in a while. The carpets in the hallway hadn't been cleaned in a while. The carpet in the rooms hadn't been cleaned in a while either.  There were questionable stains on them, that probably could have been spot cleaned, but a good shampooing was in order.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r543941623-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>543941623</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Stay at extended stay woodland hills</t>
+  </si>
+  <si>
+    <t>it smell really bad , lifts are dirty not cleaned since ages i guess, walks ways smell like rotten place , very bad experience for a standard of extended place, staff are not that helpful at all. they say free breakfast but only provide muffinsMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>it smell really bad , lifts are dirty not cleaned since ages i guess, walks ways smell like rotten place , very bad experience for a standard of extended place, staff are not that helpful at all. they say free breakfast but only provide muffinsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r543941629-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>543941629</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Great Staff-Nice Room-Messy Hotel</t>
+  </si>
+  <si>
+    <t>Service was professional and friendly. The room was clean and comfy. The surrounding area outside was not clean and filthy. The price of the room was fair. If you were to stay in your room the accomodations will be just fine. The halls were dirty with trash and discarded food. I would be willing to try it one more time because the staff at the front desk were so nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Service was professional and friendly. The room was clean and comfy. The surrounding area outside was not clean and filthy. The price of the room was fair. If you were to stay in your room the accomodations will be just fine. The halls were dirty with trash and discarded food. I would be willing to try it one more time because the staff at the front desk were so nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r532761268-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>532761268</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Hopefully disappointed</t>
+  </si>
+  <si>
+    <t>The first room needed to be cleaned better and stunk. The second was better, but not worth the price we paid. Both needed to be vacuumed. The outside is deceptive (looks good), of how the hotel actually is. Wish I could have gotten a refund. Priceline seems to kick me to bad hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>The first room needed to be cleaned better and stunk. The second was better, but not worth the price we paid. Both needed to be vacuumed. The outside is deceptive (looks good), of how the hotel actually is. Wish I could have gotten a refund. Priceline seems to kick me to bad hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r510990059-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>510990059</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Trip to Woodland ahills</t>
+  </si>
+  <si>
+    <t>There is a need for closet hangers in rooms. The breakfast snack was relatively good but I think most people got blueberry, can'the eat nutsome. The coffee was absolutely excellent. Hallways  were not well lit,but overall the experience was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>There is a need for closet hangers in rooms. The breakfast snack was relatively good but I think most people got blueberry, can'the eat nutsome. The coffee was absolutely excellent. Hallways  were not well lit,but overall the experience was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r509886289-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>509886289</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Location are nice good area</t>
+  </si>
+  <si>
+    <t>Not really satisfied at all in the cleanliness of our room. Front desk not really well knowledgedable to handle the needs of there customer. They kept accepting customer but rooms are not available. The check in time is late even you arrive early still need to wait atleast almost an hour and room are not really clean even linen not change. So disgusting MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Not really satisfied at all in the cleanliness of our room. Front desk not really well knowledgedable to handle the needs of there customer. They kept accepting customer but rooms are not available. The check in time is late even you arrive early still need to wait atleast almost an hour and room are not really clean even linen not change. So disgusting More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r506014536-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>506014536</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Nice, Clean, Room</t>
+  </si>
+  <si>
+    <t>These rooms look fairly new, good condition and clean. Beds are comfortable, larger TV with lots of channels,. Dishes, toaster, coffee pot, and pots and pans can be requested, free. The rooms have tables &amp; chairs, comfy reclining chair and small kitchen with refrig, micro, sink and stovetop.        The rooms are large, including closet, dresser, and 2 nightstands. It is close to I-5 and lots of restaurants and stores in area, you can walk to .           Free wifi and free parking.            Room cleaning service is offered once a week, not everyday. Extra service for room cleaning can be requested, for an extra charge.  It is free to request and go get clean towels, washclothes, etc. If you have extra trash there is a trash room you can take it to ! This is set up as extended stay hotel.        Breakfast offered is coffee, granola bars, and prepackaged pastries, and oatmeal.( Not much, you grab &amp; go) We enjoyed our stay here, and recommend  this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>These rooms look fairly new, good condition and clean. Beds are comfortable, larger TV with lots of channels,. Dishes, toaster, coffee pot, and pots and pans can be requested, free. The rooms have tables &amp; chairs, comfy reclining chair and small kitchen with refrig, micro, sink and stovetop.        The rooms are large, including closet, dresser, and 2 nightstands. It is close to I-5 and lots of restaurants and stores in area, you can walk to .           Free wifi and free parking.            Room cleaning service is offered once a week, not everyday. Extra service for room cleaning can be requested, for an extra charge.  It is free to request and go get clean towels, washclothes, etc. If you have extra trash there is a trash room you can take it to ! This is set up as extended stay hotel.        Breakfast offered is coffee, granola bars, and prepackaged pastries, and oatmeal.( Not much, you grab &amp; go) We enjoyed our stay here, and recommend  this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r505525146-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>505525146</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Dissatisfied customer</t>
+  </si>
+  <si>
+    <t>Very unhappy at this location, it was a very unwelcoming and was not happy at all with surroundings, could have stayed at motel 6 and paid less for same accommodations and same ambience. From the outside building looked nice, however once inside the interior was yucky. For $179.00 it appeared to be a $100. At the most motel not hotel. I had made a reservation for two rooms next to each other they could not accommodate us and room was reserved a few weeks in advance. Also I had made a cancellation of a room and it was still on the computers reserved. The receptionist was efficient however he was unenthusiastic and sluggish and not very welcoming. When we went to our room the elevator was old a bit smelly and dirty looking as though it had never been cleaned, not with trash just dirty walls and floor. It also worked very slow and had a bumpy ride and I did not notice an inspection certificate, so I was a bit sceptical and used stairs during my stay. When I entered the hallway to our room it was very bleak and a bit dark, walls are painted a very yucky dark beige and dark doors lighting bad. The room was a vinyl floor very poor taste, curtains crappy didn't close correctly seemed very old. I need a iron there was not one, I called room service they did not bring...Very unhappy at this location, it was a very unwelcoming and was not happy at all with surroundings, could have stayed at motel 6 and paid less for same accommodations and same ambience. From the outside building looked nice, however once inside the interior was yucky. For $179.00 it appeared to be a $100. At the most motel not hotel. I had made a reservation for two rooms next to each other they could not accommodate us and room was reserved a few weeks in advance. Also I had made a cancellation of a room and it was still on the computers reserved. The receptionist was efficient however he was unenthusiastic and sluggish and not very welcoming. When we went to our room the elevator was old a bit smelly and dirty looking as though it had never been cleaned, not with trash just dirty walls and floor. It also worked very slow and had a bumpy ride and I did not notice an inspection certificate, so I was a bit sceptical and used stairs during my stay. When I entered the hallway to our room it was very bleak and a bit dark, walls are painted a very yucky dark beige and dark doors lighting bad. The room was a vinyl floor very poor taste, curtains crappy didn't close correctly seemed very old. I need a iron there was not one, I called room service they did not bring I waited and finally went to get myself when I went bk up to my room and pulled ironing board out there was no pad on board, went back down they didn't have one for me so a used a towel which by the way was crappy too very cheap towels and very old. Don't pay the price go to a motel 6 you will probably have better luck for less $$$MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Very unhappy at this location, it was a very unwelcoming and was not happy at all with surroundings, could have stayed at motel 6 and paid less for same accommodations and same ambience. From the outside building looked nice, however once inside the interior was yucky. For $179.00 it appeared to be a $100. At the most motel not hotel. I had made a reservation for two rooms next to each other they could not accommodate us and room was reserved a few weeks in advance. Also I had made a cancellation of a room and it was still on the computers reserved. The receptionist was efficient however he was unenthusiastic and sluggish and not very welcoming. When we went to our room the elevator was old a bit smelly and dirty looking as though it had never been cleaned, not with trash just dirty walls and floor. It also worked very slow and had a bumpy ride and I did not notice an inspection certificate, so I was a bit sceptical and used stairs during my stay. When I entered the hallway to our room it was very bleak and a bit dark, walls are painted a very yucky dark beige and dark doors lighting bad. The room was a vinyl floor very poor taste, curtains crappy didn't close correctly seemed very old. I need a iron there was not one, I called room service they did not bring...Very unhappy at this location, it was a very unwelcoming and was not happy at all with surroundings, could have stayed at motel 6 and paid less for same accommodations and same ambience. From the outside building looked nice, however once inside the interior was yucky. For $179.00 it appeared to be a $100. At the most motel not hotel. I had made a reservation for two rooms next to each other they could not accommodate us and room was reserved a few weeks in advance. Also I had made a cancellation of a room and it was still on the computers reserved. The receptionist was efficient however he was unenthusiastic and sluggish and not very welcoming. When we went to our room the elevator was old a bit smelly and dirty looking as though it had never been cleaned, not with trash just dirty walls and floor. It also worked very slow and had a bumpy ride and I did not notice an inspection certificate, so I was a bit sceptical and used stairs during my stay. When I entered the hallway to our room it was very bleak and a bit dark, walls are painted a very yucky dark beige and dark doors lighting bad. The room was a vinyl floor very poor taste, curtains crappy didn't close correctly seemed very old. I need a iron there was not one, I called room service they did not bring I waited and finally went to get myself when I went bk up to my room and pulled ironing board out there was no pad on board, went back down they didn't have one for me so a used a towel which by the way was crappy too very cheap towels and very old. Don't pay the price go to a motel 6 you will probably have better luck for less $$$More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r505512676-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>505512676</t>
+  </si>
+  <si>
+    <t>Dirty Microwave... not a good Value for the money</t>
+  </si>
+  <si>
+    <t>A few positives: The size of the room was good and having the extra sink, a full size refrigerator and a microwave (had it been clean) is good. The staff was generally pleasant although often not at the front desk. It's good that they have an elevator. The rooms were pretty quiet, even though we faced the 101 freeway and i know there were families and pets in nearby rooms. The only time i heard others was water running in the bathroom. The A/C worked well. 
+Unfortunately there is more to dislike than to like. The breakfast is minimal and there is nowhere to eat it. There is no pool or even a patio as a common area for relaxing outside your room. My room was on the third floor, and my daughter sleeps later than i do so i need a place to be while i breakfast and she sleeps. The lobby is tiny and hardly pleasant for one's morning repast.  
+As far as the room is concerned... I was not pleased with the cleanliness, specifically the trash and the microwave. There was a dirty broken comb on one chair when we arrived, and there was a sanka wrapper in the trash beneath the sink. Shouldn't it just be empty? There were only two trash receptacles in the room, one in the bath and one under the kitchen sink, hardly enough for a six day stay when no one...A few positives: The size of the room was good and having the extra sink, a full size refrigerator and a microwave (had it been clean) is good. The staff was generally pleasant although often not at the front desk. It's good that they have an elevator. The rooms were pretty quiet, even though we faced the 101 freeway and i know there were families and pets in nearby rooms. The only time i heard others was water running in the bathroom. The A/C worked well. Unfortunately there is more to dislike than to like. The breakfast is minimal and there is nowhere to eat it. There is no pool or even a patio as a common area for relaxing outside your room. My room was on the third floor, and my daughter sleeps later than i do so i need a place to be while i breakfast and she sleeps. The lobby is tiny and hardly pleasant for one's morning repast.  As far as the room is concerned... I was not pleased with the cleanliness, specifically the trash and the microwave. There was a dirty broken comb on one chair when we arrived, and there was a sanka wrapper in the trash beneath the sink. Shouldn't it just be empty? There were only two trash receptacles in the room, one in the bath and one under the kitchen sink, hardly enough for a six day stay when no one ever comes to clean. The microwave (the main reason i stayed here) was a disaster. It should have had a turntable tray, but didn't. So the turntable arms went around and knocked things over. The bottom of the microwave was disgustingly sticky. I couldn't SEE because it was on a very high shelf, but things removed from it were sticky on the bottom. CLEAN IT! I might have if i could have reached it but i'm short and it was ridiculously high, and they don't provide cleaning products or paper towels. When one arrives there are no "amenities". You have to call and ask for plates and cups and soap and extra toilet paper, we didn't even have an alarm clock in the room and had to ask for one. Only bar soaps were provided... no shampoo or body wash. We ended up having to buy what we needed. There were no luggage racks for one's suitcases so everything ends up on the floor.  I can deal with not having my bed made daily but for the price, why is that? It is not an inexpensive hotel, why can't maids at least make beds and empty trash every day? My daughter and i were hoping to watch Game of Thrones together but no such luck... no HBO, only Showtime. We never watched the tv, once we realized there were so few channels. It would be nice if they offered smart tv or a roku/fire stick so we could have used our own hbogo to watch together.It's not the hotel's fault but the location, although convenient to much of the southwest Valley has one major drawback: you must ALWAYS turn right when leaving the parking lot. But you can't just "go around the block"... there is no "block". So you go a long ways west until you can turn at all and get under the freeway. The other choice is to hope for a break in traffic (amazingly it does happen) and zoom across three lanes of Ventura Blvd to the left turn lane for the next street, which doesn't go where you want but with luck you can make a u-turn in that street (you can't on Ventura) and finally go east.MoreShow less</t>
+  </si>
+  <si>
+    <t>A few positives: The size of the room was good and having the extra sink, a full size refrigerator and a microwave (had it been clean) is good. The staff was generally pleasant although often not at the front desk. It's good that they have an elevator. The rooms were pretty quiet, even though we faced the 101 freeway and i know there were families and pets in nearby rooms. The only time i heard others was water running in the bathroom. The A/C worked well. 
+Unfortunately there is more to dislike than to like. The breakfast is minimal and there is nowhere to eat it. There is no pool or even a patio as a common area for relaxing outside your room. My room was on the third floor, and my daughter sleeps later than i do so i need a place to be while i breakfast and she sleeps. The lobby is tiny and hardly pleasant for one's morning repast.  
+As far as the room is concerned... I was not pleased with the cleanliness, specifically the trash and the microwave. There was a dirty broken comb on one chair when we arrived, and there was a sanka wrapper in the trash beneath the sink. Shouldn't it just be empty? There were only two trash receptacles in the room, one in the bath and one under the kitchen sink, hardly enough for a six day stay when no one...A few positives: The size of the room was good and having the extra sink, a full size refrigerator and a microwave (had it been clean) is good. The staff was generally pleasant although often not at the front desk. It's good that they have an elevator. The rooms were pretty quiet, even though we faced the 101 freeway and i know there were families and pets in nearby rooms. The only time i heard others was water running in the bathroom. The A/C worked well. Unfortunately there is more to dislike than to like. The breakfast is minimal and there is nowhere to eat it. There is no pool or even a patio as a common area for relaxing outside your room. My room was on the third floor, and my daughter sleeps later than i do so i need a place to be while i breakfast and she sleeps. The lobby is tiny and hardly pleasant for one's morning repast.  As far as the room is concerned... I was not pleased with the cleanliness, specifically the trash and the microwave. There was a dirty broken comb on one chair when we arrived, and there was a sanka wrapper in the trash beneath the sink. Shouldn't it just be empty? There were only two trash receptacles in the room, one in the bath and one under the kitchen sink, hardly enough for a six day stay when no one ever comes to clean. The microwave (the main reason i stayed here) was a disaster. It should have had a turntable tray, but didn't. So the turntable arms went around and knocked things over. The bottom of the microwave was disgustingly sticky. I couldn't SEE because it was on a very high shelf, but things removed from it were sticky on the bottom. CLEAN IT! I might have if i could have reached it but i'm short and it was ridiculously high, and they don't provide cleaning products or paper towels. When one arrives there are no "amenities". You have to call and ask for plates and cups and soap and extra toilet paper, we didn't even have an alarm clock in the room and had to ask for one. Only bar soaps were provided... no shampoo or body wash. We ended up having to buy what we needed. There were no luggage racks for one's suitcases so everything ends up on the floor.  I can deal with not having my bed made daily but for the price, why is that? It is not an inexpensive hotel, why can't maids at least make beds and empty trash every day? My daughter and i were hoping to watch Game of Thrones together but no such luck... no HBO, only Showtime. We never watched the tv, once we realized there were so few channels. It would be nice if they offered smart tv or a roku/fire stick so we could have used our own hbogo to watch together.It's not the hotel's fault but the location, although convenient to much of the southwest Valley has one major drawback: you must ALWAYS turn right when leaving the parking lot. But you can't just "go around the block"... there is no "block". So you go a long ways west until you can turn at all and get under the freeway. The other choice is to hope for a break in traffic (amazingly it does happen) and zoom across three lanes of Ventura Blvd to the left turn lane for the next street, which doesn't go where you want but with luck you can make a u-turn in that street (you can't on Ventura) and finally go east.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r503259535-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>503259535</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Stay Away!</t>
+  </si>
+  <si>
+    <t>Hotel staff are rude, rooms are very smelly, very noisy day and night, lots of sketchy guests, didn't feel safe, the police were at this location at least a few times a week, car break ins, won't ever stay here again MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Hotel staff are rude, rooms are very smelly, very noisy day and night, lots of sketchy guests, didn't feel safe, the police were at this location at least a few times a week, car break ins, won't ever stay here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r499396594-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>499396594</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Great place but Jesus ruined it</t>
+  </si>
+  <si>
+    <t>Jesus clearly didn't care about anything and I tried creat a nice convocation he blew it off and I ask where can I see the fire work and he said Google it very rude not observant has horrible customer service and needs to study the area to be able to help guest MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Jesus clearly didn't care about anything and I tried creat a nice convocation he blew it off and I ask where can I see the fire work and he said Google it very rude not observant has horrible customer service and needs to study the area to be able to help guest More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r498328077-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>498328077</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Worst stay ever!</t>
+  </si>
+  <si>
+    <t>The hotel was very run down and dirty! If I had not paid with Priceline I would have asked for a refund! Disgusting hotel, run away! NEVER take the surprise selection from Priceline! They lied! Not a 3.5 or even a 1 star!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was very run down and dirty! If I had not paid with Priceline I would have asked for a refund! Disgusting hotel, run away! NEVER take the surprise selection from Priceline! They lied! Not a 3.5 or even a 1 star!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r495633754-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>495633754</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Would not recommend. Meth head partying jntil 3:00am next door with thumping base music. Just needed a place to sleep prior to meeting in morning and did not sleep. Called office tqice and no call back. Horrible!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Would not recommend. Meth head partying jntil 3:00am next door with thumping base music. Just needed a place to sleep prior to meeting in morning and did not sleep. Called office tqice and no call back. Horrible!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r494713426-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>494713426</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Awful, disgusting, dirty</t>
+  </si>
+  <si>
+    <t>Never stay at this hotel. I stayed here for business. The halls are dirty, the bedding is disgusting. The towels are gross. The worst was when I turned off the lights and there was something painted in glow in the dark paint over the bed. Someone had tried to paint over it but did a horrible job. The hotel smells, the breakfast is a joke. He remote was held together with tape. It was such an awful stay. I couldn't wait to leave. Should have slept in my rental car. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Never stay at this hotel. I stayed here for business. The halls are dirty, the bedding is disgusting. The towels are gross. The worst was when I turned off the lights and there was something painted in glow in the dark paint over the bed. Someone had tried to paint over it but did a horrible job. The hotel smells, the breakfast is a joke. He remote was held together with tape. It was such an awful stay. I couldn't wait to leave. Should have slept in my rental car. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r493851936-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>493851936</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Extended stay</t>
+  </si>
+  <si>
+    <t>I travel for business and for the price it was good accommodation for the value so I would go to this property again and I would recommend it to anyone else who is traveling for business. I also noticed if you  have a pet they can accommodate you .MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>I travel for business and for the price it was good accommodation for the value so I would go to this property again and I would recommend it to anyone else who is traveling for business. I also noticed if you  have a pet they can accommodate you .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r455754069-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>455754069</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay America Woodland Hills</t>
+  </si>
+  <si>
+    <t>If you're a business traveler for a quick midweek overnight and can overlook terribly worn hotel room carpeting, frayed bed frames, somewhat distressed desk tops, with a trace of smoking in a non-smoking room that has a generally sad and neglected appearance, plus a very pleasant overworked front desk night clerk who may be too busy to answer your call (requiring a trip out of your room, down an equally untidy and trash laden hallway to the an elevator ride to the front desk again), then you are sure to find value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>If you're a business traveler for a quick midweek overnight and can overlook terribly worn hotel room carpeting, frayed bed frames, somewhat distressed desk tops, with a trace of smoking in a non-smoking room that has a generally sad and neglected appearance, plus a very pleasant overworked front desk night clerk who may be too busy to answer your call (requiring a trip out of your room, down an equally untidy and trash laden hallway to the an elevator ride to the front desk again), then you are sure to find value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r453635611-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>453635611</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>This was by and far one of the nastiest hotels I have ever stayed in.  There were huge holes in our wall, the blanket had tons of cigarette burns on it.  The place was filthy, there were no plates, cups, utensils, etc.  Got in the shower only to realize they do not leave wash cloths in the room.  Never did a maid come in and pick up a towel, take out trash nothing.  It reeks of pot and has lots of shady kids hanging around smoking.  We own a travel agency and I am so glad I didn't put a family here but tested it on us first.  Never Never would I stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2017</t>
+  </si>
+  <si>
+    <t>This was by and far one of the nastiest hotels I have ever stayed in.  There were huge holes in our wall, the blanket had tons of cigarette burns on it.  The place was filthy, there were no plates, cups, utensils, etc.  Got in the shower only to realize they do not leave wash cloths in the room.  Never did a maid come in and pick up a towel, take out trash nothing.  It reeks of pot and has lots of shady kids hanging around smoking.  We own a travel agency and I am so glad I didn't put a family here but tested it on us first.  Never Never would I stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r442058406-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>442058406</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disgusting hotel </t>
+  </si>
+  <si>
+    <t>My room is filthy. The microwave and  refrigerator were both dirty and there were many hairs in the shower, on the bathroom vanity and on the floor. It is obvious that the floors are not mopped. The seat of the chairs are dirty, the furniture old, scraped and scratched.This is advertised as a non smoking hotel, but the lobby, hallways and staircases all smell like smoke. My room smells like cigarette smoke. The bedspread has burn holes all over. I haven't been able to fall asleep quickly the past 3 nights because of the headaches I have due to the cigarette smoke. I have not unpacked my clothing because I do not want them to smell. I asked the front desk if I could switch rooms, and was assured that something would be done, since there is a no smoking policy. How?  The smoke is thick in the hallway and concentrated around specific rooms... there's no way housekeeping doesn't know who the offenders are (obviously the ones with the hand made  "do not disturb" signs taped to their doors).The majority of the people who stay here seem to be "in-between" housing or are here for the no background/credit checks. When I go through a secured door, people are quick to try to come in after me. This place does not seem safe.The front desk staff are friendly though.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>My room is filthy. The microwave and  refrigerator were both dirty and there were many hairs in the shower, on the bathroom vanity and on the floor. It is obvious that the floors are not mopped. The seat of the chairs are dirty, the furniture old, scraped and scratched.This is advertised as a non smoking hotel, but the lobby, hallways and staircases all smell like smoke. My room smells like cigarette smoke. The bedspread has burn holes all over. I haven't been able to fall asleep quickly the past 3 nights because of the headaches I have due to the cigarette smoke. I have not unpacked my clothing because I do not want them to smell. I asked the front desk if I could switch rooms, and was assured that something would be done, since there is a no smoking policy. How?  The smoke is thick in the hallway and concentrated around specific rooms... there's no way housekeeping doesn't know who the offenders are (obviously the ones with the hand made  "do not disturb" signs taped to their doors).The majority of the people who stay here seem to be "in-between" housing or are here for the no background/credit checks. When I go through a secured door, people are quick to try to come in after me. This place does not seem safe.The front desk staff are friendly though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r416251451-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>416251451</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable stay.</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay and one of the main reasons for my review is the staff. The hotel needs updating but everyone was always friendly. Stay america is not like other hotels but we got what we needed and were comfortable. I suggest replacing the carpets and common areas need updating. Again staff was great, would reccomend.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay and one of the main reasons for my review is the staff. The hotel needs updating but everyone was always friendly. Stay america is not like other hotels but we got what we needed and were comfortable. I suggest replacing the carpets and common areas need updating. Again staff was great, would reccomend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r411886878-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>411886878</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>It's a DUMP</t>
+  </si>
+  <si>
+    <t>Avoid at all costs! The owners should be ashamed. Says it is non smoking. But, we smelled smoke in the middle of the night. Found cigarette butts on carpeting in hall outside of our room that were never cleaned up. The pergo fake wood floor that is next to the third floor elevator is buckling and a trip hazard. Our blanket had dark hair/fur on it. Obviously not changed from previous renter. Got out of shower and feet were black within minutes. Obviously not mopped in weeks! Outside looks fairly good. It is in an expensive area, so you would think for $1,000 a week, they could keep it up. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Avoid at all costs! The owners should be ashamed. Says it is non smoking. But, we smelled smoke in the middle of the night. Found cigarette butts on carpeting in hall outside of our room that were never cleaned up. The pergo fake wood floor that is next to the third floor elevator is buckling and a trip hazard. Our blanket had dark hair/fur on it. Obviously not changed from previous renter. Got out of shower and feet were black within minutes. Obviously not mopped in weeks! Outside looks fairly good. It is in an expensive area, so you would think for $1,000 a week, they could keep it up. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r410779112-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>410779112</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>This is a bare bones hotel that charges very close to the same rate as a full service branded hotel</t>
+  </si>
+  <si>
+    <t>Amenities were spartan. Security was very questionable. It was touted as a smoke free hotel but all the corridors smelled of smoke. The room had paint and plaster peeling off the bathroom wall. There is no night staff and noise is a problem at timesMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Amenities were spartan. Security was very questionable. It was touted as a smoke free hotel but all the corridors smelled of smoke. The room had paint and plaster peeling off the bathroom wall. There is no night staff and noise is a problem at timesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r395073614-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>395073614</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>LAST RESORT - YOUR CAR IS AN OPTION</t>
+  </si>
+  <si>
+    <t>Due a mistake of booking a wrong hotel - my kids and me where forced to take whatever we could find - and we ended up at Extended Stay - which luckily was only for a short and not an EXTENDED stay.Room was a clearly a smoking room, check-in was a disaster, room was not only a smoking room, but the room was not clean and had a funny smell to it.We were happy to get room at all - but anything below this level we would rather sleep in the car.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Due a mistake of booking a wrong hotel - my kids and me where forced to take whatever we could find - and we ended up at Extended Stay - which luckily was only for a short and not an EXTENDED stay.Room was a clearly a smoking room, check-in was a disaster, room was not only a smoking room, but the room was not clean and had a funny smell to it.We were happy to get room at all - but anything below this level we would rather sleep in the car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r388317425-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>388317425</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>I am in my room. The floor of our room is filthy not swept or mopped (its laminate) after last guest. In fact some of their garbage is next to nightstand.  There is a huge puddle of water in front of our air conditioner. The room is far from being fresh.   My husband was very tired after driving so he is asleep. I try to turn  on the t.v. to block out the traffic. noise right outside our window and the remote doesn't work. I guess we are stuck with this place for three nights as it states no refunds. I will address that in the morningMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2016</t>
+  </si>
+  <si>
+    <t>I am in my room. The floor of our room is filthy not swept or mopped (its laminate) after last guest. In fact some of their garbage is next to nightstand.  There is a huge puddle of water in front of our air conditioner. The room is far from being fresh.   My husband was very tired after driving so he is asleep. I try to turn  on the t.v. to block out the traffic. noise right outside our window and the remote doesn't work. I guess we are stuck with this place for three nights as it states no refunds. I will address that in the morningMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r386677623-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>386677623</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Scummy</t>
+  </si>
+  <si>
+    <t>The man at the desk told me about the convoluted process of evicting guests who had moved in and stayed without paying.  In the morning, 2 cops were taking a statement from guests in pajamas at their police cruiser.  A bunch of cutlery and the dishwasher tray were on the floor by my door as I checked in.  I guess you could check-in to the local jail... or you could stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>The man at the desk told me about the convoluted process of evicting guests who had moved in and stayed without paying.  In the morning, 2 cops were taking a statement from guests in pajamas at their police cruiser.  A bunch of cutlery and the dishwasher tray were on the floor by my door as I checked in.  I guess you could check-in to the local jail... or you could stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r383126717-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>383126717</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Nice Place for the Price</t>
+  </si>
+  <si>
+    <t>After reading the past reviews, I was wondering of we stayed at the same place. Stayed here for two nights never having stayed at an Extended Stay before. Called the reservations line to inquire about availability and the property and was treated wonderfully and professionally; the same is to be said at check-in: polite, friendly and professional. Knew about the "grab and go" breakfast so no surprise. Room was a nice size with more than adequate kitchen facility and comfortable bed (we were able to get king size). The lighting in the room was wonderful--better than most no matter the price. All in all, I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>After reading the past reviews, I was wondering of we stayed at the same place. Stayed here for two nights never having stayed at an Extended Stay before. Called the reservations line to inquire about availability and the property and was treated wonderfully and professionally; the same is to be said at check-in: polite, friendly and professional. Knew about the "grab and go" breakfast so no surprise. Room was a nice size with more than adequate kitchen facility and comfortable bed (we were able to get king size). The lighting in the room was wonderful--better than most no matter the price. All in all, I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r380252335-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>380252335</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Stayed there for two weeks...not nice</t>
+  </si>
+  <si>
+    <t>Staff was great but the place is dilapidated.  Smelly carpet, place is old and they do not change your beddings for a week.  You can cook though and Ralph's is nearby.  Though apart from a place to sleep (it was hard to sleep coz it is beside the highway), there is nothing really great in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Staff was great but the place is dilapidated.  Smelly carpet, place is old and they do not change your beddings for a week.  You can cook though and Ralph's is nearby.  Though apart from a place to sleep (it was hard to sleep coz it is beside the highway), there is nothing really great in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r375183597-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>375183597</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Underwhelming- Over priced</t>
+  </si>
+  <si>
+    <t>I have to say that I went into this place with fairly low expectations but I was still left feeling disappointed. And honestly I wouldn't really have cared except I feel like if I am spending a C-note for one night I should get a bit more.
+Pros- 
+- The room and sheets etc. were clean
+- The front desk employee was polite though seemed a bit overwhelmed.
+- Full sized Fridge and 2 burner cook top
+Cons-
+- Room had a Queen bed- When I asked for 2 queens or a king they said they were all booked - although when I ordered online I put 3 guests- My wife, daughter and myself and nothing was noted online about queen only- needless to say one of us had to sleep on the floor
+- When I asked for 2 extra blankets to make the floor more comfortable- they said they only had one.
+- Room was small
+- included breakfast was a joke- watery coffee- bad oatmeal - a banana  and a granola bar- I would not call that a continental breakfast
+- No kids channel on the T.V.- we all have iPads these days but still
+We were in a Street side room on the 2nd floor which wasn't too noisy with the windows closed.
+Given the choice I suggest spending the extra $50 a night for a proper hotel- this is just a small step above a...I have to say that I went into this place with fairly low expectations but I was still left feeling disappointed. And honestly I wouldn't really have cared except I feel like if I am spending a C-note for one night I should get a bit more.Pros- - The room and sheets etc. were clean- The front desk employee was polite though seemed a bit overwhelmed.- Full sized Fridge and 2 burner cook topCons-- Room had a Queen bed- When I asked for 2 queens or a king they said they were all booked - although when I ordered online I put 3 guests- My wife, daughter and myself and nothing was noted online about queen only- needless to say one of us had to sleep on the floor- When I asked for 2 extra blankets to make the floor more comfortable- they said they only had one.- Room was small- included breakfast was a joke- watery coffee- bad oatmeal - a banana  and a granola bar- I would not call that a continental breakfast- No kids channel on the T.V.- we all have iPads these days but stillWe were in a Street side room on the 2nd floor which wasn't too noisy with the windows closed.Given the choice I suggest spending the extra $50 a night for a proper hotel- this is just a small step above a motel 6 and not worth the extra money.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>I have to say that I went into this place with fairly low expectations but I was still left feeling disappointed. And honestly I wouldn't really have cared except I feel like if I am spending a C-note for one night I should get a bit more.
+Pros- 
+- The room and sheets etc. were clean
+- The front desk employee was polite though seemed a bit overwhelmed.
+- Full sized Fridge and 2 burner cook top
+Cons-
+- Room had a Queen bed- When I asked for 2 queens or a king they said they were all booked - although when I ordered online I put 3 guests- My wife, daughter and myself and nothing was noted online about queen only- needless to say one of us had to sleep on the floor
+- When I asked for 2 extra blankets to make the floor more comfortable- they said they only had one.
+- Room was small
+- included breakfast was a joke- watery coffee- bad oatmeal - a banana  and a granola bar- I would not call that a continental breakfast
+- No kids channel on the T.V.- we all have iPads these days but still
+We were in a Street side room on the 2nd floor which wasn't too noisy with the windows closed.
+Given the choice I suggest spending the extra $50 a night for a proper hotel- this is just a small step above a...I have to say that I went into this place with fairly low expectations but I was still left feeling disappointed. And honestly I wouldn't really have cared except I feel like if I am spending a C-note for one night I should get a bit more.Pros- - The room and sheets etc. were clean- The front desk employee was polite though seemed a bit overwhelmed.- Full sized Fridge and 2 burner cook topCons-- Room had a Queen bed- When I asked for 2 queens or a king they said they were all booked - although when I ordered online I put 3 guests- My wife, daughter and myself and nothing was noted online about queen only- needless to say one of us had to sleep on the floor- When I asked for 2 extra blankets to make the floor more comfortable- they said they only had one.- Room was small- included breakfast was a joke- watery coffee- bad oatmeal - a banana  and a granola bar- I would not call that a continental breakfast- No kids channel on the T.V.- we all have iPads these days but stillWe were in a Street side room on the 2nd floor which wasn't too noisy with the windows closed.Given the choice I suggest spending the extra $50 a night for a proper hotel- this is just a small step above a motel 6 and not worth the extra money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r345460506-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>345460506</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>Accommodations were great! The rooms have a two burner electric cooktop.you have to request pots,pans,etc. And they have hot coffee,granola bars, muffins,and fruit every morning in the lobby.  There is a ralphs market walking distance in a small shopping center which includes a few resturants.   I also liked that internet is free and you the option to upgrade to faster speeds for a fee.  Laundry  facility is on the first floor. Its also pet friendly.  On downside to that is some people do not clean after their pets. Even though they  provide supplies to clean up after  your pet. Also if you use la fitness theres one about 3 miles away on canoga and victory near the mall. The staff were friendly and very helpful. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Accommodations were great! The rooms have a two burner electric cooktop.you have to request pots,pans,etc. And they have hot coffee,granola bars, muffins,and fruit every morning in the lobby.  There is a ralphs market walking distance in a small shopping center which includes a few resturants.   I also liked that internet is free and you the option to upgrade to faster speeds for a fee.  Laundry  facility is on the first floor. Its also pet friendly.  On downside to that is some people do not clean after their pets. Even though they  provide supplies to clean up after  your pet. Also if you use la fitness theres one about 3 miles away on canoga and victory near the mall. The staff were friendly and very helpful. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r326153005-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>326153005</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>I should have read the reviews, and I hope someone reads mine, the place was really gross, it smelled like all place was smoking, the bed was not clean, the tissues were as if they had been used and not even taken care of... the fridge was dirty, everything was horrible. We should have known when we arrived and saw 3 people asking for room change... too bad, location is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>I should have read the reviews, and I hope someone reads mine, the place was really gross, it smelled like all place was smoking, the bed was not clean, the tissues were as if they had been used and not even taken care of... the fridge was dirty, everything was horrible. We should have known when we arrived and saw 3 people asking for room change... too bad, location is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r325131151-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>325131151</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Not worthy to stay even a night</t>
+  </si>
+  <si>
+    <t>I was visiting USA and from Houston i went to LA and stayed at this placesI would say it was worst hotel i have ever stayedthe room was stinking, not stinking but very stinkingroom cleaning is done once a week, i think it was on Mondayso if u are checking in on Wednesday ur room wouldn't be cleaned staff at reception at night shift were helpful and in morn it was rudeits not a happening placeslots of dogsbreakfast was as if LA is on droughtHotel staff had same breakfast so its like they have breakfast and we have to wait for them to finishMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>I was visiting USA and from Houston i went to LA and stayed at this placesI would say it was worst hotel i have ever stayedthe room was stinking, not stinking but very stinkingroom cleaning is done once a week, i think it was on Mondayso if u are checking in on Wednesday ur room wouldn't be cleaned staff at reception at night shift were helpful and in morn it was rudeits not a happening placeslots of dogsbreakfast was as if LA is on droughtHotel staff had same breakfast so its like they have breakfast and we have to wait for them to finishMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r317839689-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>317839689</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Fantastic experience!</t>
+  </si>
+  <si>
+    <t>I stayed at the Extended Stay America in Woodland Hills, California from 9/29/15-10/8/15.  My stay was fantastic!  The staff was welcoming, totally accomodating, friendly, helpful, professional and were willing to do anything/everything to make the customer happy. The hotel was clean and well maintained. I was there by myself and always felt safe which was extremely important to me. I was given a handicapped room which was clean and very comfortable. The bed was also comfortable. My showerhead and ironing board were both broken upon my arrival.  I reported it to the front desk staff who filled out a "work request" form. I thought it would take several days before they would be fixed but I was wrong! Approx. 5-10 minutes later, there was a knock on my door and it was the maintenance man who came in and replaced the showerhead and ironing board. This is the same excellent service I recieved during my entire visit.  The staff was truly fantastic!!  Each staff memeber addressed me by name at all times and would continually ask how my stay was going and if there was anything they could do to make my experience any better.  From the staff member cleaning the parking lot and sidewalks all the way up to management, the service from the staff was truly exceptional.  I would highy recommend this hotel to anyone that wants a reasonably priced, safe, clean and confortable hotel with an exceptional...I stayed at the Extended Stay America in Woodland Hills, California from 9/29/15-10/8/15.  My stay was fantastic!  The staff was welcoming, totally accomodating, friendly, helpful, professional and were willing to do anything/everything to make the customer happy. The hotel was clean and well maintained. I was there by myself and always felt safe which was extremely important to me. I was given a handicapped room which was clean and very comfortable. The bed was also comfortable. My showerhead and ironing board were both broken upon my arrival.  I reported it to the front desk staff who filled out a "work request" form. I thought it would take several days before they would be fixed but I was wrong! Approx. 5-10 minutes later, there was a knock on my door and it was the maintenance man who came in and replaced the showerhead and ironing board. This is the same excellent service I recieved during my entire visit.  The staff was truly fantastic!!  Each staff memeber addressed me by name at all times and would continually ask how my stay was going and if there was anything they could do to make my experience any better.  From the staff member cleaning the parking lot and sidewalks all the way up to management, the service from the staff was truly exceptional.  I would highy recommend this hotel to anyone that wants a reasonably priced, safe, clean and confortable hotel with an exceptional staff that will consitently go out of their way to make your stay as pleasant as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at the Extended Stay America in Woodland Hills, California from 9/29/15-10/8/15.  My stay was fantastic!  The staff was welcoming, totally accomodating, friendly, helpful, professional and were willing to do anything/everything to make the customer happy. The hotel was clean and well maintained. I was there by myself and always felt safe which was extremely important to me. I was given a handicapped room which was clean and very comfortable. The bed was also comfortable. My showerhead and ironing board were both broken upon my arrival.  I reported it to the front desk staff who filled out a "work request" form. I thought it would take several days before they would be fixed but I was wrong! Approx. 5-10 minutes later, there was a knock on my door and it was the maintenance man who came in and replaced the showerhead and ironing board. This is the same excellent service I recieved during my entire visit.  The staff was truly fantastic!!  Each staff memeber addressed me by name at all times and would continually ask how my stay was going and if there was anything they could do to make my experience any better.  From the staff member cleaning the parking lot and sidewalks all the way up to management, the service from the staff was truly exceptional.  I would highy recommend this hotel to anyone that wants a reasonably priced, safe, clean and confortable hotel with an exceptional...I stayed at the Extended Stay America in Woodland Hills, California from 9/29/15-10/8/15.  My stay was fantastic!  The staff was welcoming, totally accomodating, friendly, helpful, professional and were willing to do anything/everything to make the customer happy. The hotel was clean and well maintained. I was there by myself and always felt safe which was extremely important to me. I was given a handicapped room which was clean and very comfortable. The bed was also comfortable. My showerhead and ironing board were both broken upon my arrival.  I reported it to the front desk staff who filled out a "work request" form. I thought it would take several days before they would be fixed but I was wrong! Approx. 5-10 minutes later, there was a knock on my door and it was the maintenance man who came in and replaced the showerhead and ironing board. This is the same excellent service I recieved during my entire visit.  The staff was truly fantastic!!  Each staff memeber addressed me by name at all times and would continually ask how my stay was going and if there was anything they could do to make my experience any better.  From the staff member cleaning the parking lot and sidewalks all the way up to management, the service from the staff was truly exceptional.  I would highy recommend this hotel to anyone that wants a reasonably priced, safe, clean and confortable hotel with an exceptional staff that will consitently go out of their way to make your stay as pleasant as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r312840037-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>312840037</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Filthy, incompetent management, incompetent maintenance.</t>
+  </si>
+  <si>
+    <t>I have been all over this country staying at ESA hotels.  Most are located properly for my use.  This is one of them. all have been cleaner than this one.  This is worse than a motel six.
+I have had the utmost frustration with just trying to get ,the air conditioner fixed, the carpet cleaned(as it was filthy)  I tried to contact the management, but when I was there at 8 AM I was told he would be in at 11.  when I was there at 4 pm, I was told he was gone for the day.  It is no wonder that this place is filthy and in such disrepair. There is no management..I only wish I had read these reviews before I booked here.  I was beginning to think that it was just me, but after reading the reviews I can tell that it is the hotel itself.
+They insist that the room be cleaned once a week, and force you to pay for it, then they don't clean the room, and tell you that you can get anything you need...if you go and get it.
+Also I am going to check my statement.  After staying 30 days, California law says they are supposed to return your  Taxes and not charge tax on the room for as long as you stay..I will almost bet that it has not been returned to myself or anyone, and that constitutes fraud.  I...I have been all over this country staying at ESA hotels.  Most are located properly for my use.  This is one of them. all have been cleaner than this one.  This is worse than a motel six.I have had the utmost frustration with just trying to get ,the air conditioner fixed, the carpet cleaned(as it was filthy)  I tried to contact the management, but when I was there at 8 AM I was told he would be in at 11.  when I was there at 4 pm, I was told he was gone for the day.  It is no wonder that this place is filthy and in such disrepair. There is no management..I only wish I had read these reviews before I booked here.  I was beginning to think that it was just me, but after reading the reviews I can tell that it is the hotel itself.They insist that the room be cleaned once a week, and force you to pay for it, then they don't clean the room, and tell you that you can get anything you need...if you go and get it.Also I am going to check my statement.  After staying 30 days, California law says they are supposed to return your  Taxes and not charge tax on the room for as long as you stay..I will almost bet that it has not been returned to myself or anyone, and that constitutes fraud.  I will check and file a formal complaint with the state.The manager, as you can see in the reviews, is constantly apologizing and promising to make the necessary corrections...It never happens.  He supposedly tried many times to call my room( when I was working) and only when I emailed him did he respond.  I could not reach the front desk to speak to anyone..The phone doesn't work.It still doesn't.  Unfortunately I am stuck here for a while, but I will try to make a connection to the corporate office, as this place is destroying the good name of  Extended Stay America..  DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>I have been all over this country staying at ESA hotels.  Most are located properly for my use.  This is one of them. all have been cleaner than this one.  This is worse than a motel six.
+I have had the utmost frustration with just trying to get ,the air conditioner fixed, the carpet cleaned(as it was filthy)  I tried to contact the management, but when I was there at 8 AM I was told he would be in at 11.  when I was there at 4 pm, I was told he was gone for the day.  It is no wonder that this place is filthy and in such disrepair. There is no management..I only wish I had read these reviews before I booked here.  I was beginning to think that it was just me, but after reading the reviews I can tell that it is the hotel itself.
+They insist that the room be cleaned once a week, and force you to pay for it, then they don't clean the room, and tell you that you can get anything you need...if you go and get it.
+Also I am going to check my statement.  After staying 30 days, California law says they are supposed to return your  Taxes and not charge tax on the room for as long as you stay..I will almost bet that it has not been returned to myself or anyone, and that constitutes fraud.  I...I have been all over this country staying at ESA hotels.  Most are located properly for my use.  This is one of them. all have been cleaner than this one.  This is worse than a motel six.I have had the utmost frustration with just trying to get ,the air conditioner fixed, the carpet cleaned(as it was filthy)  I tried to contact the management, but when I was there at 8 AM I was told he would be in at 11.  when I was there at 4 pm, I was told he was gone for the day.  It is no wonder that this place is filthy and in such disrepair. There is no management..I only wish I had read these reviews before I booked here.  I was beginning to think that it was just me, but after reading the reviews I can tell that it is the hotel itself.They insist that the room be cleaned once a week, and force you to pay for it, then they don't clean the room, and tell you that you can get anything you need...if you go and get it.Also I am going to check my statement.  After staying 30 days, California law says they are supposed to return your  Taxes and not charge tax on the room for as long as you stay..I will almost bet that it has not been returned to myself or anyone, and that constitutes fraud.  I will check and file a formal complaint with the state.The manager, as you can see in the reviews, is constantly apologizing and promising to make the necessary corrections...It never happens.  He supposedly tried many times to call my room( when I was working) and only when I emailed him did he respond.  I could not reach the front desk to speak to anyone..The phone doesn't work.It still doesn't.  Unfortunately I am stuck here for a while, but I will try to make a connection to the corporate office, as this place is destroying the good name of  Extended Stay America..  DO NOT STAY HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r298774550-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>298774550</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Nothing exciting; four walls, a bed, full size fridge</t>
+  </si>
+  <si>
+    <t>Like the title implies: there was not much expected and not much delivered either. We've stayed at extended stay hotels in the past and we go back for convenience and economy. Nothing else. With the expectations set this location was just on par. The staff was polite. The room had been cleaned. The linen had been laundered. I'd like to say more but it is unnecessary. I would recommend this place if you have the two expectations of convenience and economy and are honest with yourself that it is all you want/need. Otherwise please book elsewhere for something different. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Like the title implies: there was not much expected and not much delivered either. We've stayed at extended stay hotels in the past and we go back for convenience and economy. Nothing else. With the expectations set this location was just on par. The staff was polite. The room had been cleaned. The linen had been laundered. I'd like to say more but it is unnecessary. I would recommend this place if you have the two expectations of convenience and economy and are honest with yourself that it is all you want/need. Otherwise please book elsewhere for something different. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r295490123-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>295490123</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Tatania went out of her way, but the overall property and what she had to work with was bad</t>
+  </si>
+  <si>
+    <t>2 of the 3 rooms we had for our family members were missing the smoke detectors with just wires hanging out of the wall. The air conditioning in one room was not functioning and they couldn't fix it. They did comp one of the 3 rooms for 2 nights but I would have rather had at least a decent room to stay during our family event.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>2 of the 3 rooms we had for our family members were missing the smoke detectors with just wires hanging out of the wall. The air conditioning in one room was not functioning and they couldn't fix it. They did comp one of the 3 rooms for 2 nights but I would have rather had at least a decent room to stay during our family event.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r294764592-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>294764592</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>This place should be closed down, it's so unsanitary.</t>
+  </si>
+  <si>
+    <t>It's just beyond words that a place like this can get away with charging for rooms in the condition that my room was in.  There should be an inspection that hotels/motels should go through and get rated just like restaurants given that any unsanitary condition of hotels/motels can also make people sick.  There are too, too many issues to list here so suffice it to say, it was horrible.  How corporation or owners of this establishment can sleep at night and keep collecting their profits is beyond imagination.  It's incomprehensible.  Although I'm all for a capitalistic society, just because something isn't illegal doesn't make it morally or ethically correct and how this location is maintained and serviced is downright immoral and unethical.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2015</t>
+  </si>
+  <si>
+    <t>It's just beyond words that a place like this can get away with charging for rooms in the condition that my room was in.  There should be an inspection that hotels/motels should go through and get rated just like restaurants given that any unsanitary condition of hotels/motels can also make people sick.  There are too, too many issues to list here so suffice it to say, it was horrible.  How corporation or owners of this establishment can sleep at night and keep collecting their profits is beyond imagination.  It's incomprehensible.  Although I'm all for a capitalistic society, just because something isn't illegal doesn't make it morally or ethically correct and how this location is maintained and serviced is downright immoral and unethical.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r285675682-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>285675682</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>I would rather sleep on the street!</t>
+  </si>
+  <si>
+    <t>What a waste of money! Blood stains on our sheets, cig burns on the yellow tinted cover (which is supposed to be white) NASTY pillows, uncleaned bathroom- They obviously do not believe in bleach or cleaning- and when I called to get new sheets, they made me go get the sheets myself and then thoseeeee were dirty too!!!!! and never apologized.How is this place in business???? Oh yea its a drug house, at least that is what it seemed like and looked like. STAY AWAY at all costs!! The owner needs to get his you know what together- horrific!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>What a waste of money! Blood stains on our sheets, cig burns on the yellow tinted cover (which is supposed to be white) NASTY pillows, uncleaned bathroom- They obviously do not believe in bleach or cleaning- and when I called to get new sheets, they made me go get the sheets myself and then thoseeeee were dirty too!!!!! and never apologized.How is this place in business???? Oh yea its a drug house, at least that is what it seemed like and looked like. STAY AWAY at all costs!! The owner needs to get his you know what together- horrific!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r268973017-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>268973017</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>The worst management &amp; customer service</t>
+  </si>
+  <si>
+    <t>My friends made a reservation from overseas to stay in that hotel for 3 weeks,since they don't speak English well I went along with them to checking them in.... The front office person did not know what to do, I guess it was his first day there so everything I asked him, he had to ask his manager. The manager was sitting behind his desk in the corner flirting  &amp; giggling with a female on the phone... I could hear her since she was speaking so loud &amp; he was telling her that he will call her later. Anyway our checking in took almost 1 hour... Then today I tried to call my friend's room few times all day, the front desk either not picking up the phone, putting me on hold for ever or telling me to call later because they can't transfer my call since they're on cordless phone... I really don't know what kind of business they're doing there...... But they suck.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>My friends made a reservation from overseas to stay in that hotel for 3 weeks,since they don't speak English well I went along with them to checking them in.... The front office person did not know what to do, I guess it was his first day there so everything I asked him, he had to ask his manager. The manager was sitting behind his desk in the corner flirting  &amp; giggling with a female on the phone... I could hear her since she was speaking so loud &amp; he was telling her that he will call her later. Anyway our checking in took almost 1 hour... Then today I tried to call my friend's room few times all day, the front desk either not picking up the phone, putting me on hold for ever or telling me to call later because they can't transfer my call since they're on cordless phone... I really don't know what kind of business they're doing there...... But they suck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r267036359-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>267036359</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>If you want restful and clean stay somewhere else!</t>
+  </si>
+  <si>
+    <t>The place was clearly understaffed and in need of serious cleaning. Our entry to the 2nd floor was met with the smell of the trash room which was overflowing as well as all of the other trash receptacles on the property. It smelled like a bar trashcan when smoking was allowed indoors. The poor rep at the counter was so overwhelmed, it felt terrible to ask for wash cloths and hand towels which when we asked in the morning the wash cloths were not available. We were given hand towels finally which we were told would do. We thought we were showing up to a fully equipped kitchen but after hours of travel we had to figure out our needs, request them at the front desk and juggle them to our room. The bedding was barley on the bed and the thermostat on the AC unit only went down to 60 F....not at all comfortable or restful. Oh and to top it off the bedside clock turned out to be set an hour fast. It was quite frustrating to wake up an hour earlier than we needed to after a terrible night's sleep. We will not be staying at another Extended Stay anywhere ever again!! We will spend $20 more and stay at the Marriott or Hilton. Not at all worth the $115 plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>The place was clearly understaffed and in need of serious cleaning. Our entry to the 2nd floor was met with the smell of the trash room which was overflowing as well as all of the other trash receptacles on the property. It smelled like a bar trashcan when smoking was allowed indoors. The poor rep at the counter was so overwhelmed, it felt terrible to ask for wash cloths and hand towels which when we asked in the morning the wash cloths were not available. We were given hand towels finally which we were told would do. We thought we were showing up to a fully equipped kitchen but after hours of travel we had to figure out our needs, request them at the front desk and juggle them to our room. The bedding was barley on the bed and the thermostat on the AC unit only went down to 60 F....not at all comfortable or restful. Oh and to top it off the bedside clock turned out to be set an hour fast. It was quite frustrating to wake up an hour earlier than we needed to after a terrible night's sleep. We will not be staying at another Extended Stay anywhere ever again!! We will spend $20 more and stay at the Marriott or Hilton. Not at all worth the $115 plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r266143700-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>266143700</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>bring your own elevator</t>
+  </si>
+  <si>
+    <t>If u came here just ask for first floor or bring your own elevator. I could not believe when the elevator broke, nobody fix it for almost a week. Also, nobody cleans, breakfast many times I got no coffee!, one day I saw what appear 2 homeless guys getting breakfast too. With no coffee of course.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>If u came here just ask for first floor or bring your own elevator. I could not believe when the elevator broke, nobody fix it for almost a week. Also, nobody cleans, breakfast many times I got no coffee!, one day I saw what appear 2 homeless guys getting breakfast too. With no coffee of course.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r260751793-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>260751793</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>SLEEP IN YOUR CAR INSTEAD!</t>
+  </si>
+  <si>
+    <t>I made the GRAND mistake of not reading the reviews here before booking.If you're looking for something out of a Tim Burton nightmare, here it is! Upon arrival I was greeted by a barking Rotweiller straight out of the movie "The Omen" Then there were midgets and tall people with no teeth.The place is as advertised. About as disgusting as a naked Roseanne Barr.When I laid down in the bed, I swear, I thought it was going to sink in the middle like Johnny Depp did in the original "Nightmare on Elm Street" - I actually feared that a puss filled arm was going to reach up from underneath the bed and take me to a place where they would do bad things to me with dental tools.I'm not quite sure how someone got bicycle tire marks on the pillowcases, but they did.Between the snoring from the opposite room and the fight next door from what I could gather was from two people who spoke Alabama, I managed to get a whopping 2 hours of sleep before I awakened to a soft voice speaking "Get Out"I'm off to get de-loused and to have my entire body fumigated.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I made the GRAND mistake of not reading the reviews here before booking.If you're looking for something out of a Tim Burton nightmare, here it is! Upon arrival I was greeted by a barking Rotweiller straight out of the movie "The Omen" Then there were midgets and tall people with no teeth.The place is as advertised. About as disgusting as a naked Roseanne Barr.When I laid down in the bed, I swear, I thought it was going to sink in the middle like Johnny Depp did in the original "Nightmare on Elm Street" - I actually feared that a puss filled arm was going to reach up from underneath the bed and take me to a place where they would do bad things to me with dental tools.I'm not quite sure how someone got bicycle tire marks on the pillowcases, but they did.Between the snoring from the opposite room and the fight next door from what I could gather was from two people who spoke Alabama, I managed to get a whopping 2 hours of sleep before I awakened to a soft voice speaking "Get Out"I'm off to get de-loused and to have my entire body fumigated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r257391033-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>257391033</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Unclean sheets</t>
+  </si>
+  <si>
+    <t>The service at this extended was horrible and the cleanliness was a complete fail. The sheets on my bed were clearly unwashed from the guest before me and every surface felt unwashed. They were under staffed and had low standards of customer service. Don't go here!! For a few extra dollars I stayed at the Marriott in the area the next night and was worth it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r243546922-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>243546922</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>The staff is fantastic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location. Awesome staff. Best value for your dollar.  The location is right on Ventura in Woodland Hills, walking distance to a grocery, banks, restaurants, nail saloon, target, in &amp; out, and Starbucks. It is a safe walk! Good neiborhood. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r231305189-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>231305189</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Great for quick business layover</t>
+  </si>
+  <si>
+    <t>Checked in late in evening and received my requested room on the ground floor (I didn't want to have to deal with any stairs) for my one evening stay. Both then and in the morning, counter clerks were cordial and welcoming.  I found the room very pleasant in decor and layout.  The room had a couple of maintenance issues (such as broken towel rack, base of kitchen sink broken, noisy frig that also was not terribly effective on keeping things cold) but that didn't impair my stay.  Microwave worked fine. In the morning, the desk clerk was very receptive to taking my information on what needed maintenance attention in the room, immediately writing it up on what seemed to be a sort of maintenance request form. 
+Breakfast is a "to go" sort of breakfast set up on a buffet in the lobby, with coffee, tea, breakfast bars, fruit bowl.  Room internet worked just fine.  Room seemed clean enough to me.  Bath towels are a bit scratchy, but I did have pairs of towels (bath, hand, washcloth) provided, whereas some other reviewers had indicated not having that many, or experiencing a lag in being provided towels.  No kitchen dishes, silver, or coffee maker provided in room. Only soap provided in the bath area.
+Though assigned a room in a non-smoking hallway (1st floor), there was clearly smoke evident in the hallway a few doors down from me.  I alerted the night...Checked in late in evening and received my requested room on the ground floor (I didn't want to have to deal with any stairs) for my one evening stay. Both then and in the morning, counter clerks were cordial and welcoming.  I found the room very pleasant in decor and layout.  The room had a couple of maintenance issues (such as broken towel rack, base of kitchen sink broken, noisy frig that also was not terribly effective on keeping things cold) but that didn't impair my stay.  Microwave worked fine. In the morning, the desk clerk was very receptive to taking my information on what needed maintenance attention in the room, immediately writing it up on what seemed to be a sort of maintenance request form. Breakfast is a "to go" sort of breakfast set up on a buffet in the lobby, with coffee, tea, breakfast bars, fruit bowl.  Room internet worked just fine.  Room seemed clean enough to me.  Bath towels are a bit scratchy, but I did have pairs of towels (bath, hand, washcloth) provided, whereas some other reviewers had indicated not having that many, or experiencing a lag in being provided towels.  No kitchen dishes, silver, or coffee maker provided in room. Only soap provided in the bath area.Though assigned a room in a non-smoking hallway (1st floor), there was clearly smoke evident in the hallway a few doors down from me.  I alerted the night desk clerk to that so that it could be looked into in the morning.  I hope that the adds fines charges to bills for whom people who are smoking when they're not to be!Some others wrote about a less than desirable sense of security but I didn't have that feeling.  If I had a similar work layover situation in the future, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Checked in late in evening and received my requested room on the ground floor (I didn't want to have to deal with any stairs) for my one evening stay. Both then and in the morning, counter clerks were cordial and welcoming.  I found the room very pleasant in decor and layout.  The room had a couple of maintenance issues (such as broken towel rack, base of kitchen sink broken, noisy frig that also was not terribly effective on keeping things cold) but that didn't impair my stay.  Microwave worked fine. In the morning, the desk clerk was very receptive to taking my information on what needed maintenance attention in the room, immediately writing it up on what seemed to be a sort of maintenance request form. 
+Breakfast is a "to go" sort of breakfast set up on a buffet in the lobby, with coffee, tea, breakfast bars, fruit bowl.  Room internet worked just fine.  Room seemed clean enough to me.  Bath towels are a bit scratchy, but I did have pairs of towels (bath, hand, washcloth) provided, whereas some other reviewers had indicated not having that many, or experiencing a lag in being provided towels.  No kitchen dishes, silver, or coffee maker provided in room. Only soap provided in the bath area.
+Though assigned a room in a non-smoking hallway (1st floor), there was clearly smoke evident in the hallway a few doors down from me.  I alerted the night...Checked in late in evening and received my requested room on the ground floor (I didn't want to have to deal with any stairs) for my one evening stay. Both then and in the morning, counter clerks were cordial and welcoming.  I found the room very pleasant in decor and layout.  The room had a couple of maintenance issues (such as broken towel rack, base of kitchen sink broken, noisy frig that also was not terribly effective on keeping things cold) but that didn't impair my stay.  Microwave worked fine. In the morning, the desk clerk was very receptive to taking my information on what needed maintenance attention in the room, immediately writing it up on what seemed to be a sort of maintenance request form. Breakfast is a "to go" sort of breakfast set up on a buffet in the lobby, with coffee, tea, breakfast bars, fruit bowl.  Room internet worked just fine.  Room seemed clean enough to me.  Bath towels are a bit scratchy, but I did have pairs of towels (bath, hand, washcloth) provided, whereas some other reviewers had indicated not having that many, or experiencing a lag in being provided towels.  No kitchen dishes, silver, or coffee maker provided in room. Only soap provided in the bath area.Though assigned a room in a non-smoking hallway (1st floor), there was clearly smoke evident in the hallway a few doors down from me.  I alerted the night desk clerk to that so that it could be looked into in the morning.  I hope that the adds fines charges to bills for whom people who are smoking when they're not to be!Some others wrote about a less than desirable sense of security but I didn't have that feeling.  If I had a similar work layover situation in the future, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r229318503-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>229318503</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Nasty!</t>
+  </si>
+  <si>
+    <t>First let me say that the concept is a good one. We save a lot of money getting a room with cooking facilities. However, this place failed on several levels.
+On their web site, in red, it states that all the rooms are recently renovated. Really? The pictures I have supplied say otherwise. Mold, bedding falling apart, pillow stains, lamps bent. Exit signs off the wall and laying on the floor and missing name plates?
+Our first clue was when we asked for another room, because the stove fan did not work, and they moved us to another room.
+We requested two additional pillows which were provided promptly - without pillow cases, that is how we discovered that one was severely stained (see photo) and had a musty-smell, for obvious reasons stated we did not use this pillow.
+We requested towels (room had only 1 bath towel, no face-cloths or hand towels).....staff explained that they needed to finish the load of towels as none were 'clean / available'; evidently staff is required to wash/dry the laundry.  Checked with the front desk after about 2-hours and the new shift promised that they would 'dry the towels and deliver to room'.....still no towels after yet another 2-hours, so walked down to the front desk and was given bath towels (face-cloths &amp; hand towels were still 'not ready', did receive some the following day from the third shift of staff).
+Checked the vending...First let me say that the concept is a good one. We save a lot of money getting a room with cooking facilities. However, this place failed on several levels.On their web site, in red, it states that all the rooms are recently renovated. Really? The pictures I have supplied say otherwise. Mold, bedding falling apart, pillow stains, lamps bent. Exit signs off the wall and laying on the floor and missing name plates?Our first clue was when we asked for another room, because the stove fan did not work, and they moved us to another room.We requested two additional pillows which were provided promptly - without pillow cases, that is how we discovered that one was severely stained (see photo) and had a musty-smell, for obvious reasons stated we did not use this pillow.We requested towels (room had only 1 bath towel, no face-cloths or hand towels).....staff explained that they needed to finish the load of towels as none were 'clean / available'; evidently staff is required to wash/dry the laundry.  Checked with the front desk after about 2-hours and the new shift promised that they would 'dry the towels and deliver to room'.....still no towels after yet another 2-hours, so walked down to the front desk and was given bath towels (face-cloths &amp; hand towels were still 'not ready', did receive some the following day from the third shift of staff).Checked the vending machine for water, none was available, we were told 'vendor notified a few days ago - still no word on when it would be refilled again.  Next day the beverage machine was filled, however it only accepted credit cards (coins / dollar bill slots were not operable) and the delivery mechanism had jammed, rendering the machine 'completely inoperable').Used the guest laundry and found the washing machine lid / top surface extremely dirty (see photo) as it was caked with built-up dirt/soap/grime; cost was $4 per load (one wash &amp; dry).Could be not enough - trained - staff on duty? Either way ... pass this place up.MoreShow less</t>
+  </si>
+  <si>
+    <t>First let me say that the concept is a good one. We save a lot of money getting a room with cooking facilities. However, this place failed on several levels.
+On their web site, in red, it states that all the rooms are recently renovated. Really? The pictures I have supplied say otherwise. Mold, bedding falling apart, pillow stains, lamps bent. Exit signs off the wall and laying on the floor and missing name plates?
+Our first clue was when we asked for another room, because the stove fan did not work, and they moved us to another room.
+We requested two additional pillows which were provided promptly - without pillow cases, that is how we discovered that one was severely stained (see photo) and had a musty-smell, for obvious reasons stated we did not use this pillow.
+We requested towels (room had only 1 bath towel, no face-cloths or hand towels).....staff explained that they needed to finish the load of towels as none were 'clean / available'; evidently staff is required to wash/dry the laundry.  Checked with the front desk after about 2-hours and the new shift promised that they would 'dry the towels and deliver to room'.....still no towels after yet another 2-hours, so walked down to the front desk and was given bath towels (face-cloths &amp; hand towels were still 'not ready', did receive some the following day from the third shift of staff).
+Checked the vending...First let me say that the concept is a good one. We save a lot of money getting a room with cooking facilities. However, this place failed on several levels.On their web site, in red, it states that all the rooms are recently renovated. Really? The pictures I have supplied say otherwise. Mold, bedding falling apart, pillow stains, lamps bent. Exit signs off the wall and laying on the floor and missing name plates?Our first clue was when we asked for another room, because the stove fan did not work, and they moved us to another room.We requested two additional pillows which were provided promptly - without pillow cases, that is how we discovered that one was severely stained (see photo) and had a musty-smell, for obvious reasons stated we did not use this pillow.We requested towels (room had only 1 bath towel, no face-cloths or hand towels).....staff explained that they needed to finish the load of towels as none were 'clean / available'; evidently staff is required to wash/dry the laundry.  Checked with the front desk after about 2-hours and the new shift promised that they would 'dry the towels and deliver to room'.....still no towels after yet another 2-hours, so walked down to the front desk and was given bath towels (face-cloths &amp; hand towels were still 'not ready', did receive some the following day from the third shift of staff).Checked the vending machine for water, none was available, we were told 'vendor notified a few days ago - still no word on when it would be refilled again.  Next day the beverage machine was filled, however it only accepted credit cards (coins / dollar bill slots were not operable) and the delivery mechanism had jammed, rendering the machine 'completely inoperable').Used the guest laundry and found the washing machine lid / top surface extremely dirty (see photo) as it was caked with built-up dirt/soap/grime; cost was $4 per load (one wash &amp; dry).Could be not enough - trained - staff on duty? Either way ... pass this place up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r224689877-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>224689877</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Budget should not impact hygiene</t>
+  </si>
+  <si>
+    <t>This was the only hotel available in Woodland Hills, so it was this or sleeping on a park bench - I wish I had chosen the latter. My colleague and I experienced all of the horrors that others had previously, dirty bed linen, missing or dirty towels. I slept on the chair in my room as it seemed to be the cleanest surface. The mixture of cigarrette smoke and weed in the hallways was pungent; and the crowning glory was the guest in the room below me starting to practice on a full drum kit at 7:30am - we checked out after 1 night and headed to the park!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r215977766-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>215977766</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>WORST HOTEL EVER!</t>
+  </si>
+  <si>
+    <t>Don't  stay here! I booked a room for my daughter so she could go to a job interview.  They gave her a smoking room (reserved non-smoking) which had one towel, dirty linens, broken outlets, broken frig, no blow dryer, broken iron, no shampoo, no conditioner, etc.  The front desk was unresponsive.  I will never use Extended Stay America again!  It is a pit!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2014</t>
+  </si>
+  <si>
+    <t>Don't  stay here! I booked a room for my daughter so she could go to a job interview.  They gave her a smoking room (reserved non-smoking) which had one towel, dirty linens, broken outlets, broken frig, no blow dryer, broken iron, no shampoo, no conditioner, etc.  The front desk was unresponsive.  I will never use Extended Stay America again!  It is a pit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r211163138-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>211163138</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Horrible Place</t>
+  </si>
+  <si>
+    <t>The rooms are dirty, especially the carpet, it has got dirty spots all over the room. The toilet does not have an exhaust. The receptionist says that the entire hotel does not have exhausts in the toilets. The hotel provides utensils which have dirty spots all over. Over all this is the worst place i have stayed. The dustbin was not cleaned when i checked in and they took 2 days to clean it after repeated complaintsMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>The rooms are dirty, especially the carpet, it has got dirty spots all over the room. The toilet does not have an exhaust. The receptionist says that the entire hotel does not have exhausts in the toilets. The hotel provides utensils which have dirty spots all over. Over all this is the worst place i have stayed. The dustbin was not cleaned when i checked in and they took 2 days to clean it after repeated complaintsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r210763917-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>210763917</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here!!!!</t>
+  </si>
+  <si>
+    <t>Booked a king suite over a month in advance and when I arrived they gave me a queen and told me a king was not available... yet my friend,  who booked days later than I did, got his king suite. There were no towels or soap in my room (and the towel situation was the same for many of us that stayed there) When I went to the lobby to ask for towels,  they said they have none and are washing all of them right now. Really... ALL the towels for the entire hotel? Weird, and unacceptable. Also, I asked for all the kitchen amenities to be brought to my room, but only received half of them. I had to call, then go down to the lobby 3 times. Inconvenient to the guest AND the staff. Guests were constantly in the lobby with various issues. I've never experienced a hotel like this and will most definitely never stay there again. Trust me, stay elsewhere! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Booked a king suite over a month in advance and when I arrived they gave me a queen and told me a king was not available... yet my friend,  who booked days later than I did, got his king suite. There were no towels or soap in my room (and the towel situation was the same for many of us that stayed there) When I went to the lobby to ask for towels,  they said they have none and are washing all of them right now. Really... ALL the towels for the entire hotel? Weird, and unacceptable. Also, I asked for all the kitchen amenities to be brought to my room, but only received half of them. I had to call, then go down to the lobby 3 times. Inconvenient to the guest AND the staff. Guests were constantly in the lobby with various issues. I've never experienced a hotel like this and will most definitely never stay there again. Trust me, stay elsewhere! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r207683688-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>207683688</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Could Be So Much Better</t>
+  </si>
+  <si>
+    <t>The hotel could be a great place to stay if it corrected some very fixable flaws.  There is virtually no security.  Side doors are open with nobody to check people coming and going.  How can they tell if somebody belongs in the building or not?  The hotel promises that your room is scheduled for cleaning every 7 days if staying 7 days or longer.  During my stays there my room was missed for cleaning numerous times.  Other times it was cleaned so late in the day that the maids did not have enough clean towels or supplies to leave in the room.  During one stay I was missed for cleaning 3 times in 4 weeks.  The only way I received clean towels was to go to the front desk and ask for them.  The hotel is supposed to have been upgraded and refurbished recently according to there ads, but many items in the rooms are either damaged or do not work properly.  The solution, they say they can move you to another room, if one is available.  Sinks that do not drain properly are also common.  Their "breakfast" is a joke.  The front desk employees try, but can only do so much.  Many areas of the hotel are dirty, trash rooms are often full and there is generally the smell of smoke in most areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>The hotel could be a great place to stay if it corrected some very fixable flaws.  There is virtually no security.  Side doors are open with nobody to check people coming and going.  How can they tell if somebody belongs in the building or not?  The hotel promises that your room is scheduled for cleaning every 7 days if staying 7 days or longer.  During my stays there my room was missed for cleaning numerous times.  Other times it was cleaned so late in the day that the maids did not have enough clean towels or supplies to leave in the room.  During one stay I was missed for cleaning 3 times in 4 weeks.  The only way I received clean towels was to go to the front desk and ask for them.  The hotel is supposed to have been upgraded and refurbished recently according to there ads, but many items in the rooms are either damaged or do not work properly.  The solution, they say they can move you to another room, if one is available.  Sinks that do not drain properly are also common.  Their "breakfast" is a joke.  The front desk employees try, but can only do so much.  Many areas of the hotel are dirty, trash rooms are often full and there is generally the smell of smoke in most areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r206417571-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>206417571</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel and VERY convenient location</t>
+  </si>
+  <si>
+    <t>All the stuff (local restaurants, Target, Ralphs etc) was in a walking distance from the location. Room was clean, no issues with kitchenette and bathroom as it was told in other reports.Will definitely choose the hotel again once I'll be back in LA.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r201434621-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>201434621</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>SLEEPING IN AN ASHTRAY</t>
+  </si>
+  <si>
+    <t>This facility is awful.  Both the room and public areas smell like smoke and the room and public areas were rundown and dirty.  The front desk employees were doing the best they could under the circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded April 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2014</t>
+  </si>
+  <si>
+    <t>This facility is awful.  Both the room and public areas smell like smoke and the room and public areas were rundown and dirty.  The front desk employees were doing the best they could under the circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r191172785-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>191172785</t>
+  </si>
+  <si>
+    <t>01/17/2014</t>
+  </si>
+  <si>
+    <t>My experience at ESA -</t>
+  </si>
+  <si>
+    <t>Bare minimum of services.  Poor lobby, poor breakfast, poorly furnished room and I did not feel safe at times in the parking lot.  Too many men hanging around.  Not a welcoming atmosphere.  I looked all directions as I walked down the hallway.   Saw several frustrated customers at the front desk.  The clerks seemed friendly, but I saw some rolling of the eyes after customers went out the door.  Took 8 hours to get clean towels.  Rooms were recently remodeled, which was nice.  Very cheaply furnished.  Housekeeping once a week and you take care of your own trash and linens.  Relatively clean.  Very slow wifi - if you want it faster, you have to pay extra!     For the price, quite a ripoff.  No more ESA for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Bare minimum of services.  Poor lobby, poor breakfast, poorly furnished room and I did not feel safe at times in the parking lot.  Too many men hanging around.  Not a welcoming atmosphere.  I looked all directions as I walked down the hallway.   Saw several frustrated customers at the front desk.  The clerks seemed friendly, but I saw some rolling of the eyes after customers went out the door.  Took 8 hours to get clean towels.  Rooms were recently remodeled, which was nice.  Very cheaply furnished.  Housekeeping once a week and you take care of your own trash and linens.  Relatively clean.  Very slow wifi - if you want it faster, you have to pay extra!     For the price, quite a ripoff.  No more ESA for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r189921857-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>189921857</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Dirty and smells bad</t>
+  </si>
+  <si>
+    <t>I felt like I was going to be mugged in the hallway. I stayed for over a week, paid in advance, and was locked out of my room every day, which required a trip to the front desk to re-code my key. No explanation. The room smelled so I purchased a Air Wick plug in which really helped. This is a dog friendly facility and the barking dogs kept me up all night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2014</t>
+  </si>
+  <si>
+    <t>I felt like I was going to be mugged in the hallway. I stayed for over a week, paid in advance, and was locked out of my room every day, which required a trip to the front desk to re-code my key. No explanation. The room smelled so I purchased a Air Wick plug in which really helped. This is a dog friendly facility and the barking dogs kept me up all night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r185227466-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>185227466</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice but not as nice as I expected </t>
+  </si>
+  <si>
+    <t>Checking in was easy the young guy at the front was very friendly. Room was clean but the stairwell closest to me had an empty bin and some type of sheet or curtain and what looked like the bottom of a to-go thing from dennys. The 3rd night i had gone to open the curtains and the curtains fell off on one side. I called the front let them know they said they would have someone come up and fix it. Never came. So i had to figure out a way to keep the sheet up in the window that night.  Next morning I went down to pay for another night again mentioned it I was then told that the guy who fixed things had been out a couple days but would try to get someone up to fix it. (Try!? Seriously) I ask if i can just switch rooms he says that I'd have to wait for the manager. Okay so i ask for an extra blanket to hang over the window. As of check out which would be day 3 of having a blanket over the window, no one had even come to look at it or attempt to help fix it. Thats my biggest complaint about my stay. Staff was great except for that so I honestly don't know if i would recommend or even come back, unless everything else in the area was sold out. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Checking in was easy the young guy at the front was very friendly. Room was clean but the stairwell closest to me had an empty bin and some type of sheet or curtain and what looked like the bottom of a to-go thing from dennys. The 3rd night i had gone to open the curtains and the curtains fell off on one side. I called the front let them know they said they would have someone come up and fix it. Never came. So i had to figure out a way to keep the sheet up in the window that night.  Next morning I went down to pay for another night again mentioned it I was then told that the guy who fixed things had been out a couple days but would try to get someone up to fix it. (Try!? Seriously) I ask if i can just switch rooms he says that I'd have to wait for the manager. Okay so i ask for an extra blanket to hang over the window. As of check out which would be day 3 of having a blanket over the window, no one had even come to look at it or attempt to help fix it. Thats my biggest complaint about my stay. Staff was great except for that so I honestly don't know if i would recommend or even come back, unless everything else in the area was sold out. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r172809223-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>172809223</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>The best experience</t>
+  </si>
+  <si>
+    <t>This is the best hotel experience you could possibly have for the price being charged. It is the utmost value for money. They have now upgraded the rooms and the renovations implemented are very much welcomed. The management is in control of the hotel while being professional and accommodating.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r171965708-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>171965708</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Awesome centrally located hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was absolutely perfect. No complaints. I was kindly greeted when I arrived and the staff answered all of my questions. The manager was so nice. He even helped me with my luggage. The room was spacious but more importantly, very clean. I would recommend this hotel to everyone!!!!</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r166169096-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166169096</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>It was a good experience!</t>
+  </si>
+  <si>
+    <t>Excellent! The front desk staff were very nice and helpful! We asked for a extra towels and we got it within 30 sec. It is a walkin distance to target and in-n-out and other other shops! Very clean room and also very quiet!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r157882818-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>157882818</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Great Location, really clean room and friendly personnel</t>
+  </si>
+  <si>
+    <t>The hotel provided me all comodities to make my stay pleasant. It felt like home. The rooms were big, clean, good layout, appliances worked as expected and it provided th quietness I was lloking for, after work.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r157745678-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>157745678</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>I am a frequently traveling businessman, and my experience with this location has been nothing less than excellent. The management is very much on the ball. the hotel is clean, rooms are well taken care of, and the entire team are very accommodating. Courtesy extended by the staff was nothing less than outstanding.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r157434137-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>157434137</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>My 2-week Stay</t>
+  </si>
+  <si>
+    <t>Good if you are staying in hotel for long time. Weekly rate is economical and you can extend as you need. My family stayed for two weeks and we occupied two rooms. The breakfast to go was complimentary and very healthy especially the oatmeal and fruits.The coffee was a life saver for anybody who cannot go without that morning coffee.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r156708427-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156708427</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel for a Great Price with Excellent Service</t>
+  </si>
+  <si>
+    <t>Last month, we had a reunion with my highscholl friends in Extended Stay in Woodland Hills, California.  All my friends are about 60 years old and very demanding. We had 4 or 5 rooms.It was amazing experience, from room reservation, to check in, service, etc.The management was always ready to help us with our needs.  I'd  really like to recommand this hotel to other potential travellers. H - A</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r155942086-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155942086</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>It reeked of cigarettes.</t>
+  </si>
+  <si>
+    <t>Upon entering the hotel everything seemed fine but we had a whole mix up and disaster. Any who the rooms reeked of cigarettes (we ended up in a "smokers" room and we tried to change it but the Asian man refused). The reason the man refused was because they said they had "no more non smoker rooms available).We got even more upset because we called later and asked if they had non-smoking rooms and they said they did! We felt kinda sad that they lied to us about that because second hand smoke is a serious thing. Anyways we won't be returing any time soon. A tip for the hotel don't cram all the rooms together the smell of smoke travels threw the rooms Overall terrible experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded April 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2013</t>
+  </si>
+  <si>
+    <t>Upon entering the hotel everything seemed fine but we had a whole mix up and disaster. Any who the rooms reeked of cigarettes (we ended up in a "smokers" room and we tried to change it but the Asian man refused). The reason the man refused was because they said they had "no more non smoker rooms available).We got even more upset because we called later and asked if they had non-smoking rooms and they said they did! We felt kinda sad that they lied to us about that because second hand smoke is a serious thing. Anyways we won't be returing any time soon. A tip for the hotel don't cram all the rooms together the smell of smoke travels threw the rooms Overall terrible experienceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r155118283-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155118283</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Front desk</t>
+  </si>
+  <si>
+    <t>i am unsure why people are saying how great the Woodland Hills California Extended stay Hotel is. I was there Friday. I spoke with the older manger Farhod or similar. The hotels furniture was dirty in my room, it had fleas in the carpet, nothing match, the bathroom has no ventilation, the breakfast area, never knew about it cause it wasn't offered. Then it's almost like they find a reason to mistreat you if you complain.There's kids running the front desk. It's a joke. I WILL NEVER RETURN.. I CHECKED INTO THE TARZANA INN. A little pricey but it was the greatest experience ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>i am unsure why people are saying how great the Woodland Hills California Extended stay Hotel is. I was there Friday. I spoke with the older manger Farhod or similar. The hotels furniture was dirty in my room, it had fleas in the carpet, nothing match, the bathroom has no ventilation, the breakfast area, never knew about it cause it wasn't offered. Then it's almost like they find a reason to mistreat you if you complain.There's kids running the front desk. It's a joke. I WILL NEVER RETURN.. I CHECKED INTO THE TARZANA INN. A little pricey but it was the greatest experience ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r153523466-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>153523466</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Stayed here cuz it was cheap for a five-day stay.  Room was clean and the bed pretty comfy, but beyond that, just "meh."  The formica in the kitchen was burned and the trim was coming off.  The bathroom needed cosmetic work.  The "grab and go" breakfast was pretty useless ... but since we made breakfast in the kitchen, it really didn't matter (small but important point ... what good is a coffee maker without filters?).  Overall the place wasn't bad, but not up to my standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Stayed here cuz it was cheap for a five-day stay.  Room was clean and the bed pretty comfy, but beyond that, just "meh."  The formica in the kitchen was burned and the trim was coming off.  The bathroom needed cosmetic work.  The "grab and go" breakfast was pretty useless ... but since we made breakfast in the kitchen, it really didn't matter (small but important point ... what good is a coffee maker without filters?).  Overall the place wasn't bad, but not up to my standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r152850852-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152850852</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>weirdest treatment by a manager i hever EVER had</t>
+  </si>
+  <si>
+    <t>i stayed here b c my apartment flooded, i needed a long term place to stay  and was EXHAUSTED  i was in NO condition to be treated badly by anyone my room had no lock so i asked to switch rooms  the room they put me in was right next to the leaf blower in the EARLY morning i called  to switch rooms again..i was not dressed the mgr demanded i come downstairs 2sign some thing i asked if i could sleep a bit first they said NO.. i muttered "some swear word..allright" under my breath over the phone- i was sleeping i drag myself downstairs &amp;   this guy SCREAMS at me to "get out" " no one talks like that to me" he  screams.. i was sick..it was a horrible experience later on i discovered  the guy hates women  has issues with people everyone else there was nice, but that guy i will HATE for the rest of my life  i was in a bad situation he should have been fired- i can understand if i was swearing loudly alt at him in public..makign a scene or something but not  what happenedMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded March 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2013</t>
+  </si>
+  <si>
+    <t>i stayed here b c my apartment flooded, i needed a long term place to stay  and was EXHAUSTED  i was in NO condition to be treated badly by anyone my room had no lock so i asked to switch rooms  the room they put me in was right next to the leaf blower in the EARLY morning i called  to switch rooms again..i was not dressed the mgr demanded i come downstairs 2sign some thing i asked if i could sleep a bit first they said NO.. i muttered "some swear word..allright" under my breath over the phone- i was sleeping i drag myself downstairs &amp;   this guy SCREAMS at me to "get out" " no one talks like that to me" he  screams.. i was sick..it was a horrible experience later on i discovered  the guy hates women  has issues with people everyone else there was nice, but that guy i will HATE for the rest of my life  i was in a bad situation he should have been fired- i can understand if i was swearing loudly alt at him in public..makign a scene or something but not  what happenedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r152537460-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152537460</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>nightmare</t>
+  </si>
+  <si>
+    <t>We booked for 4 days for a family gathering in april 2012 the room was Oh My God a real shock dirty the bed had no pillows and the sheets had stains  no coffee maker in room  when request to have sheet and pillow was given a pillow with no case and the sheets were in the wash?  the smell in the room was very bad  we left and moved to another hotel down the road  and was told we had to pay for the cancle roomMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>We booked for 4 days for a family gathering in april 2012 the room was Oh My God a real shock dirty the bed had no pillows and the sheets had stains  no coffee maker in room  when request to have sheet and pillow was given a pillow with no case and the sheets were in the wash?  the smell in the room was very bad  we left and moved to another hotel down the road  and was told we had to pay for the cancle roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r152285587-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152285587</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t>service here is great. love this extended stay. very clean and the people are nice. very understanding caring people. they helped us out in couple situations. they have continualy provided us with the best value and service in the valley. complimentry breakfasti would come to this hotel any chanceMoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>service here is great. love this extended stay. very clean and the people are nice. very understanding caring people. they helped us out in couple situations. they have continualy provided us with the best value and service in the valley. complimentry breakfasti would come to this hotel any chanceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r147862422-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>147862422</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>With the upmost professionalism</t>
+  </si>
+  <si>
+    <t>It was great. I liked the room setup and the staff was very understanding. The maids took care of everything I had the grateful sense of being able to leave money out. I really felt fortunate to find this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded December 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2012</t>
+  </si>
+  <si>
+    <t>It was great. I liked the room setup and the staff was very understanding. The maids took care of everything I had the grateful sense of being able to leave money out. I really felt fortunate to find this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r147474626-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>147474626</t>
+  </si>
+  <si>
+    <t>12/14/2012</t>
+  </si>
+  <si>
+    <t>Looks can be deceiving...</t>
+  </si>
+  <si>
+    <t>After reading these recent reviews that compliment this place so much, I am shocked that I am writing about the same hotel. ...Our experience was awful from the moment we entered the place. From the outside, this hotel looks appealing and clean.  The parking lot is well-lit and there is plenty of parking.  Though upon entering the facility, one experiences the real deal...a royal dumpster bin.  The evening staff we dealt with had no customer service skills and little personality...not a person who should be greeting in-coming guests at a hotel.  Walking through the hallway on the way to our room, I felt like I was in some cheap restaurant with lingering smells of old food.  There seemed to be some kind of cherry air freshener trying to cover up this smell, which only made it worse.  Our room had a small kitchenette with a small fridge that was leaking water all over the floor.  The ceiling above the fridge was covered in dirt and spiderwebs and the bathroom reeked of old stale food.  The bedspread was worn and dirty when we went down to talk to the front desk about changing rooms, he had gone home.  We were told by a lady working there doing hotel laundry that there that all of the front desk staff leaves at 11pm.  What kind of hotel doesn't have overnight staff at the front desk?  We ended up borrowing blankets and sheets from...After reading these recent reviews that compliment this place so much, I am shocked that I am writing about the same hotel. ...Our experience was awful from the moment we entered the place. From the outside, this hotel looks appealing and clean.  The parking lot is well-lit and there is plenty of parking.  Though upon entering the facility, one experiences the real deal...a royal dumpster bin.  The evening staff we dealt with had no customer service skills and little personality...not a person who should be greeting in-coming guests at a hotel.  Walking through the hallway on the way to our room, I felt like I was in some cheap restaurant with lingering smells of old food.  There seemed to be some kind of cherry air freshener trying to cover up this smell, which only made it worse.  Our room had a small kitchenette with a small fridge that was leaking water all over the floor.  The ceiling above the fridge was covered in dirt and spiderwebs and the bathroom reeked of old stale food.  The bedspread was worn and dirty when we went down to talk to the front desk about changing rooms, he had gone home.  We were told by a lady working there doing hotel laundry that there that all of the front desk staff leaves at 11pm.  What kind of hotel doesn't have overnight staff at the front desk?  We ended up borrowing blankets and sheets from my in-laws so we wouldn't have to sleep on the dirty bed.  The next morning we promptly checked out.  We made sure to get a full refund and won't make the mistake of judging a book by it's cover.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded December 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2012</t>
+  </si>
+  <si>
+    <t>After reading these recent reviews that compliment this place so much, I am shocked that I am writing about the same hotel. ...Our experience was awful from the moment we entered the place. From the outside, this hotel looks appealing and clean.  The parking lot is well-lit and there is plenty of parking.  Though upon entering the facility, one experiences the real deal...a royal dumpster bin.  The evening staff we dealt with had no customer service skills and little personality...not a person who should be greeting in-coming guests at a hotel.  Walking through the hallway on the way to our room, I felt like I was in some cheap restaurant with lingering smells of old food.  There seemed to be some kind of cherry air freshener trying to cover up this smell, which only made it worse.  Our room had a small kitchenette with a small fridge that was leaking water all over the floor.  The ceiling above the fridge was covered in dirt and spiderwebs and the bathroom reeked of old stale food.  The bedspread was worn and dirty when we went down to talk to the front desk about changing rooms, he had gone home.  We were told by a lady working there doing hotel laundry that there that all of the front desk staff leaves at 11pm.  What kind of hotel doesn't have overnight staff at the front desk?  We ended up borrowing blankets and sheets from...After reading these recent reviews that compliment this place so much, I am shocked that I am writing about the same hotel. ...Our experience was awful from the moment we entered the place. From the outside, this hotel looks appealing and clean.  The parking lot is well-lit and there is plenty of parking.  Though upon entering the facility, one experiences the real deal...a royal dumpster bin.  The evening staff we dealt with had no customer service skills and little personality...not a person who should be greeting in-coming guests at a hotel.  Walking through the hallway on the way to our room, I felt like I was in some cheap restaurant with lingering smells of old food.  There seemed to be some kind of cherry air freshener trying to cover up this smell, which only made it worse.  Our room had a small kitchenette with a small fridge that was leaking water all over the floor.  The ceiling above the fridge was covered in dirt and spiderwebs and the bathroom reeked of old stale food.  The bedspread was worn and dirty when we went down to talk to the front desk about changing rooms, he had gone home.  We were told by a lady working there doing hotel laundry that there that all of the front desk staff leaves at 11pm.  What kind of hotel doesn't have overnight staff at the front desk?  We ended up borrowing blankets and sheets from my in-laws so we wouldn't have to sleep on the dirty bed.  The next morning we promptly checked out.  We made sure to get a full refund and won't make the mistake of judging a book by it's cover.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r140772629-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>140772629</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Excellent Stay in ESA</t>
+  </si>
+  <si>
+    <t>I have been staying in the ESA Woodland Hills for couple years now. My work requires me to stay in the Valley couple of days a week and for the most part I have stayed here. Check-in and check-our are super easy. You can come in really late at night and leave early morning with no problem. Staff are friendly and helpful. There are grocery stores, restaurants and all sorts of shop very close and some even in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded September 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2012</t>
+  </si>
+  <si>
+    <t>I have been staying in the ESA Woodland Hills for couple years now. My work requires me to stay in the Valley couple of days a week and for the most part I have stayed here. Check-in and check-our are super easy. You can come in really late at night and leave early morning with no problem. Staff are friendly and helpful. There are grocery stores, restaurants and all sorts of shop very close and some even in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r139446411-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>139446411</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Extended Stay, Woodland Hills, CA</t>
+  </si>
+  <si>
+    <t>I've made several trips to the Woodland Hills, CA Extended Stays - amounting to several months stay over the last 18 months.  I've seen the hotel go through several different managers initially, until finally they hired their current manager, who has been there for over a year.  I've seen the hotel upgrade itself substantially over the last year; it's comfortable and nicely maintained.  The service, too, has only gotten better over the past year.  People are friendly and happy to accomodate you with whatever you need.  I recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded September 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2012</t>
+  </si>
+  <si>
+    <t>I've made several trips to the Woodland Hills, CA Extended Stays - amounting to several months stay over the last 18 months.  I've seen the hotel go through several different managers initially, until finally they hired their current manager, who has been there for over a year.  I've seen the hotel upgrade itself substantially over the last year; it's comfortable and nicely maintained.  The service, too, has only gotten better over the past year.  People are friendly and happy to accomodate you with whatever you need.  I recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r138123767-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>138123767</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>"Harbor in the night... or day!"</t>
+  </si>
+  <si>
+    <t>I have been staying at this ESA Woodland Hills location for 4 years now, and just booked my stay for 2012. My work has me in Beverly Hills for the month of October and it's just a 20 minute (well-timed) drive to work from there. The noise from nearby traffic is apparent but never to the point to bother my sleeping habits. Grocery nearby, restaurants, an occasional sporting event across the street at WH High School. The staff here is a combination of multilingual folks that have all been able and capable to assist me with any request. One thing to remember is that some folks assume that the ESA chain is a full-service hotel chain, which it is not. Guests can certainly plan on an array of comforts here like the deluxe kitchenettes, comfortable beds and furniture and extra living space, but should also remember to provide yourselves the basics such as snacks, bottled water and possibly a favorite pillow or music player. Nonetheless, the ESA Woodland Hills staff and property are all ready-to-please upon my arrival.I would like to thank the staff for the many nights of convenience and accommodation I have enjoyed since 2008. See you in October!Crazy John Brooks- 16x World Frisbee Champion-MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded September 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2012</t>
+  </si>
+  <si>
+    <t>I have been staying at this ESA Woodland Hills location for 4 years now, and just booked my stay for 2012. My work has me in Beverly Hills for the month of October and it's just a 20 minute (well-timed) drive to work from there. The noise from nearby traffic is apparent but never to the point to bother my sleeping habits. Grocery nearby, restaurants, an occasional sporting event across the street at WH High School. The staff here is a combination of multilingual folks that have all been able and capable to assist me with any request. One thing to remember is that some folks assume that the ESA chain is a full-service hotel chain, which it is not. Guests can certainly plan on an array of comforts here like the deluxe kitchenettes, comfortable beds and furniture and extra living space, but should also remember to provide yourselves the basics such as snacks, bottled water and possibly a favorite pillow or music player. Nonetheless, the ESA Woodland Hills staff and property are all ready-to-please upon my arrival.I would like to thank the staff for the many nights of convenience and accommodation I have enjoyed since 2008. See you in October!Crazy John Brooks- 16x World Frisbee Champion-More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r131113471-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131113471</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Bed Mites</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights and ended up in emergency room with scabies caused by bed mites. Would stay away at all costs.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Woodland Hills, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights and ended up in emergency room with scabies caused by bed mites. Would stay away at all costs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r130587140-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130587140</t>
+  </si>
+  <si>
+    <t>05/25/2012</t>
+  </si>
+  <si>
+    <t>The staff makes the stay absolutely enjoyable, especially the manager Fedros. Very accomodating</t>
+  </si>
+  <si>
+    <t>I felt very welcomed by the staff. All requests were taken care of within 15 min. Never any issues :) MoreShow less</t>
+  </si>
+  <si>
+    <t>I felt very welcomed by the staff. All requests were taken care of within 15 min. Never any issues :) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r130529614-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130529614</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>Most enjoyable overnighter we've had in a while.</t>
+  </si>
+  <si>
+    <t>When differentiating hotels of a similar price, is all boils down to service. The room was nice and clean. Bed was cumfy. Tv was new. The kitchenette was great. Everything was fully stocked. Basically everything you would expect for what you'd paid for. However, something you can usually always also expect is a passive or negative attitude from the front desk person when checking in later in the evening. THIS IS NOT THE CASE AT EXTENDED STAY AMERICA WOODLAND HILLS.Edward -the man behind the desk- was Johnny on the spot for us. We checked in at a little later than 1020pm, so it wouldve been easy for him to pull off tired and ready-to-get-off routine. Instead, this young man was Johnny on the spot. Everything we needed, he anticipated and had ready for us in an instant. Remarkably efficient service. Will be coming back to this hotel whenever we are in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>When differentiating hotels of a similar price, is all boils down to service. The room was nice and clean. Bed was cumfy. Tv was new. The kitchenette was great. Everything was fully stocked. Basically everything you would expect for what you'd paid for. However, something you can usually always also expect is a passive or negative attitude from the front desk person when checking in later in the evening. THIS IS NOT THE CASE AT EXTENDED STAY AMERICA WOODLAND HILLS.Edward -the man behind the desk- was Johnny on the spot for us. We checked in at a little later than 1020pm, so it wouldve been easy for him to pull off tired and ready-to-get-off routine. Instead, this young man was Johnny on the spot. Everything we needed, he anticipated and had ready for us in an instant. Remarkably efficient service. Will be coming back to this hotel whenever we are in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r126662774-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>126662774</t>
+  </si>
+  <si>
+    <t>03/25/2012</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>I have been a traveler for the past 6 years, both in the USA and abroad. This location of Extended Stay America turned out to be my home, days in and days out, for the past  months.
+To sum it in one line: it is not perfect but the staff are always willing to make it perfect for you.
+For a 1 star hotel it is cozy &amp; homey. Nice warm and welcoming lobby, the rooms are big and include a kitchenette. I am told that most guest don't actually take advantage of these accessorized kitchens but I do. I like to cook from scratch and because I am a traveler it is quite important for me in order to keep my health up. The staff is always happily restock the condiments such as: filter coffee packs (which I enjoy better then the acidic beverage of popular cafe chains), sugar, creamer and even dish soap.
+I had visited the motels that offer "free" breakfasts but I have to admit that I would never have separately pay for such breakfasts where the cost cutting is crying out from every food item. Here I enjoy paying for a kitchen where I can easily and professionally prepare my native mediterranean breakfast or my acquired taste Indian dishes.
+As a tip for the Hotel, I would suggest to give more attention in keeping the kitchenette equally accessorized in all rooms. I had been assigned...I have been a traveler for the past 6 years, both in the USA and abroad. This location of Extended Stay America turned out to be my home, days in and days out, for the past  months.To sum it in one line: it is not perfect but the staff are always willing to make it perfect for you.For a 1 star hotel it is cozy &amp; homey. Nice warm and welcoming lobby, the rooms are big and include a kitchenette. I am told that most guest don't actually take advantage of these accessorized kitchens but I do. I like to cook from scratch and because I am a traveler it is quite important for me in order to keep my health up. The staff is always happily restock the condiments such as: filter coffee packs (which I enjoy better then the acidic beverage of popular cafe chains), sugar, creamer and even dish soap.I had visited the motels that offer "free" breakfasts but I have to admit that I would never have separately pay for such breakfasts where the cost cutting is crying out from every food item. Here I enjoy paying for a kitchen where I can easily and professionally prepare my native mediterranean breakfast or my acquired taste Indian dishes.As a tip for the Hotel, I would suggest to give more attention in keeping the kitchenette equally accessorized in all rooms. I had been assigned different rooms in each of my stays and each room had it's one odd item missing. Not a big deal but I am sure with a little effort it could be better maintained.A tip for guests: check the fridge thermostat when checking into the room. It's set to maximum chill. If you store vegetables reduce to about level 3 (out of 5), otherwise it freezes.The TV's had just been upgraded in the past month to flatscreens. Those even have a VGA socket so you can screen your favorite DVD, downloaded or streaming films directly onto the big screen !  P.S - there's free WiFi internet with a good signal throughout the hotel ( as far as I tried it).As for ventilation I was happy to find that mostly the non-smoking policy is maintained throughout the hotel and that keeps the long corridors fresh and pleasant to walk through. The smoking guests step outside and smoke under the pergola.Throughout my visits rooms were kept ventilated and air conditioned while awaiting a guest and were nice to step into. I usually keep the windows slightly open while in if heating the room. That keeps a stream of fresh air coming in and balances the rooms humidity.Each room has a dining table AND a desk, so there's no need to waste anytime converting one to another. There's an abundance of lamps, which make lighting cozy and functional at the same time.When checking out I always found flexibility by the accommodating from desk, if needed, which meant for me that I could exercise morning yoga, take a shower and prepare, eat breakfast while watching the news/weather.The parking lot is one of the biggest I have seen and more then sufficient for the number of rooms, there is always plenty of spaces available nearby each of the 3 entrances.Currently the hotel went through external face lift and window cleaning, in which cranes were climbing up and down and repainted it. The privacy was compromised for the time being but I guess it had to happen sometime, so now the two tone coating seems to be complete.I kept the best for last.... and the title of this review says it. I believe, through my experience, that any business environment is defined by it's owner and It trickles down to any employee on the floor. Here I always found the staff as open as I felt comfortable with. Just a truly welcoming place to come back to each time. Comments and special needs are accommodated heartily as possible and that's why I keep coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been a traveler for the past 6 years, both in the USA and abroad. This location of Extended Stay America turned out to be my home, days in and days out, for the past  months.
+To sum it in one line: it is not perfect but the staff are always willing to make it perfect for you.
+For a 1 star hotel it is cozy &amp; homey. Nice warm and welcoming lobby, the rooms are big and include a kitchenette. I am told that most guest don't actually take advantage of these accessorized kitchens but I do. I like to cook from scratch and because I am a traveler it is quite important for me in order to keep my health up. The staff is always happily restock the condiments such as: filter coffee packs (which I enjoy better then the acidic beverage of popular cafe chains), sugar, creamer and even dish soap.
+I had visited the motels that offer "free" breakfasts but I have to admit that I would never have separately pay for such breakfasts where the cost cutting is crying out from every food item. Here I enjoy paying for a kitchen where I can easily and professionally prepare my native mediterranean breakfast or my acquired taste Indian dishes.
+As a tip for the Hotel, I would suggest to give more attention in keeping the kitchenette equally accessorized in all rooms. I had been assigned...I have been a traveler for the past 6 years, both in the USA and abroad. This location of Extended Stay America turned out to be my home, days in and days out, for the past  months.To sum it in one line: it is not perfect but the staff are always willing to make it perfect for you.For a 1 star hotel it is cozy &amp; homey. Nice warm and welcoming lobby, the rooms are big and include a kitchenette. I am told that most guest don't actually take advantage of these accessorized kitchens but I do. I like to cook from scratch and because I am a traveler it is quite important for me in order to keep my health up. The staff is always happily restock the condiments such as: filter coffee packs (which I enjoy better then the acidic beverage of popular cafe chains), sugar, creamer and even dish soap.I had visited the motels that offer "free" breakfasts but I have to admit that I would never have separately pay for such breakfasts where the cost cutting is crying out from every food item. Here I enjoy paying for a kitchen where I can easily and professionally prepare my native mediterranean breakfast or my acquired taste Indian dishes.As a tip for the Hotel, I would suggest to give more attention in keeping the kitchenette equally accessorized in all rooms. I had been assigned different rooms in each of my stays and each room had it's one odd item missing. Not a big deal but I am sure with a little effort it could be better maintained.A tip for guests: check the fridge thermostat when checking into the room. It's set to maximum chill. If you store vegetables reduce to about level 3 (out of 5), otherwise it freezes.The TV's had just been upgraded in the past month to flatscreens. Those even have a VGA socket so you can screen your favorite DVD, downloaded or streaming films directly onto the big screen !  P.S - there's free WiFi internet with a good signal throughout the hotel ( as far as I tried it).As for ventilation I was happy to find that mostly the non-smoking policy is maintained throughout the hotel and that keeps the long corridors fresh and pleasant to walk through. The smoking guests step outside and smoke under the pergola.Throughout my visits rooms were kept ventilated and air conditioned while awaiting a guest and were nice to step into. I usually keep the windows slightly open while in if heating the room. That keeps a stream of fresh air coming in and balances the rooms humidity.Each room has a dining table AND a desk, so there's no need to waste anytime converting one to another. There's an abundance of lamps, which make lighting cozy and functional at the same time.When checking out I always found flexibility by the accommodating from desk, if needed, which meant for me that I could exercise morning yoga, take a shower and prepare, eat breakfast while watching the news/weather.The parking lot is one of the biggest I have seen and more then sufficient for the number of rooms, there is always plenty of spaces available nearby each of the 3 entrances.Currently the hotel went through external face lift and window cleaning, in which cranes were climbing up and down and repainted it. The privacy was compromised for the time being but I guess it had to happen sometime, so now the two tone coating seems to be complete.I kept the best for last.... and the title of this review says it. I believe, through my experience, that any business environment is defined by it's owner and It trickles down to any employee on the floor. Here I always found the staff as open as I felt comfortable with. Just a truly welcoming place to come back to each time. Comments and special needs are accommodated heartily as possible and that's why I keep coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r126112726-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>126112726</t>
+  </si>
+  <si>
+    <t>03/14/2012</t>
+  </si>
+  <si>
+    <t>nice property/staff</t>
+  </si>
+  <si>
+    <t>We have been staying at this property for 2 weeks and has been treated like stars. Place keep nice and clean and staff is wonderful. This is our 2nd time staying here and will be back...HIGHLY RECOMMENDED....</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2772,5746 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>224</v>
+      </c>
+      <c r="X22" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>257</v>
+      </c>
+      <c r="X26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>265</v>
+      </c>
+      <c r="X27" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>273</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>282</v>
+      </c>
+      <c r="O29" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>291</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>292</v>
+      </c>
+      <c r="X30" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s">
+        <v>299</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>291</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>300</v>
+      </c>
+      <c r="X31" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>308</v>
+      </c>
+      <c r="X32" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" t="s">
+        <v>313</v>
+      </c>
+      <c r="K33" t="s">
+        <v>314</v>
+      </c>
+      <c r="L33" t="s">
+        <v>315</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>316</v>
+      </c>
+      <c r="O33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>317</v>
+      </c>
+      <c r="X33" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>321</v>
+      </c>
+      <c r="J34" t="s">
+        <v>322</v>
+      </c>
+      <c r="K34" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s">
+        <v>324</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>325</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>326</v>
+      </c>
+      <c r="X34" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>329</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>330</v>
+      </c>
+      <c r="J35" t="s">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s">
+        <v>332</v>
+      </c>
+      <c r="L35" t="s">
+        <v>333</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>325</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>334</v>
+      </c>
+      <c r="X35" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>337</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>338</v>
+      </c>
+      <c r="J36" t="s">
+        <v>339</v>
+      </c>
+      <c r="K36" t="s">
+        <v>340</v>
+      </c>
+      <c r="L36" t="s">
+        <v>341</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>342</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>343</v>
+      </c>
+      <c r="X36" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>347</v>
+      </c>
+      <c r="J37" t="s">
+        <v>348</v>
+      </c>
+      <c r="K37" t="s">
+        <v>349</v>
+      </c>
+      <c r="L37" t="s">
+        <v>350</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>351</v>
+      </c>
+      <c r="O37" t="s">
+        <v>117</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>352</v>
+      </c>
+      <c r="X37" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>355</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" t="s">
+        <v>357</v>
+      </c>
+      <c r="K38" t="s">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s">
+        <v>359</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>360</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>361</v>
+      </c>
+      <c r="X38" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>365</v>
+      </c>
+      <c r="J39" t="s">
+        <v>366</v>
+      </c>
+      <c r="K39" t="s">
+        <v>263</v>
+      </c>
+      <c r="L39" t="s">
+        <v>367</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>368</v>
+      </c>
+      <c r="O39" t="s">
+        <v>192</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>369</v>
+      </c>
+      <c r="X39" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>372</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>373</v>
+      </c>
+      <c r="J40" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" t="s">
+        <v>375</v>
+      </c>
+      <c r="L40" t="s">
+        <v>376</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>368</v>
+      </c>
+      <c r="O40" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>377</v>
+      </c>
+      <c r="X40" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>380</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>381</v>
+      </c>
+      <c r="J41" t="s">
+        <v>382</v>
+      </c>
+      <c r="K41" t="s">
+        <v>383</v>
+      </c>
+      <c r="L41" t="s">
+        <v>384</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>385</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>386</v>
+      </c>
+      <c r="X41" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>389</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>390</v>
+      </c>
+      <c r="J42" t="s">
+        <v>391</v>
+      </c>
+      <c r="K42" t="s">
+        <v>392</v>
+      </c>
+      <c r="L42" t="s">
+        <v>393</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>385</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>394</v>
+      </c>
+      <c r="X42" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>397</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>398</v>
+      </c>
+      <c r="J43" t="s">
+        <v>399</v>
+      </c>
+      <c r="K43" t="s">
+        <v>400</v>
+      </c>
+      <c r="L43" t="s">
+        <v>401</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>402</v>
+      </c>
+      <c r="O43" t="s">
+        <v>117</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>403</v>
+      </c>
+      <c r="X43" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>406</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>407</v>
+      </c>
+      <c r="J44" t="s">
+        <v>408</v>
+      </c>
+      <c r="K44" t="s">
+        <v>409</v>
+      </c>
+      <c r="L44" t="s">
+        <v>410</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>342</v>
+      </c>
+      <c r="O44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>411</v>
+      </c>
+      <c r="X44" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>414</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>415</v>
+      </c>
+      <c r="J45" t="s">
+        <v>416</v>
+      </c>
+      <c r="K45" t="s">
+        <v>417</v>
+      </c>
+      <c r="L45" t="s">
+        <v>418</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>342</v>
+      </c>
+      <c r="O45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>419</v>
+      </c>
+      <c r="X45" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>422</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>423</v>
+      </c>
+      <c r="J46" t="s">
+        <v>424</v>
+      </c>
+      <c r="K46" t="s">
+        <v>425</v>
+      </c>
+      <c r="L46" t="s">
+        <v>426</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>427</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>428</v>
+      </c>
+      <c r="X46" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>431</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>432</v>
+      </c>
+      <c r="J47" t="s">
+        <v>433</v>
+      </c>
+      <c r="K47" t="s">
+        <v>434</v>
+      </c>
+      <c r="L47" t="s">
+        <v>435</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>436</v>
+      </c>
+      <c r="O47" t="s">
+        <v>192</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>438</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>439</v>
+      </c>
+      <c r="J48" t="s">
+        <v>440</v>
+      </c>
+      <c r="K48" t="s">
+        <v>441</v>
+      </c>
+      <c r="L48" t="s">
+        <v>442</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>436</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>444</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>445</v>
+      </c>
+      <c r="J49" t="s">
+        <v>446</v>
+      </c>
+      <c r="K49" t="s">
+        <v>447</v>
+      </c>
+      <c r="L49" t="s">
+        <v>448</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>449</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>450</v>
+      </c>
+      <c r="X49" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>453</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>454</v>
+      </c>
+      <c r="J50" t="s">
+        <v>455</v>
+      </c>
+      <c r="K50" t="s">
+        <v>456</v>
+      </c>
+      <c r="L50" t="s">
+        <v>457</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>458</v>
+      </c>
+      <c r="O50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>460</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>461</v>
+      </c>
+      <c r="J51" t="s">
+        <v>462</v>
+      </c>
+      <c r="K51" t="s">
+        <v>463</v>
+      </c>
+      <c r="L51" t="s">
+        <v>464</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>465</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>466</v>
+      </c>
+      <c r="J52" t="s">
+        <v>467</v>
+      </c>
+      <c r="K52" t="s">
+        <v>468</v>
+      </c>
+      <c r="L52" t="s">
+        <v>469</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>470</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>471</v>
+      </c>
+      <c r="J53" t="s">
+        <v>472</v>
+      </c>
+      <c r="K53" t="s">
+        <v>473</v>
+      </c>
+      <c r="L53" t="s">
+        <v>474</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>475</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>476</v>
+      </c>
+      <c r="X53" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>479</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>480</v>
+      </c>
+      <c r="J54" t="s">
+        <v>481</v>
+      </c>
+      <c r="K54" t="s">
+        <v>482</v>
+      </c>
+      <c r="L54" t="s">
+        <v>483</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>475</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>485</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>486</v>
+      </c>
+      <c r="J55" t="s">
+        <v>487</v>
+      </c>
+      <c r="K55" t="s">
+        <v>488</v>
+      </c>
+      <c r="L55" t="s">
+        <v>489</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>490</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>491</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>492</v>
+      </c>
+      <c r="J56" t="s">
+        <v>493</v>
+      </c>
+      <c r="K56" t="s">
+        <v>494</v>
+      </c>
+      <c r="L56" t="s">
+        <v>495</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>496</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>497</v>
+      </c>
+      <c r="X56" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>500</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>501</v>
+      </c>
+      <c r="J57" t="s">
+        <v>502</v>
+      </c>
+      <c r="K57" t="s">
+        <v>503</v>
+      </c>
+      <c r="L57" t="s">
+        <v>504</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>505</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>506</v>
+      </c>
+      <c r="X57" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>509</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>510</v>
+      </c>
+      <c r="J58" t="s">
+        <v>511</v>
+      </c>
+      <c r="K58" t="s">
+        <v>512</v>
+      </c>
+      <c r="L58" t="s">
+        <v>513</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>514</v>
+      </c>
+      <c r="X58" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>517</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>518</v>
+      </c>
+      <c r="J59" t="s">
+        <v>519</v>
+      </c>
+      <c r="K59" t="s">
+        <v>520</v>
+      </c>
+      <c r="L59" t="s">
+        <v>521</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>522</v>
+      </c>
+      <c r="O59" t="s">
+        <v>90</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>523</v>
+      </c>
+      <c r="X59" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>527</v>
+      </c>
+      <c r="J60" t="s">
+        <v>528</v>
+      </c>
+      <c r="K60" t="s">
+        <v>529</v>
+      </c>
+      <c r="L60" t="s">
+        <v>530</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>531</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>532</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>533</v>
+      </c>
+      <c r="J61" t="s">
+        <v>534</v>
+      </c>
+      <c r="K61" t="s">
+        <v>535</v>
+      </c>
+      <c r="L61" t="s">
+        <v>536</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>537</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>538</v>
+      </c>
+      <c r="X61" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>541</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>542</v>
+      </c>
+      <c r="J62" t="s">
+        <v>543</v>
+      </c>
+      <c r="K62" t="s">
+        <v>544</v>
+      </c>
+      <c r="L62" t="s">
+        <v>545</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>546</v>
+      </c>
+      <c r="O62" t="s">
+        <v>117</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>547</v>
+      </c>
+      <c r="X62" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>550</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>551</v>
+      </c>
+      <c r="J63" t="s">
+        <v>552</v>
+      </c>
+      <c r="K63" t="s">
+        <v>553</v>
+      </c>
+      <c r="L63" t="s">
+        <v>554</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>546</v>
+      </c>
+      <c r="O63" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>555</v>
+      </c>
+      <c r="X63" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>558</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>559</v>
+      </c>
+      <c r="J64" t="s">
+        <v>560</v>
+      </c>
+      <c r="K64" t="s">
+        <v>561</v>
+      </c>
+      <c r="L64" t="s">
+        <v>562</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>563</v>
+      </c>
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>564</v>
+      </c>
+      <c r="X64" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>567</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>568</v>
+      </c>
+      <c r="J65" t="s">
+        <v>569</v>
+      </c>
+      <c r="K65" t="s">
+        <v>570</v>
+      </c>
+      <c r="L65" t="s">
+        <v>571</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>572</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>573</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>574</v>
+      </c>
+      <c r="J66" t="s">
+        <v>575</v>
+      </c>
+      <c r="K66" t="s">
+        <v>576</v>
+      </c>
+      <c r="L66" t="s">
+        <v>577</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>578</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>579</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>580</v>
+      </c>
+      <c r="J67" t="s">
+        <v>581</v>
+      </c>
+      <c r="K67" t="s">
+        <v>582</v>
+      </c>
+      <c r="L67" t="s">
+        <v>583</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>584</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>585</v>
+      </c>
+      <c r="J68" t="s">
+        <v>586</v>
+      </c>
+      <c r="K68" t="s">
+        <v>587</v>
+      </c>
+      <c r="L68" t="s">
+        <v>588</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>589</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>590</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>591</v>
+      </c>
+      <c r="J69" t="s">
+        <v>592</v>
+      </c>
+      <c r="K69" t="s">
+        <v>593</v>
+      </c>
+      <c r="L69" t="s">
+        <v>594</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>589</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>595</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>596</v>
+      </c>
+      <c r="J70" t="s">
+        <v>597</v>
+      </c>
+      <c r="K70" t="s">
+        <v>598</v>
+      </c>
+      <c r="L70" t="s">
+        <v>599</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>589</v>
+      </c>
+      <c r="O70" t="s">
+        <v>117</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>600</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>601</v>
+      </c>
+      <c r="J71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K71" t="s">
+        <v>603</v>
+      </c>
+      <c r="L71" t="s">
+        <v>604</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>589</v>
+      </c>
+      <c r="O71" t="s">
+        <v>192</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>605</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>606</v>
+      </c>
+      <c r="J72" t="s">
+        <v>607</v>
+      </c>
+      <c r="K72" t="s">
+        <v>608</v>
+      </c>
+      <c r="L72" t="s">
+        <v>609</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>610</v>
+      </c>
+      <c r="X72" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>613</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>614</v>
+      </c>
+      <c r="J73" t="s">
+        <v>615</v>
+      </c>
+      <c r="K73" t="s">
+        <v>616</v>
+      </c>
+      <c r="L73" t="s">
+        <v>617</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>589</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>618</v>
+      </c>
+      <c r="X73" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>621</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>622</v>
+      </c>
+      <c r="J74" t="s">
+        <v>623</v>
+      </c>
+      <c r="K74" t="s">
+        <v>624</v>
+      </c>
+      <c r="L74" t="s">
+        <v>625</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>626</v>
+      </c>
+      <c r="O74" t="s">
+        <v>90</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>618</v>
+      </c>
+      <c r="X74" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>628</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>629</v>
+      </c>
+      <c r="J75" t="s">
+        <v>630</v>
+      </c>
+      <c r="K75" t="s">
+        <v>631</v>
+      </c>
+      <c r="L75" t="s">
+        <v>632</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>633</v>
+      </c>
+      <c r="O75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>634</v>
+      </c>
+      <c r="X75" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>637</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>638</v>
+      </c>
+      <c r="J76" t="s">
+        <v>639</v>
+      </c>
+      <c r="K76" t="s">
+        <v>640</v>
+      </c>
+      <c r="L76" t="s">
+        <v>641</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>642</v>
+      </c>
+      <c r="O76" t="s">
+        <v>117</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>643</v>
+      </c>
+      <c r="X76" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>646</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>647</v>
+      </c>
+      <c r="J77" t="s">
+        <v>648</v>
+      </c>
+      <c r="K77" t="s">
+        <v>649</v>
+      </c>
+      <c r="L77" t="s">
+        <v>650</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>626</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>651</v>
+      </c>
+      <c r="X77" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>654</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>655</v>
+      </c>
+      <c r="J78" t="s">
+        <v>656</v>
+      </c>
+      <c r="K78" t="s">
+        <v>657</v>
+      </c>
+      <c r="L78" t="s">
+        <v>658</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>659</v>
+      </c>
+      <c r="X78" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>662</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>663</v>
+      </c>
+      <c r="J79" t="s">
+        <v>664</v>
+      </c>
+      <c r="K79" t="s">
+        <v>665</v>
+      </c>
+      <c r="L79" t="s">
+        <v>666</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>667</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>668</v>
+      </c>
+      <c r="X79" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>671</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>672</v>
+      </c>
+      <c r="J80" t="s">
+        <v>673</v>
+      </c>
+      <c r="K80" t="s">
+        <v>674</v>
+      </c>
+      <c r="L80" t="s">
+        <v>675</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>676</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>677</v>
+      </c>
+      <c r="X80" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>680</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>681</v>
+      </c>
+      <c r="J81" t="s">
+        <v>682</v>
+      </c>
+      <c r="K81" t="s">
+        <v>683</v>
+      </c>
+      <c r="L81" t="s">
+        <v>684</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>685</v>
+      </c>
+      <c r="O81" t="s">
+        <v>90</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>686</v>
+      </c>
+      <c r="X81" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>689</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>690</v>
+      </c>
+      <c r="J82" t="s">
+        <v>691</v>
+      </c>
+      <c r="K82" t="s">
+        <v>692</v>
+      </c>
+      <c r="L82" t="s">
+        <v>693</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>694</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>695</v>
+      </c>
+      <c r="X82" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>698</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>699</v>
+      </c>
+      <c r="J83" t="s">
+        <v>700</v>
+      </c>
+      <c r="K83" t="s">
+        <v>701</v>
+      </c>
+      <c r="L83" t="s">
+        <v>702</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>703</v>
+      </c>
+      <c r="O83" t="s">
+        <v>90</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>704</v>
+      </c>
+      <c r="X83" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>707</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>708</v>
+      </c>
+      <c r="J84" t="s">
+        <v>709</v>
+      </c>
+      <c r="K84" t="s">
+        <v>710</v>
+      </c>
+      <c r="L84" t="s">
+        <v>711</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>704</v>
+      </c>
+      <c r="X84" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>713</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>714</v>
+      </c>
+      <c r="J85" t="s">
+        <v>715</v>
+      </c>
+      <c r="K85" t="s">
+        <v>716</v>
+      </c>
+      <c r="L85" t="s">
+        <v>717</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>704</v>
+      </c>
+      <c r="X85" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>719</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>720</v>
+      </c>
+      <c r="J86" t="s">
+        <v>721</v>
+      </c>
+      <c r="K86" t="s">
+        <v>722</v>
+      </c>
+      <c r="L86" t="s">
+        <v>723</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>703</v>
+      </c>
+      <c r="O86" t="s">
+        <v>90</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39936</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>725</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>726</v>
+      </c>
+      <c r="J87" t="s">
+        <v>727</v>
+      </c>
+      <c r="K87" t="s">
+        <v>728</v>
+      </c>
+      <c r="L87" t="s">
+        <v>729</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>703</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>729</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_266.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_266.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="815">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mitchell C</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Hotel was cheap, clean and friendly.  Don't expect even the most basic amenities.  Shampoo and conditioner were "on back order." House cleaning was not an option but they offered new towels, until someone asked and they were "out."  Kitchenettes in the rooms, but you must ask for everything and there is no guarantee what is in stock.  The "free" breakfast was coffee and packaged oatmeal, both of which ran out.  If you want to "splurge," there is a Ralph's grocery and Denny's restaurant nearby.The police forcibly evicted the tenants a few doors down from us, followed by the fire department investigating who knows what.  If your primary concern is your budget, stay here.  Otherwise, look elsewhere.More</t>
   </si>
   <si>
+    <t>Mariela R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r588057144-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>This place is discusting! The lobby was dirty the evelator even more! My first room smelled like smoke  and the kitchen  way sorry. The second room  the bath room was not velan, no towels even though they told me they had just clean it. My partner and I went out and cam3 back when de were getting ready for Best de noticies the En Esta has blood stains and crums of i dont know what... and hairs all over. They had clearly not changed the sheets. Look at other comments its true this is not a hotel!More</t>
   </si>
   <si>
+    <t>Docksdox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r577413828-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Came to stay at this hotel on a business trip with a team of six professionals. Each of us reserved a room for 4 nights. One team member saw their room upon check-in and immediately checked out. The other five after toughing it out for one night, checked out and requested a refund the next day. The customer service skills of the front desk staff are dismal. It is obvious they are used to dealing with clients that would steal the wallpaper if they could. Of the six rooms we were given, most were in disrepair to include blood stains on mattresses, mold, stains on sheets, no coat hangars or a place to hang clothes, switches that do not work, window locks that are broken, extreme pet odors, and other issues. Additionally, the hotel wreaked of various unknown types of smoke - at times it smelled like a pot shop or an incense store. This should be noted for folks making reservations who are sensitive to smoke and other strong scents. Interesting characters hung out around side exit doors at all hours of the night and the area smelled of urine. Multiple members of our team were kept up by neighbors apparently partying until the wee hours to the point of having to call security multiple times and be moved. Even when hotel staff did move her, they charged her for the move to a different room even though it...Came to stay at this hotel on a business trip with a team of six professionals. Each of us reserved a room for 4 nights. One team member saw their room upon check-in and immediately checked out. The other five after toughing it out for one night, checked out and requested a refund the next day. The customer service skills of the front desk staff are dismal. It is obvious they are used to dealing with clients that would steal the wallpaper if they could. Of the six rooms we were given, most were in disrepair to include blood stains on mattresses, mold, stains on sheets, no coat hangars or a place to hang clothes, switches that do not work, window locks that are broken, extreme pet odors, and other issues. Additionally, the hotel wreaked of various unknown types of smoke - at times it smelled like a pot shop or an incense store. This should be noted for folks making reservations who are sensitive to smoke and other strong scents. Interesting characters hung out around side exit doors at all hours of the night and the area smelled of urine. Multiple members of our team were kept up by neighbors apparently partying until the wee hours to the point of having to call security multiple times and be moved. Even when hotel staff did move her, they charged her for the move to a different room even though it was through no fault of her own. This is NOT a hotel. It is low cost/subsidized housing and should NOT be advertised as a hotel. We work with the State of CA and we will be requesting that this hotel be removed from the State's travel system as a viable option immediately.More</t>
   </si>
   <si>
+    <t>contessap2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r565007628-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
   </si>
   <si>
     <t>This hotel did not live up to the expectation set by the internet ad. It was dirty and every little thing you have to ask the desk for. When you have to bring your old towels up to the desk to get new ones there is something not right in the service area.More</t>
+  </si>
+  <si>
+    <t>oregongirl12</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r563266495-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
@@ -310,6 +325,9 @@
 When I got there early (rooms were not ready yet) I asked to use the bathroom.  They do not have a lobby bathroom and said I would have to walk down the (steep) hill to Dennys. I said I...This place is shabby! I was shocked at the state of the room.  No toiletries - I had to ask for soap and a wash cloth.  They do not provide tub stoppers so you can't take a bath!!!  I had to use a cat food lid as a stopper to take a bath. The tub faucet drips loudly so the bath was not relaxing.The A/C-heater shudders noisily every time it shuts down.  Even though it wasn't all that busy when I checked in (early) there were no luggage carts, so I had to make several trips for my 7-night stay.  The bedside clock was on the kitchen counter, unplugged, and when I picked it up it fell apart in my hands.  I took it to the front desk but they didn't even offer me another one. The room smells like it was a smoking room not too long ago - yech.  The kitchen trash can had not been emptied from previous customer.  One of the electrical outlets is missing the faceplate.  Clothes hangers are not provided - who travels with clothes hangers? I've been here only one night and I'm ready to demand a refund and move to another hotel.  When I got there early (rooms were not ready yet) I asked to use the bathroom.  They do not have a lobby bathroom and said I would have to walk down the (steep) hill to Dennys. I said I could not do that and finally, before I speed my pants, they gave me a room key for a "cleaned" room and that would be my room, come back to finidh check-in process.  Good grief!I wish I had checked Trip advisor first.  I would have made other arrangements.More</t>
   </si>
   <si>
+    <t>bencA5102RD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r563080268-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -334,6 +352,9 @@
     <t>There are no daily cleaning of the rooms; the bath towels were soiled and worn away and need to be replaced! The shower diverter needs to be replaced, so there is shower flow. The room was filthy! A real dump in a upscale neighborhood.More</t>
   </si>
   <si>
+    <t>F5219PBtammyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r553458331-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -361,6 +382,9 @@
     <t>The staff are very nice but the guest need to be more responsible for their pets and pick up after them. There are never any muffins for the continental breakfast but the coffee is excellent! I've stayed here several times and will probably stay there again.More</t>
   </si>
   <si>
+    <t>colleenmurphys_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r550738813-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -391,6 +415,9 @@
     <t>We stayed  2 nights at the Extented Stay and was really disapointed.We stayed here a few weeks earlier and thougt they had a bad day.This time the room smelled of smokers,no hangers and cars in the lot that looked like they had been there for weeks.The breakfast ? was a joke ,coffee was empty and just granola bars and oatmeal packets.The parking lot was noisey and litter was not cleaned,there was vomit in the lot and we never felt safe.The hallways were dirty and not much help at the front desk.Very disapointed and not well managed.More</t>
   </si>
   <si>
+    <t>961georgiaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r549673972-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -415,6 +442,9 @@
     <t>The room we had was strange - looked like a space that was previously outdoors and later was enclosed. No carpet. Fuse box on wall. Water would not get hot, just warmish, and faucet leaked. Heater/cooler was old and loud. There were no drinking glasses, no shampoo except a used tube in the tub that had hair on it. Ick! There were smelly transients in the lobby at night and in the morning. Beds were clean and comfortable though. More</t>
   </si>
   <si>
+    <t>MFMetzger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r544330908-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -442,6 +472,9 @@
     <t>OK let's start with the positives.  The bed was comfortable. The bathroom was clean. Towels and linens were clean. It is convenient to the freeway. The room was pretty quiet despite facing the freeway. The exterior looked clean. The negatives. The place smelled.  I understand that it's an extended stay hotel and the rooms have a kitchenette and the hotel has limited control about what people cook or bring in, but they really need to work on doing something about the smell in the hallways.  it really smelled gross. The smell was approaching old garbage smell. The lobby was dirty. Samantha at check-in was overwhelmed being alone. She was very pleasant and tried hard to make sure people were accommodated. But she was struggling. There was dog pee in the entrance to the lobby. The tile areas on the floors hadn't been mopped in a while. The carpets in the hallway hadn't been cleaned in a while. The carpet in the rooms hadn't been cleaned in a while either.  There were questionable stains on them, that probably could have been spot cleaned, but a good shampooing was in order.More</t>
   </si>
   <si>
+    <t>327raman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r543941623-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -466,6 +499,9 @@
     <t>it smell really bad , lifts are dirty not cleaned since ages i guess, walks ways smell like rotten place , very bad experience for a standard of extended place, staff are not that helpful at all. they say free breakfast but only provide muffinsMore</t>
   </si>
   <si>
+    <t>mitchellc846</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r543941629-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -484,6 +520,9 @@
     <t>Service was professional and friendly. The room was clean and comfy. The surrounding area outside was not clean and filthy. The price of the room was fair. If you were to stay in your room the accomodations will be just fine. The halls were dirty with trash and discarded food. I would be willing to try it one more time because the staff at the front desk were so nice.More</t>
   </si>
   <si>
+    <t>thec0laman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r532761268-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -511,6 +550,9 @@
     <t>The first room needed to be cleaned better and stunk. The second was better, but not worth the price we paid. Both needed to be vacuumed. The outside is deceptive (looks good), of how the hotel actually is. Wish I could have gotten a refund. Priceline seems to kick me to bad hotels.More</t>
   </si>
   <si>
+    <t>lindawO4241KB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r510990059-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -538,6 +580,9 @@
     <t>There is a need for closet hangers in rooms. The breakfast snack was relatively good but I think most people got blueberry, can'the eat nutsome. The coffee was absolutely excellent. Hallways  were not well lit,but overall the experience was good.More</t>
   </si>
   <si>
+    <t>960anay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r509886289-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -562,6 +607,9 @@
     <t>Not really satisfied at all in the cleanliness of our room. Front desk not really well knowledgedable to handle the needs of there customer. They kept accepting customer but rooms are not available. The check in time is late even you arrive early still need to wait atleast almost an hour and room are not really clean even linen not change. So disgusting More</t>
   </si>
   <si>
+    <t>BajaBuddies2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r506014536-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -589,6 +637,9 @@
     <t>These rooms look fairly new, good condition and clean. Beds are comfortable, larger TV with lots of channels,. Dishes, toaster, coffee pot, and pots and pans can be requested, free. The rooms have tables &amp; chairs, comfy reclining chair and small kitchen with refrig, micro, sink and stovetop.        The rooms are large, including closet, dresser, and 2 nightstands. It is close to I-5 and lots of restaurants and stores in area, you can walk to .           Free wifi and free parking.            Room cleaning service is offered once a week, not everyday. Extra service for room cleaning can be requested, for an extra charge.  It is free to request and go get clean towels, washclothes, etc. If you have extra trash there is a trash room you can take it to ! This is set up as extended stay hotel.        Breakfast offered is coffee, granola bars, and prepackaged pastries, and oatmeal.( Not much, you grab &amp; go) We enjoyed our stay here, and recommend  this hotel.More</t>
   </si>
   <si>
+    <t>marinav168</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r505525146-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -614,6 +665,9 @@
   </si>
   <si>
     <t>Very unhappy at this location, it was a very unwelcoming and was not happy at all with surroundings, could have stayed at motel 6 and paid less for same accommodations and same ambience. From the outside building looked nice, however once inside the interior was yucky. For $179.00 it appeared to be a $100. At the most motel not hotel. I had made a reservation for two rooms next to each other they could not accommodate us and room was reserved a few weeks in advance. Also I had made a cancellation of a room and it was still on the computers reserved. The receptionist was efficient however he was unenthusiastic and sluggish and not very welcoming. When we went to our room the elevator was old a bit smelly and dirty looking as though it had never been cleaned, not with trash just dirty walls and floor. It also worked very slow and had a bumpy ride and I did not notice an inspection certificate, so I was a bit sceptical and used stairs during my stay. When I entered the hallway to our room it was very bleak and a bit dark, walls are painted a very yucky dark beige and dark doors lighting bad. The room was a vinyl floor very poor taste, curtains crappy didn't close correctly seemed very old. I need a iron there was not one, I called room service they did not bring...Very unhappy at this location, it was a very unwelcoming and was not happy at all with surroundings, could have stayed at motel 6 and paid less for same accommodations and same ambience. From the outside building looked nice, however once inside the interior was yucky. For $179.00 it appeared to be a $100. At the most motel not hotel. I had made a reservation for two rooms next to each other they could not accommodate us and room was reserved a few weeks in advance. Also I had made a cancellation of a room and it was still on the computers reserved. The receptionist was efficient however he was unenthusiastic and sluggish and not very welcoming. When we went to our room the elevator was old a bit smelly and dirty looking as though it had never been cleaned, not with trash just dirty walls and floor. It also worked very slow and had a bumpy ride and I did not notice an inspection certificate, so I was a bit sceptical and used stairs during my stay. When I entered the hallway to our room it was very bleak and a bit dark, walls are painted a very yucky dark beige and dark doors lighting bad. The room was a vinyl floor very poor taste, curtains crappy didn't close correctly seemed very old. I need a iron there was not one, I called room service they did not bring I waited and finally went to get myself when I went bk up to my room and pulled ironing board out there was no pad on board, went back down they didn't have one for me so a used a towel which by the way was crappy too very cheap towels and very old. Don't pay the price go to a motel 6 you will probably have better luck for less $$$More</t>
+  </si>
+  <si>
+    <t>DeiCo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r505512676-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
@@ -635,6 +689,9 @@
 As far as the room is concerned... I was not pleased with the cleanliness, specifically the trash and the microwave. There was a dirty broken comb on one chair when we arrived, and there was a sanka wrapper in the trash beneath the sink. Shouldn't it just be empty? There were only two trash receptacles in the room, one in the bath and one under the kitchen sink, hardly enough for a six day stay when no one...A few positives: The size of the room was good and having the extra sink, a full size refrigerator and a microwave (had it been clean) is good. The staff was generally pleasant although often not at the front desk. It's good that they have an elevator. The rooms were pretty quiet, even though we faced the 101 freeway and i know there were families and pets in nearby rooms. The only time i heard others was water running in the bathroom. The A/C worked well. Unfortunately there is more to dislike than to like. The breakfast is minimal and there is nowhere to eat it. There is no pool or even a patio as a common area for relaxing outside your room. My room was on the third floor, and my daughter sleeps later than i do so i need a place to be while i breakfast and she sleeps. The lobby is tiny and hardly pleasant for one's morning repast.  As far as the room is concerned... I was not pleased with the cleanliness, specifically the trash and the microwave. There was a dirty broken comb on one chair when we arrived, and there was a sanka wrapper in the trash beneath the sink. Shouldn't it just be empty? There were only two trash receptacles in the room, one in the bath and one under the kitchen sink, hardly enough for a six day stay when no one ever comes to clean. The microwave (the main reason i stayed here) was a disaster. It should have had a turntable tray, but didn't. So the turntable arms went around and knocked things over. The bottom of the microwave was disgustingly sticky. I couldn't SEE because it was on a very high shelf, but things removed from it were sticky on the bottom. CLEAN IT! I might have if i could have reached it but i'm short and it was ridiculously high, and they don't provide cleaning products or paper towels. When one arrives there are no "amenities". You have to call and ask for plates and cups and soap and extra toilet paper, we didn't even have an alarm clock in the room and had to ask for one. Only bar soaps were provided... no shampoo or body wash. We ended up having to buy what we needed. There were no luggage racks for one's suitcases so everything ends up on the floor.  I can deal with not having my bed made daily but for the price, why is that? It is not an inexpensive hotel, why can't maids at least make beds and empty trash every day? My daughter and i were hoping to watch Game of Thrones together but no such luck... no HBO, only Showtime. We never watched the tv, once we realized there were so few channels. It would be nice if they offered smart tv or a roku/fire stick so we could have used our own hbogo to watch together.It's not the hotel's fault but the location, although convenient to much of the southwest Valley has one major drawback: you must ALWAYS turn right when leaving the parking lot. But you can't just "go around the block"... there is no "block". So you go a long ways west until you can turn at all and get under the freeway. The other choice is to hope for a break in traffic (amazingly it does happen) and zoom across three lanes of Ventura Blvd to the left turn lane for the next street, which doesn't go where you want but with luck you can make a u-turn in that street (you can't on Ventura) and finally go east.More</t>
   </si>
   <si>
+    <t>Cupcakes1980</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r503259535-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -662,6 +719,9 @@
     <t>Hotel staff are rude, rooms are very smelly, very noisy day and night, lots of sketchy guests, didn't feel safe, the police were at this location at least a few times a week, car break ins, won't ever stay here again More</t>
   </si>
   <si>
+    <t>KavonCarter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r499396594-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -689,6 +749,9 @@
     <t>Jesus clearly didn't care about anything and I tried creat a nice convocation he blew it off and I ask where can I see the fire work and he said Google it very rude not observant has horrible customer service and needs to study the area to be able to help guest More</t>
   </si>
   <si>
+    <t>geraldl831</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r498328077-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -713,6 +776,9 @@
     <t>The hotel was very run down and dirty! If I had not paid with Priceline I would have asked for a refund! Disgusting hotel, run away! NEVER take the surprise selection from Priceline! They lied! Not a 3.5 or even a 1 star!More</t>
   </si>
   <si>
+    <t>27lancem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r495633754-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -737,6 +803,9 @@
     <t>Would not recommend. Meth head partying jntil 3:00am next door with thumping base music. Just needed a place to sleep prior to meeting in morning and did not sleep. Called office tqice and no call back. Horrible!More</t>
   </si>
   <si>
+    <t>lrconway1122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r494713426-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -761,6 +830,9 @@
     <t>Never stay at this hotel. I stayed here for business. The halls are dirty, the bedding is disgusting. The towels are gross. The worst was when I turned off the lights and there was something painted in glow in the dark paint over the bed. Someone had tried to paint over it but did a horrible job. The hotel smells, the breakfast is a joke. He remote was held together with tape. It was such an awful stay. I couldn't wait to leave. Should have slept in my rental car. More</t>
   </si>
   <si>
+    <t>273kayc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r493851936-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -785,6 +857,9 @@
     <t>I travel for business and for the price it was good accommodation for the value so I would go to this property again and I would recommend it to anyone else who is traveling for business. I also noticed if you  have a pet they can accommodate you .More</t>
   </si>
   <si>
+    <t>Scott B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r455754069-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -812,6 +887,9 @@
     <t>If you're a business traveler for a quick midweek overnight and can overlook terribly worn hotel room carpeting, frayed bed frames, somewhat distressed desk tops, with a trace of smoking in a non-smoking room that has a generally sad and neglected appearance, plus a very pleasant overworked front desk night clerk who may be too busy to answer your call (requiring a trip out of your room, down an equally untidy and trash laden hallway to the an elevator ride to the front desk again), then you are sure to find value for the money.More</t>
   </si>
   <si>
+    <t>travelwithpowers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r453635611-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -836,6 +914,9 @@
     <t>This was by and far one of the nastiest hotels I have ever stayed in.  There were huge holes in our wall, the blanket had tons of cigarette burns on it.  The place was filthy, there were no plates, cups, utensils, etc.  Got in the shower only to realize they do not leave wash cloths in the room.  Never did a maid come in and pick up a towel, take out trash nothing.  It reeks of pot and has lots of shady kids hanging around smoking.  We own a travel agency and I am so glad I didn't put a family here but tested it on us first.  Never Never would I stay here again.More</t>
   </si>
   <si>
+    <t>Abqtraveler33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r442058406-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -863,6 +944,9 @@
     <t>My room is filthy. The microwave and  refrigerator were both dirty and there were many hairs in the shower, on the bathroom vanity and on the floor. It is obvious that the floors are not mopped. The seat of the chairs are dirty, the furniture old, scraped and scratched.This is advertised as a non smoking hotel, but the lobby, hallways and staircases all smell like smoke. My room smells like cigarette smoke. The bedspread has burn holes all over. I haven't been able to fall asleep quickly the past 3 nights because of the headaches I have due to the cigarette smoke. I have not unpacked my clothing because I do not want them to smell. I asked the front desk if I could switch rooms, and was assured that something would be done, since there is a no smoking policy. How?  The smoke is thick in the hallway and concentrated around specific rooms... there's no way housekeeping doesn't know who the offenders are (obviously the ones with the hand made  "do not disturb" signs taped to their doors).The majority of the people who stay here seem to be "in-between" housing or are here for the no background/credit checks. When I go through a secured door, people are quick to try to come in after me. This place does not seem safe.The front desk staff are friendly though.More</t>
   </si>
   <si>
+    <t>j3cab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r416251451-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -890,6 +974,9 @@
     <t>We enjoyed our stay and one of the main reasons for my review is the staff. The hotel needs updating but everyone was always friendly. Stay america is not like other hotels but we got what we needed and were comfortable. I suggest replacing the carpets and common areas need updating. Again staff was great, would reccomend.More</t>
   </si>
   <si>
+    <t>fairwayBarbie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r411886878-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -917,6 +1004,9 @@
     <t>Avoid at all costs! The owners should be ashamed. Says it is non smoking. But, we smelled smoke in the middle of the night. Found cigarette butts on carpeting in hall outside of our room that were never cleaned up. The pergo fake wood floor that is next to the third floor elevator is buckling and a trip hazard. Our blanket had dark hair/fur on it. Obviously not changed from previous renter. Got out of shower and feet were black within minutes. Obviously not mopped in weeks! Outside looks fairly good. It is in an expensive area, so you would think for $1,000 a week, they could keep it up. More</t>
   </si>
   <si>
+    <t>RichardM7266</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r410779112-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -941,6 +1031,9 @@
     <t>Amenities were spartan. Security was very questionable. It was touted as a smoke free hotel but all the corridors smelled of smoke. The room had paint and plaster peeling off the bathroom wall. There is no night staff and noise is a problem at timesMore</t>
   </si>
   <si>
+    <t>Geranium_RasmusJN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r395073614-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -965,6 +1058,9 @@
     <t>Due a mistake of booking a wrong hotel - my kids and me where forced to take whatever we could find - and we ended up at Extended Stay - which luckily was only for a short and not an EXTENDED stay.Room was a clearly a smoking room, check-in was a disaster, room was not only a smoking room, but the room was not clean and had a funny smell to it.We were happy to get room at all - but anything below this level we would rather sleep in the car.More</t>
   </si>
   <si>
+    <t>Nancy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r388317425-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -992,6 +1088,9 @@
     <t>I am in my room. The floor of our room is filthy not swept or mopped (its laminate) after last guest. In fact some of their garbage is next to nightstand.  There is a huge puddle of water in front of our air conditioner. The room is far from being fresh.   My husband was very tired after driving so he is asleep. I try to turn  on the t.v. to block out the traffic. noise right outside our window and the remote doesn't work. I guess we are stuck with this place for three nights as it states no refunds. I will address that in the morningMore</t>
   </si>
   <si>
+    <t>Matthew D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r386677623-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1019,6 +1118,9 @@
     <t>The man at the desk told me about the convoluted process of evicting guests who had moved in and stayed without paying.  In the morning, 2 cops were taking a statement from guests in pajamas at their police cruiser.  A bunch of cutlery and the dishwasher tray were on the floor by my door as I checked in.  I guess you could check-in to the local jail... or you could stay here.More</t>
   </si>
   <si>
+    <t>texascouple21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r383126717-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1043,6 +1145,9 @@
     <t>After reading the past reviews, I was wondering of we stayed at the same place. Stayed here for two nights never having stayed at an Extended Stay before. Called the reservations line to inquire about availability and the property and was treated wonderfully and professionally; the same is to be said at check-in: polite, friendly and professional. Knew about the "grab and go" breakfast so no surprise. Room was a nice size with more than adequate kitchen facility and comfortable bed (we were able to get king size). The lighting in the room was wonderful--better than most no matter the price. All in all, I would stay again.More</t>
   </si>
   <si>
+    <t>Levelalpha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r380252335-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1068,6 +1173,9 @@
   </si>
   <si>
     <t>Staff was great but the place is dilapidated.  Smelly carpet, place is old and they do not change your beddings for a week.  You can cook though and Ralph's is nearby.  Though apart from a place to sleep (it was hard to sleep coz it is beside the highway), there is nothing really great in this hotel.More</t>
+  </si>
+  <si>
+    <t>Robone13</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r375183597-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
@@ -1121,6 +1229,9 @@
 Given the choice I suggest spending the extra $50 a night for a proper hotel- this is just a small step above a...I have to say that I went into this place with fairly low expectations but I was still left feeling disappointed. And honestly I wouldn't really have cared except I feel like if I am spending a C-note for one night I should get a bit more.Pros- - The room and sheets etc. were clean- The front desk employee was polite though seemed a bit overwhelmed.- Full sized Fridge and 2 burner cook topCons-- Room had a Queen bed- When I asked for 2 queens or a king they said they were all booked - although when I ordered online I put 3 guests- My wife, daughter and myself and nothing was noted online about queen only- needless to say one of us had to sleep on the floor- When I asked for 2 extra blankets to make the floor more comfortable- they said they only had one.- Room was small- included breakfast was a joke- watery coffee- bad oatmeal - a banana  and a granola bar- I would not call that a continental breakfast- No kids channel on the T.V.- we all have iPads these days but stillWe were in a Street side room on the 2nd floor which wasn't too noisy with the windows closed.Given the choice I suggest spending the extra $50 a night for a proper hotel- this is just a small step above a motel 6 and not worth the extra money.More</t>
   </si>
   <si>
+    <t>Shannte H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r345460506-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1148,6 +1259,9 @@
     <t>Accommodations were great! The rooms have a two burner electric cooktop.you have to request pots,pans,etc. And they have hot coffee,granola bars, muffins,and fruit every morning in the lobby.  There is a ralphs market walking distance in a small shopping center which includes a few resturants.   I also liked that internet is free and you the option to upgrade to faster speeds for a fee.  Laundry  facility is on the first floor. Its also pet friendly.  On downside to that is some people do not clean after their pets. Even though they  provide supplies to clean up after  your pet. Also if you use la fitness theres one about 3 miles away on canoga and victory near the mall. The staff were friendly and very helpful. I would stay here again.More</t>
   </si>
   <si>
+    <t>Erin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r326153005-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1172,6 +1286,9 @@
     <t>I should have read the reviews, and I hope someone reads mine, the place was really gross, it smelled like all place was smoking, the bed was not clean, the tissues were as if they had been used and not even taken care of... the fridge was dirty, everything was horrible. We should have known when we arrived and saw 3 people asking for room change... too bad, location is good.More</t>
   </si>
   <si>
+    <t>aliakberjamali</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r325131151-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1196,6 +1313,9 @@
     <t>I was visiting USA and from Houston i went to LA and stayed at this placesI would say it was worst hotel i have ever stayedthe room was stinking, not stinking but very stinkingroom cleaning is done once a week, i think it was on Mondayso if u are checking in on Wednesday ur room wouldn't be cleaned staff at reception at night shift were helpful and in morn it was rudeits not a happening placeslots of dogsbreakfast was as if LA is on droughtHotel staff had same breakfast so its like they have breakfast and we have to wait for them to finishMore</t>
   </si>
   <si>
+    <t>Gail H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r317839689-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1221,6 +1341,9 @@
   </si>
   <si>
     <t>I stayed at the Extended Stay America in Woodland Hills, California from 9/29/15-10/8/15.  My stay was fantastic!  The staff was welcoming, totally accomodating, friendly, helpful, professional and were willing to do anything/everything to make the customer happy. The hotel was clean and well maintained. I was there by myself and always felt safe which was extremely important to me. I was given a handicapped room which was clean and very comfortable. The bed was also comfortable. My showerhead and ironing board were both broken upon my arrival.  I reported it to the front desk staff who filled out a "work request" form. I thought it would take several days before they would be fixed but I was wrong! Approx. 5-10 minutes later, there was a knock on my door and it was the maintenance man who came in and replaced the showerhead and ironing board. This is the same excellent service I recieved during my entire visit.  The staff was truly fantastic!!  Each staff memeber addressed me by name at all times and would continually ask how my stay was going and if there was anything they could do to make my experience any better.  From the staff member cleaning the parking lot and sidewalks all the way up to management, the service from the staff was truly exceptional.  I would highy recommend this hotel to anyone that wants a reasonably priced, safe, clean and confortable hotel with an exceptional...I stayed at the Extended Stay America in Woodland Hills, California from 9/29/15-10/8/15.  My stay was fantastic!  The staff was welcoming, totally accomodating, friendly, helpful, professional and were willing to do anything/everything to make the customer happy. The hotel was clean and well maintained. I was there by myself and always felt safe which was extremely important to me. I was given a handicapped room which was clean and very comfortable. The bed was also comfortable. My showerhead and ironing board were both broken upon my arrival.  I reported it to the front desk staff who filled out a "work request" form. I thought it would take several days before they would be fixed but I was wrong! Approx. 5-10 minutes later, there was a knock on my door and it was the maintenance man who came in and replaced the showerhead and ironing board. This is the same excellent service I recieved during my entire visit.  The staff was truly fantastic!!  Each staff memeber addressed me by name at all times and would continually ask how my stay was going and if there was anything they could do to make my experience any better.  From the staff member cleaning the parking lot and sidewalks all the way up to management, the service from the staff was truly exceptional.  I would highy recommend this hotel to anyone that wants a reasonably priced, safe, clean and confortable hotel with an exceptional staff that will consitently go out of their way to make your stay as pleasant as possible.More</t>
+  </si>
+  <si>
+    <t>Robert M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r312840037-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
@@ -1253,6 +1376,9 @@
 Also I am going to check my statement.  After staying 30 days, California law says they are supposed to return your  Taxes and not charge tax on the room for as long as you stay..I will almost bet that it has not been returned to myself or anyone, and that constitutes fraud.  I...I have been all over this country staying at ESA hotels.  Most are located properly for my use.  This is one of them. all have been cleaner than this one.  This is worse than a motel six.I have had the utmost frustration with just trying to get ,the air conditioner fixed, the carpet cleaned(as it was filthy)  I tried to contact the management, but when I was there at 8 AM I was told he would be in at 11.  when I was there at 4 pm, I was told he was gone for the day.  It is no wonder that this place is filthy and in such disrepair. There is no management..I only wish I had read these reviews before I booked here.  I was beginning to think that it was just me, but after reading the reviews I can tell that it is the hotel itself.They insist that the room be cleaned once a week, and force you to pay for it, then they don't clean the room, and tell you that you can get anything you need...if you go and get it.Also I am going to check my statement.  After staying 30 days, California law says they are supposed to return your  Taxes and not charge tax on the room for as long as you stay..I will almost bet that it has not been returned to myself or anyone, and that constitutes fraud.  I will check and file a formal complaint with the state.The manager, as you can see in the reviews, is constantly apologizing and promising to make the necessary corrections...It never happens.  He supposedly tried many times to call my room( when I was working) and only when I emailed him did he respond.  I could not reach the front desk to speak to anyone..The phone doesn't work.It still doesn't.  Unfortunately I am stuck here for a while, but I will try to make a connection to the corporate office, as this place is destroying the good name of  Extended Stay America..  DO NOT STAY HERE.More</t>
   </si>
   <si>
+    <t>mannygoesplaces</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r298774550-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1280,6 +1406,9 @@
     <t>Like the title implies: there was not much expected and not much delivered either. We've stayed at extended stay hotels in the past and we go back for convenience and economy. Nothing else. With the expectations set this location was just on par. The staff was polite. The room had been cleaned. The linen had been laundered. I'd like to say more but it is unnecessary. I would recommend this place if you have the two expectations of convenience and economy and are honest with yourself that it is all you want/need. Otherwise please book elsewhere for something different. More</t>
   </si>
   <si>
+    <t>Steve M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r295490123-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1304,6 +1433,9 @@
     <t>2 of the 3 rooms we had for our family members were missing the smoke detectors with just wires hanging out of the wall. The air conditioning in one room was not functioning and they couldn't fix it. They did comp one of the 3 rooms for 2 nights but I would have rather had at least a decent room to stay during our family event.More</t>
   </si>
   <si>
+    <t>MiaWato</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r294764592-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1328,6 +1460,9 @@
     <t>It's just beyond words that a place like this can get away with charging for rooms in the condition that my room was in.  There should be an inspection that hotels/motels should go through and get rated just like restaurants given that any unsanitary condition of hotels/motels can also make people sick.  There are too, too many issues to list here so suffice it to say, it was horrible.  How corporation or owners of this establishment can sleep at night and keep collecting their profits is beyond imagination.  It's incomprehensible.  Although I'm all for a capitalistic society, just because something isn't illegal doesn't make it morally or ethically correct and how this location is maintained and serviced is downright immoral and unethical.More</t>
   </si>
   <si>
+    <t>Megan Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r285675682-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1355,6 +1490,9 @@
     <t>What a waste of money! Blood stains on our sheets, cig burns on the yellow tinted cover (which is supposed to be white) NASTY pillows, uncleaned bathroom- They obviously do not believe in bleach or cleaning- and when I called to get new sheets, they made me go get the sheets myself and then thoseeeee were dirty too!!!!! and never apologized.How is this place in business???? Oh yea its a drug house, at least that is what it seemed like and looked like. STAY AWAY at all costs!! The owner needs to get his you know what together- horrific!More</t>
   </si>
   <si>
+    <t>Tohooloo1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r268973017-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1376,6 +1514,9 @@
     <t>My friends made a reservation from overseas to stay in that hotel for 3 weeks,since they don't speak English well I went along with them to checking them in.... The front office person did not know what to do, I guess it was his first day there so everything I asked him, he had to ask his manager. The manager was sitting behind his desk in the corner flirting  &amp; giggling with a female on the phone... I could hear her since she was speaking so loud &amp; he was telling her that he will call her later. Anyway our checking in took almost 1 hour... Then today I tried to call my friend's room few times all day, the front desk either not picking up the phone, putting me on hold for ever or telling me to call later because they can't transfer my call since they're on cordless phone... I really don't know what kind of business they're doing there...... But they suck.More</t>
   </si>
   <si>
+    <t>mdrag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r267036359-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1394,6 +1535,9 @@
     <t>The place was clearly understaffed and in need of serious cleaning. Our entry to the 2nd floor was met with the smell of the trash room which was overflowing as well as all of the other trash receptacles on the property. It smelled like a bar trashcan when smoking was allowed indoors. The poor rep at the counter was so overwhelmed, it felt terrible to ask for wash cloths and hand towels which when we asked in the morning the wash cloths were not available. We were given hand towels finally which we were told would do. We thought we were showing up to a fully equipped kitchen but after hours of travel we had to figure out our needs, request them at the front desk and juggle them to our room. The bedding was barley on the bed and the thermostat on the AC unit only went down to 60 F....not at all comfortable or restful. Oh and to top it off the bedside clock turned out to be set an hour fast. It was quite frustrating to wake up an hour earlier than we needed to after a terrible night's sleep. We will not be staying at another Extended Stay anywhere ever again!! We will spend $20 more and stay at the Marriott or Hilton. Not at all worth the $115 plus!More</t>
   </si>
   <si>
+    <t>marierika</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r266143700-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1421,6 +1565,9 @@
     <t>If u came here just ask for first floor or bring your own elevator. I could not believe when the elevator broke, nobody fix it for almost a week. Also, nobody cleans, breakfast many times I got no coffee!, one day I saw what appear 2 homeless guys getting breakfast too. With no coffee of course.More</t>
   </si>
   <si>
+    <t>matthew b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r260751793-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1442,6 +1589,9 @@
     <t>I made the GRAND mistake of not reading the reviews here before booking.If you're looking for something out of a Tim Burton nightmare, here it is! Upon arrival I was greeted by a barking Rotweiller straight out of the movie "The Omen" Then there were midgets and tall people with no teeth.The place is as advertised. About as disgusting as a naked Roseanne Barr.When I laid down in the bed, I swear, I thought it was going to sink in the middle like Johnny Depp did in the original "Nightmare on Elm Street" - I actually feared that a puss filled arm was going to reach up from underneath the bed and take me to a place where they would do bad things to me with dental tools.I'm not quite sure how someone got bicycle tire marks on the pillowcases, but they did.Between the snoring from the opposite room and the fight next door from what I could gather was from two people who spoke Alabama, I managed to get a whopping 2 hours of sleep before I awakened to a soft voice speaking "Get Out"I'm off to get de-loused and to have my entire body fumigated.More</t>
   </si>
   <si>
+    <t>wildbird21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r257391033-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1457,6 +1607,9 @@
     <t>The service at this extended was horrible and the cleanliness was a complete fail. The sheets on my bed were clearly unwashed from the guest before me and every surface felt unwashed. They were under staffed and had low standards of customer service. Don't go here!! For a few extra dollars I stayed at the Marriott in the area the next night and was worth it!</t>
   </si>
   <si>
+    <t>Billsmith61313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r243546922-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1470,6 +1623,9 @@
   </si>
   <si>
     <t xml:space="preserve">Great location. Awesome staff. Best value for your dollar.  The location is right on Ventura in Woodland Hills, walking distance to a grocery, banks, restaurants, nail saloon, target, in &amp; out, and Starbucks. It is a safe walk! Good neiborhood. </t>
+  </si>
+  <si>
+    <t>Suzelle</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r231305189-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
@@ -1501,6 +1657,9 @@
     <t>Checked in late in evening and received my requested room on the ground floor (I didn't want to have to deal with any stairs) for my one evening stay. Both then and in the morning, counter clerks were cordial and welcoming.  I found the room very pleasant in decor and layout.  The room had a couple of maintenance issues (such as broken towel rack, base of kitchen sink broken, noisy frig that also was not terribly effective on keeping things cold) but that didn't impair my stay.  Microwave worked fine. In the morning, the desk clerk was very receptive to taking my information on what needed maintenance attention in the room, immediately writing it up on what seemed to be a sort of maintenance request form. 
 Breakfast is a "to go" sort of breakfast set up on a buffet in the lobby, with coffee, tea, breakfast bars, fruit bowl.  Room internet worked just fine.  Room seemed clean enough to me.  Bath towels are a bit scratchy, but I did have pairs of towels (bath, hand, washcloth) provided, whereas some other reviewers had indicated not having that many, or experiencing a lag in being provided towels.  No kitchen dishes, silver, or coffee maker provided in room. Only soap provided in the bath area.
 Though assigned a room in a non-smoking hallway (1st floor), there was clearly smoke evident in the hallway a few doors down from me.  I alerted the night...Checked in late in evening and received my requested room on the ground floor (I didn't want to have to deal with any stairs) for my one evening stay. Both then and in the morning, counter clerks were cordial and welcoming.  I found the room very pleasant in decor and layout.  The room had a couple of maintenance issues (such as broken towel rack, base of kitchen sink broken, noisy frig that also was not terribly effective on keeping things cold) but that didn't impair my stay.  Microwave worked fine. In the morning, the desk clerk was very receptive to taking my information on what needed maintenance attention in the room, immediately writing it up on what seemed to be a sort of maintenance request form. Breakfast is a "to go" sort of breakfast set up on a buffet in the lobby, with coffee, tea, breakfast bars, fruit bowl.  Room internet worked just fine.  Room seemed clean enough to me.  Bath towels are a bit scratchy, but I did have pairs of towels (bath, hand, washcloth) provided, whereas some other reviewers had indicated not having that many, or experiencing a lag in being provided towels.  No kitchen dishes, silver, or coffee maker provided in room. Only soap provided in the bath area.Though assigned a room in a non-smoking hallway (1st floor), there was clearly smoke evident in the hallway a few doors down from me.  I alerted the night desk clerk to that so that it could be looked into in the morning.  I hope that the adds fines charges to bills for whom people who are smoking when they're not to be!Some others wrote about a less than desirable sense of security but I didn't have that feeling.  If I had a similar work layover situation in the future, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>James B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r229318503-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
@@ -1531,6 +1690,9 @@
 Checked the vending...First let me say that the concept is a good one. We save a lot of money getting a room with cooking facilities. However, this place failed on several levels.On their web site, in red, it states that all the rooms are recently renovated. Really? The pictures I have supplied say otherwise. Mold, bedding falling apart, pillow stains, lamps bent. Exit signs off the wall and laying on the floor and missing name plates?Our first clue was when we asked for another room, because the stove fan did not work, and they moved us to another room.We requested two additional pillows which were provided promptly - without pillow cases, that is how we discovered that one was severely stained (see photo) and had a musty-smell, for obvious reasons stated we did not use this pillow.We requested towels (room had only 1 bath towel, no face-cloths or hand towels).....staff explained that they needed to finish the load of towels as none were 'clean / available'; evidently staff is required to wash/dry the laundry.  Checked with the front desk after about 2-hours and the new shift promised that they would 'dry the towels and deliver to room'.....still no towels after yet another 2-hours, so walked down to the front desk and was given bath towels (face-cloths &amp; hand towels were still 'not ready', did receive some the following day from the third shift of staff).Checked the vending machine for water, none was available, we were told 'vendor notified a few days ago - still no word on when it would be refilled again.  Next day the beverage machine was filled, however it only accepted credit cards (coins / dollar bill slots were not operable) and the delivery mechanism had jammed, rendering the machine 'completely inoperable').Used the guest laundry and found the washing machine lid / top surface extremely dirty (see photo) as it was caked with built-up dirt/soap/grime; cost was $4 per load (one wash &amp; dry).Could be not enough - trained - staff on duty? Either way ... pass this place up.More</t>
   </si>
   <si>
+    <t>Dicheeky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r224689877-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1549,6 +1711,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Timothy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r215977766-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1576,6 +1741,9 @@
     <t>Don't  stay here! I booked a room for my daughter so she could go to a job interview.  They gave her a smoking room (reserved non-smoking) which had one towel, dirty linens, broken outlets, broken frig, no blow dryer, broken iron, no shampoo, no conditioner, etc.  The front desk was unresponsive.  I will never use Extended Stay America again!  It is a pit!More</t>
   </si>
   <si>
+    <t>BKK52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r211163138-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1603,6 +1771,9 @@
     <t>The rooms are dirty, especially the carpet, it has got dirty spots all over the room. The toilet does not have an exhaust. The receptionist says that the entire hotel does not have exhausts in the toilets. The hotel provides utensils which have dirty spots all over. Over all this is the worst place i have stayed. The dustbin was not cleaned when i checked in and they took 2 days to clean it after repeated complaintsMore</t>
   </si>
   <si>
+    <t>lbsweetcheeks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r210763917-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1627,6 +1798,9 @@
     <t>Booked a king suite over a month in advance and when I arrived they gave me a queen and told me a king was not available... yet my friend,  who booked days later than I did, got his king suite. There were no towels or soap in my room (and the towel situation was the same for many of us that stayed there) When I went to the lobby to ask for towels,  they said they have none and are washing all of them right now. Really... ALL the towels for the entire hotel? Weird, and unacceptable. Also, I asked for all the kitchen amenities to be brought to my room, but only received half of them. I had to call, then go down to the lobby 3 times. Inconvenient to the guest AND the staff. Guests were constantly in the lobby with various issues. I've never experienced a hotel like this and will most definitely never stay there again. Trust me, stay elsewhere! More</t>
   </si>
   <si>
+    <t>Robert G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r207683688-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1654,6 +1828,9 @@
     <t>The hotel could be a great place to stay if it corrected some very fixable flaws.  There is virtually no security.  Side doors are open with nobody to check people coming and going.  How can they tell if somebody belongs in the building or not?  The hotel promises that your room is scheduled for cleaning every 7 days if staying 7 days or longer.  During my stays there my room was missed for cleaning numerous times.  Other times it was cleaned so late in the day that the maids did not have enough clean towels or supplies to leave in the room.  During one stay I was missed for cleaning 3 times in 4 weeks.  The only way I received clean towels was to go to the front desk and ask for them.  The hotel is supposed to have been upgraded and refurbished recently according to there ads, but many items in the rooms are either damaged or do not work properly.  The solution, they say they can move you to another room, if one is available.  Sinks that do not drain properly are also common.  Their "breakfast" is a joke.  The front desk employees try, but can only do so much.  Many areas of the hotel are dirty, trash rooms are often full and there is generally the smell of smoke in most areas.More</t>
   </si>
   <si>
+    <t>Nikolay S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r206417571-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1672,6 +1849,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>1RMB1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r201434621-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1699,6 +1879,9 @@
     <t>This facility is awful.  Both the room and public areas smell like smoke and the room and public areas were rundown and dirty.  The front desk employees were doing the best they could under the circumstances.More</t>
   </si>
   <si>
+    <t>Plee8086</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r191172785-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1726,6 +1909,9 @@
     <t>Bare minimum of services.  Poor lobby, poor breakfast, poorly furnished room and I did not feel safe at times in the parking lot.  Too many men hanging around.  Not a welcoming atmosphere.  I looked all directions as I walked down the hallway.   Saw several frustrated customers at the front desk.  The clerks seemed friendly, but I saw some rolling of the eyes after customers went out the door.  Took 8 hours to get clean towels.  Rooms were recently remodeled, which was nice.  Very cheaply furnished.  Housekeeping once a week and you take care of your own trash and linens.  Relatively clean.  Very slow wifi - if you want it faster, you have to pay extra!     For the price, quite a ripoff.  No more ESA for us.More</t>
   </si>
   <si>
+    <t>3rdgenerationla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r189921857-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1750,6 +1936,9 @@
     <t>I felt like I was going to be mugged in the hallway. I stayed for over a week, paid in advance, and was locked out of my room every day, which required a trip to the front desk to re-code my key. No explanation. The room smelled so I purchased a Air Wick plug in which really helped. This is a dog friendly facility and the barking dogs kept me up all night.More</t>
   </si>
   <si>
+    <t>xOjessicaXo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r185227466-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1777,6 +1966,9 @@
     <t>Checking in was easy the young guy at the front was very friendly. Room was clean but the stairwell closest to me had an empty bin and some type of sheet or curtain and what looked like the bottom of a to-go thing from dennys. The 3rd night i had gone to open the curtains and the curtains fell off on one side. I called the front let them know they said they would have someone come up and fix it. Never came. So i had to figure out a way to keep the sheet up in the window that night.  Next morning I went down to pay for another night again mentioned it I was then told that the guy who fixed things had been out a couple days but would try to get someone up to fix it. (Try!? Seriously) I ask if i can just switch rooms he says that I'd have to wait for the manager. Okay so i ask for an extra blanket to hang over the window. As of check out which would be day 3 of having a blanket over the window, no one had even come to look at it or attempt to help fix it. Thats my biggest complaint about my stay. Staff was great except for that so I honestly don't know if i would recommend or even come back, unless everything else in the area was sold out. More</t>
   </si>
   <si>
+    <t>Alexander J A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r172809223-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1795,6 +1987,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Layvitale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r171965708-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1813,6 +2008,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Jasmine222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r166169096-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1828,6 +2026,9 @@
     <t>Excellent! The front desk staff were very nice and helpful! We asked for a extra towels and we got it within 30 sec. It is a walkin distance to target and in-n-out and other other shops! Very clean room and also very quiet!</t>
   </si>
   <si>
+    <t>Flying_adventures</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r157882818-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1861,6 +2062,9 @@
     <t>I am a frequently traveling businessman, and my experience with this location has been nothing less than excellent. The management is very much on the ball. the hotel is clean, rooms are well taken care of, and the entire team are very accommodating. Courtesy extended by the staff was nothing less than outstanding.</t>
   </si>
   <si>
+    <t>DaphroseM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r157434137-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1876,6 +2080,9 @@
     <t>Good if you are staying in hotel for long time. Weekly rate is economical and you can extend as you need. My family stayed for two weeks and we occupied two rooms. The breakfast to go was complimentary and very healthy especially the oatmeal and fruits.The coffee was a life saver for anybody who cannot go without that morning coffee.</t>
   </si>
   <si>
+    <t>hosseina999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r156708427-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1891,6 +2098,9 @@
     <t>Last month, we had a reunion with my highscholl friends in Extended Stay in Woodland Hills, California.  All my friends are about 60 years old and very demanding. We had 4 or 5 rooms.It was amazing experience, from room reservation, to check in, service, etc.The management was always ready to help us with our needs.  I'd  really like to recommand this hotel to other potential travellers. H - A</t>
   </si>
   <si>
+    <t>Muffinma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r155942086-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1915,6 +2125,9 @@
     <t>Upon entering the hotel everything seemed fine but we had a whole mix up and disaster. Any who the rooms reeked of cigarettes (we ended up in a "smokers" room and we tried to change it but the Asian man refused). The reason the man refused was because they said they had "no more non smoker rooms available).We got even more upset because we called later and asked if they had non-smoking rooms and they said they did! We felt kinda sad that they lied to us about that because second hand smoke is a serious thing. Anyways we won't be returing any time soon. A tip for the hotel don't cram all the rooms together the smell of smoke travels threw the rooms Overall terrible experienceMore</t>
   </si>
   <si>
+    <t>Rome Ya Man R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r155118283-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1939,6 +2152,9 @@
     <t>i am unsure why people are saying how great the Woodland Hills California Extended stay Hotel is. I was there Friday. I spoke with the older manger Farhod or similar. The hotels furniture was dirty in my room, it had fleas in the carpet, nothing match, the bathroom has no ventilation, the breakfast area, never knew about it cause it wasn't offered. Then it's almost like they find a reason to mistreat you if you complain.There's kids running the front desk. It's a joke. I WILL NEVER RETURN.. I CHECKED INTO THE TARZANA INN. A little pricey but it was the greatest experience ever.More</t>
   </si>
   <si>
+    <t>DCWorker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r153523466-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1960,6 +2176,9 @@
     <t>Stayed here cuz it was cheap for a five-day stay.  Room was clean and the bed pretty comfy, but beyond that, just "meh."  The formica in the kitchen was burned and the trim was coming off.  The bathroom needed cosmetic work.  The "grab and go" breakfast was pretty useless ... but since we made breakfast in the kitchen, it really didn't matter (small but important point ... what good is a coffee maker without filters?).  Overall the place wasn't bad, but not up to my standards.More</t>
   </si>
   <si>
+    <t>hydra2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r152850852-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1987,6 +2206,9 @@
     <t>i stayed here b c my apartment flooded, i needed a long term place to stay  and was EXHAUSTED  i was in NO condition to be treated badly by anyone my room had no lock so i asked to switch rooms  the room they put me in was right next to the leaf blower in the EARLY morning i called  to switch rooms again..i was not dressed the mgr demanded i come downstairs 2sign some thing i asked if i could sleep a bit first they said NO.. i muttered "some swear word..allright" under my breath over the phone- i was sleeping i drag myself downstairs &amp;   this guy SCREAMS at me to "get out" " no one talks like that to me" he  screams.. i was sick..it was a horrible experience later on i discovered  the guy hates women  has issues with people everyone else there was nice, but that guy i will HATE for the rest of my life  i was in a bad situation he should have been fired- i can understand if i was swearing loudly alt at him in public..makign a scene or something but not  what happenedMore</t>
   </si>
   <si>
+    <t>rajasha1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r152537460-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2014,6 +2236,9 @@
     <t>We booked for 4 days for a family gathering in april 2012 the room was Oh My God a real shock dirty the bed had no pillows and the sheets had stains  no coffee maker in room  when request to have sheet and pillow was given a pillow with no case and the sheets were in the wash?  the smell in the room was very bad  we left and moved to another hotel down the road  and was told we had to pay for the cancle roomMore</t>
   </si>
   <si>
+    <t>mitchell p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r152285587-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2038,6 +2263,9 @@
     <t>service here is great. love this extended stay. very clean and the people are nice. very understanding caring people. they helped us out in couple situations. they have continualy provided us with the best value and service in the valley. complimentry breakfasti would come to this hotel any chanceMore</t>
   </si>
   <si>
+    <t>Adamstrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r147862422-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2062,6 +2290,9 @@
     <t>It was great. I liked the room setup and the staff was very understanding. The maids took care of everything I had the grateful sense of being able to leave money out. I really felt fortunate to find this hotel.More</t>
   </si>
   <si>
+    <t>rfriedmount</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r147474626-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2089,6 +2320,9 @@
     <t>After reading these recent reviews that compliment this place so much, I am shocked that I am writing about the same hotel. ...Our experience was awful from the moment we entered the place. From the outside, this hotel looks appealing and clean.  The parking lot is well-lit and there is plenty of parking.  Though upon entering the facility, one experiences the real deal...a royal dumpster bin.  The evening staff we dealt with had no customer service skills and little personality...not a person who should be greeting in-coming guests at a hotel.  Walking through the hallway on the way to our room, I felt like I was in some cheap restaurant with lingering smells of old food.  There seemed to be some kind of cherry air freshener trying to cover up this smell, which only made it worse.  Our room had a small kitchenette with a small fridge that was leaking water all over the floor.  The ceiling above the fridge was covered in dirt and spiderwebs and the bathroom reeked of old stale food.  The bedspread was worn and dirty when we went down to talk to the front desk about changing rooms, he had gone home.  We were told by a lady working there doing hotel laundry that there that all of the front desk staff leaves at 11pm.  What kind of hotel doesn't have overnight staff at the front desk?  We ended up borrowing blankets and sheets from...After reading these recent reviews that compliment this place so much, I am shocked that I am writing about the same hotel. ...Our experience was awful from the moment we entered the place. From the outside, this hotel looks appealing and clean.  The parking lot is well-lit and there is plenty of parking.  Though upon entering the facility, one experiences the real deal...a royal dumpster bin.  The evening staff we dealt with had no customer service skills and little personality...not a person who should be greeting in-coming guests at a hotel.  Walking through the hallway on the way to our room, I felt like I was in some cheap restaurant with lingering smells of old food.  There seemed to be some kind of cherry air freshener trying to cover up this smell, which only made it worse.  Our room had a small kitchenette with a small fridge that was leaking water all over the floor.  The ceiling above the fridge was covered in dirt and spiderwebs and the bathroom reeked of old stale food.  The bedspread was worn and dirty when we went down to talk to the front desk about changing rooms, he had gone home.  We were told by a lady working there doing hotel laundry that there that all of the front desk staff leaves at 11pm.  What kind of hotel doesn't have overnight staff at the front desk?  We ended up borrowing blankets and sheets from my in-laws so we wouldn't have to sleep on the dirty bed.  The next morning we promptly checked out.  We made sure to get a full refund and won't make the mistake of judging a book by it's cover.More</t>
   </si>
   <si>
+    <t>Shimboolkhan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r140772629-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2116,6 +2350,9 @@
     <t>I have been staying in the ESA Woodland Hills for couple years now. My work requires me to stay in the Valley couple of days a week and for the most part I have stayed here. Check-in and check-our are super easy. You can come in really late at night and leave early morning with no problem. Staff are friendly and helpful. There are grocery stores, restaurants and all sorts of shop very close and some even in walking distance.More</t>
   </si>
   <si>
+    <t>Michael D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r139446411-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2143,6 +2380,9 @@
     <t>I've made several trips to the Woodland Hills, CA Extended Stays - amounting to several months stay over the last 18 months.  I've seen the hotel go through several different managers initially, until finally they hired their current manager, who has been there for over a year.  I've seen the hotel upgrade itself substantially over the last year; it's comfortable and nicely maintained.  The service, too, has only gotten better over the past year.  People are friendly and happy to accomodate you with whatever you need.  I recommend.More</t>
   </si>
   <si>
+    <t>Kureji</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r138123767-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2170,6 +2410,9 @@
     <t>I have been staying at this ESA Woodland Hills location for 4 years now, and just booked my stay for 2012. My work has me in Beverly Hills for the month of October and it's just a 20 minute (well-timed) drive to work from there. The noise from nearby traffic is apparent but never to the point to bother my sleeping habits. Grocery nearby, restaurants, an occasional sporting event across the street at WH High School. The staff here is a combination of multilingual folks that have all been able and capable to assist me with any request. One thing to remember is that some folks assume that the ESA chain is a full-service hotel chain, which it is not. Guests can certainly plan on an array of comforts here like the deluxe kitchenettes, comfortable beds and furniture and extra living space, but should also remember to provide yourselves the basics such as snacks, bottled water and possibly a favorite pillow or music player. Nonetheless, the ESA Woodland Hills staff and property are all ready-to-please upon my arrival.I would like to thank the staff for the many nights of convenience and accommodation I have enjoyed since 2008. See you in October!Crazy John Brooks- 16x World Frisbee Champion-More</t>
   </si>
   <si>
+    <t>457Sam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r131113471-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2197,6 +2440,9 @@
     <t>I stayed here for two nights and ended up in emergency room with scabies caused by bed mites. Would stay away at all costs.More</t>
   </si>
   <si>
+    <t>Cbrown1438</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r130587140-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2215,6 +2461,9 @@
     <t>I felt very welcomed by the staff. All requests were taken care of within 15 min. Never any issues :) More</t>
   </si>
   <si>
+    <t>Johntastico</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r130529614-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2231,6 +2480,9 @@
   </si>
   <si>
     <t>When differentiating hotels of a similar price, is all boils down to service. The room was nice and clean. Bed was cumfy. Tv was new. The kitchenette was great. Everything was fully stocked. Basically everything you would expect for what you'd paid for. However, something you can usually always also expect is a passive or negative attitude from the front desk person when checking in later in the evening. THIS IS NOT THE CASE AT EXTENDED STAY AMERICA WOODLAND HILLS.Edward -the man behind the desk- was Johnny on the spot for us. We checked in at a little later than 1020pm, so it wouldve been easy for him to pull off tired and ready-to-get-off routine. Instead, this young man was Johnny on the spot. Everything we needed, he anticipated and had ready for us in an instant. Remarkably efficient service. Will be coming back to this hotel whenever we are in the area. More</t>
+  </si>
+  <si>
+    <t>E D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r126662774-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
@@ -2257,6 +2509,9 @@
 For a 1 star hotel it is cozy &amp; homey. Nice warm and welcoming lobby, the rooms are big and include a kitchenette. I am told that most guest don't actually take advantage of these accessorized kitchens but I do. I like to cook from scratch and because I am a traveler it is quite important for me in order to keep my health up. The staff is always happily restock the condiments such as: filter coffee packs (which I enjoy better then the acidic beverage of popular cafe chains), sugar, creamer and even dish soap.
 I had visited the motels that offer "free" breakfasts but I have to admit that I would never have separately pay for such breakfasts where the cost cutting is crying out from every food item. Here I enjoy paying for a kitchen where I can easily and professionally prepare my native mediterranean breakfast or my acquired taste Indian dishes.
 As a tip for the Hotel, I would suggest to give more attention in keeping the kitchenette equally accessorized in all rooms. I had been assigned...I have been a traveler for the past 6 years, both in the USA and abroad. This location of Extended Stay America turned out to be my home, days in and days out, for the past  months.To sum it in one line: it is not perfect but the staff are always willing to make it perfect for you.For a 1 star hotel it is cozy &amp; homey. Nice warm and welcoming lobby, the rooms are big and include a kitchenette. I am told that most guest don't actually take advantage of these accessorized kitchens but I do. I like to cook from scratch and because I am a traveler it is quite important for me in order to keep my health up. The staff is always happily restock the condiments such as: filter coffee packs (which I enjoy better then the acidic beverage of popular cafe chains), sugar, creamer and even dish soap.I had visited the motels that offer "free" breakfasts but I have to admit that I would never have separately pay for such breakfasts where the cost cutting is crying out from every food item. Here I enjoy paying for a kitchen where I can easily and professionally prepare my native mediterranean breakfast or my acquired taste Indian dishes.As a tip for the Hotel, I would suggest to give more attention in keeping the kitchenette equally accessorized in all rooms. I had been assigned different rooms in each of my stays and each room had it's one odd item missing. Not a big deal but I am sure with a little effort it could be better maintained.A tip for guests: check the fridge thermostat when checking into the room. It's set to maximum chill. If you store vegetables reduce to about level 3 (out of 5), otherwise it freezes.The TV's had just been upgraded in the past month to flatscreens. Those even have a VGA socket so you can screen your favorite DVD, downloaded or streaming films directly onto the big screen !  P.S - there's free WiFi internet with a good signal throughout the hotel ( as far as I tried it).As for ventilation I was happy to find that mostly the non-smoking policy is maintained throughout the hotel and that keeps the long corridors fresh and pleasant to walk through. The smoking guests step outside and smoke under the pergola.Throughout my visits rooms were kept ventilated and air conditioned while awaiting a guest and were nice to step into. I usually keep the windows slightly open while in if heating the room. That keeps a stream of fresh air coming in and balances the rooms humidity.Each room has a dining table AND a desk, so there's no need to waste anytime converting one to another. There's an abundance of lamps, which make lighting cozy and functional at the same time.When checking out I always found flexibility by the accommodating from desk, if needed, which meant for me that I could exercise morning yoga, take a shower and prepare, eat breakfast while watching the news/weather.The parking lot is one of the biggest I have seen and more then sufficient for the number of rooms, there is always plenty of spaces available nearby each of the 3 entrances.Currently the hotel went through external face lift and window cleaning, in which cranes were climbing up and down and repainted it. The privacy was compromised for the time being but I guess it had to happen sometime, so now the two tone coating seems to be complete.I kept the best for last.... and the title of this review says it. I believe, through my experience, that any business environment is defined by it's owner and It trickles down to any employee on the floor. Here I always found the staff as open as I felt comfortable with. Just a truly welcoming place to come back to each time. Comments and special needs are accommodated heartily as possible and that's why I keep coming back.More</t>
+  </si>
+  <si>
+    <t>Krisha R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d226056-r126112726-Extended_Stay_America_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
@@ -2776,43 +3031,47 @@
       <c r="A2" t="n">
         <v>39936</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>87033</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2830,56 +3089,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39936</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>118236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2891,56 +3154,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39936</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146487</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2958,56 +3225,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39936</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146488</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -3029,56 +3300,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39936</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146489</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -3096,56 +3371,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39936</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146490</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -3167,56 +3446,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39936</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146491</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -3238,56 +3521,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39936</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146492</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3303,56 +3590,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39936</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146493</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -3374,56 +3665,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39936</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146494</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -3441,56 +3736,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39936</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146495</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -3512,56 +3811,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39936</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146496</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3583,56 +3886,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39936</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146497</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3654,56 +3961,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39936</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146498</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3725,56 +4036,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39936</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146499</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -3796,56 +4111,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39936</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146500</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3857,56 +4176,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39936</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146501</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -3928,56 +4251,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39936</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146502</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3995,56 +4322,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39936</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146503</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -4066,56 +4397,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39936</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146504</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -4137,56 +4472,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39936</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146505</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -4208,56 +4547,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39936</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146506</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -4279,56 +4622,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="X23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39936</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146507</v>
+      </c>
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>259</v>
+      </c>
+      <c r="J24" t="s">
+        <v>260</v>
+      </c>
+      <c r="K24" t="s">
+        <v>261</v>
+      </c>
+      <c r="L24" t="s">
+        <v>262</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>235</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>236</v>
-      </c>
-      <c r="J24" t="s">
-        <v>237</v>
-      </c>
-      <c r="K24" t="s">
-        <v>238</v>
-      </c>
-      <c r="L24" t="s">
-        <v>239</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>215</v>
-      </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4340,56 +4687,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39936</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146508</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4411,56 +4762,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39936</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>22496</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4478,56 +4833,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39936</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146509</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4545,56 +4904,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="X27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="Y27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39936</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146510</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4606,56 +4969,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="X28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="Y28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39936</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146511</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="O29" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4671,56 +5038,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="X29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="Y29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39936</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146512</v>
+      </c>
+      <c r="C30" t="s">
+        <v>314</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4732,56 +5103,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="X30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Y30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39936</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146513</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4799,47 +5174,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="X31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="Y31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39936</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146514</v>
+      </c>
+      <c r="C32" t="s">
+        <v>333</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="J32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="K32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="L32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
@@ -4856,56 +5235,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="X32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="Y32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39936</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>3101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>342</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="J33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="K33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="L33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="O33" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4919,56 +5302,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="X33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="Y33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39936</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>3884</v>
+      </c>
+      <c r="C34" t="s">
+        <v>352</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="J34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="K34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="L34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4984,56 +5371,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="X34" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="Y34" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39936</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146515</v>
+      </c>
+      <c r="C35" t="s">
+        <v>362</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="J35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="K35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="L35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5051,56 +5442,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="X35" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="Y35" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39936</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146516</v>
+      </c>
+      <c r="C36" t="s">
+        <v>371</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="J36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="K36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="O36" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5116,56 +5511,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="X36" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="Y36" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39936</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146517</v>
+      </c>
+      <c r="C37" t="s">
+        <v>381</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="J37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="K37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="L37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="O37" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -5183,56 +5582,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="X37" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="Y37" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39936</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146518</v>
+      </c>
+      <c r="C38" t="s">
+        <v>391</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="J38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="K38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="L38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5244,56 +5647,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="X38" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="Y38" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39936</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>13475</v>
+      </c>
+      <c r="C39" t="s">
+        <v>401</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="J39" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="K39" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="O39" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5309,56 +5716,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="X39" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="Y39" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39936</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146519</v>
+      </c>
+      <c r="C40" t="s">
+        <v>410</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="J40" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="K40" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="L40" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="O40" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5374,56 +5785,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="X40" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="Y40" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39936</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>2562</v>
+      </c>
+      <c r="C41" t="s">
+        <v>419</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="J41" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="K41" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="L41" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="O41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5439,56 +5854,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="X41" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="Y41" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39936</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>7035</v>
+      </c>
+      <c r="C42" t="s">
+        <v>429</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="J42" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="K42" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="L42" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -5506,56 +5925,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="X42" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="Y42" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39936</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146520</v>
+      </c>
+      <c r="C43" t="s">
+        <v>438</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="J43" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="K43" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="L43" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="O43" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5567,56 +5990,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="X43" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y43" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39936</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>457</v>
+      </c>
+      <c r="C44" t="s">
+        <v>448</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="J44" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="K44" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="L44" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="O44" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5634,56 +6061,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="X44" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="Y44" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39936</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146521</v>
+      </c>
+      <c r="C45" t="s">
+        <v>457</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="J45" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="K45" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="L45" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="O45" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5701,56 +6132,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="X45" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="Y45" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39936</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146522</v>
+      </c>
+      <c r="C46" t="s">
+        <v>466</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="J46" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="K46" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="L46" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5766,56 +6201,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="X46" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="Y46" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39936</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146523</v>
+      </c>
+      <c r="C47" t="s">
+        <v>476</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="J47" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="K47" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="L47" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="O47" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5829,50 +6268,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39936</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146524</v>
+      </c>
+      <c r="C48" t="s">
+        <v>484</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="J48" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="K48" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="L48" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5892,50 +6335,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39936</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146525</v>
+      </c>
+      <c r="C49" t="s">
+        <v>491</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="J49" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="K49" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="L49" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5947,56 +6394,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="X49" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="Y49" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39936</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>10562</v>
+      </c>
+      <c r="C50" t="s">
+        <v>501</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="J50" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="K50" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="L50" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="O50" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6012,41 +6463,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39936</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146526</v>
+      </c>
+      <c r="C51" t="s">
+        <v>509</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="J51" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="K51" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="L51" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -6075,41 +6530,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39936</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146527</v>
+      </c>
+      <c r="C52" t="s">
+        <v>515</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="J52" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="K52" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="L52" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -6138,50 +6597,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39936</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146528</v>
+      </c>
+      <c r="C53" t="s">
+        <v>521</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="K53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6197,56 +6660,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="X53" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="Y53" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39936</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>7151</v>
+      </c>
+      <c r="C54" t="s">
+        <v>531</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="J54" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="K54" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="L54" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6264,50 +6731,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39936</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146529</v>
+      </c>
+      <c r="C55" t="s">
+        <v>538</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="J55" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="K55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="L55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -6327,50 +6798,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39936</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>3105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>545</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="J56" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="K56" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="L56" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6388,56 +6863,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="X56" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="Y56" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39936</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146530</v>
+      </c>
+      <c r="C57" t="s">
+        <v>555</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="J57" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="K57" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="L57" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -6459,47 +6938,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="X57" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="Y57" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39936</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146531</v>
+      </c>
+      <c r="C58" t="s">
+        <v>565</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="J58" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="K58" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="L58" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
@@ -6526,56 +7009,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="X58" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="Y58" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39936</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>634</v>
+      </c>
+      <c r="C59" t="s">
+        <v>574</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="J59" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="K59" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="L59" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="O59" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6597,56 +7084,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="X59" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="Y59" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39936</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146532</v>
+      </c>
+      <c r="C60" t="s">
+        <v>584</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="J60" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="K60" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="L60" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6670,50 +7161,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39936</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146533</v>
+      </c>
+      <c r="C61" t="s">
+        <v>591</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="J61" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="K61" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="L61" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6735,56 +7230,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="X61" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="Y61" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39936</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146534</v>
+      </c>
+      <c r="C62" t="s">
+        <v>601</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="J62" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="K62" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="L62" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="O62" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6806,56 +7305,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="X62" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="Y62" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39936</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146535</v>
+      </c>
+      <c r="C63" t="s">
+        <v>611</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="J63" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="K63" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="L63" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="O63" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -6877,56 +7380,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="X63" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="Y63" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39936</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146536</v>
+      </c>
+      <c r="C64" t="s">
+        <v>620</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="J64" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="K64" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="L64" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="O64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6938,56 +7445,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="X64" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="Y64" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39936</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146537</v>
+      </c>
+      <c r="C65" t="s">
+        <v>630</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="J65" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="K65" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="L65" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="O65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7011,50 +7522,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39936</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146538</v>
+      </c>
+      <c r="C66" t="s">
+        <v>637</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="J66" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="K66" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="L66" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7078,41 +7593,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39936</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146539</v>
+      </c>
+      <c r="C67" t="s">
+        <v>644</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="J67" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="K67" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="L67" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -7141,50 +7660,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39936</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146540</v>
+      </c>
+      <c r="C68" t="s">
+        <v>650</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="J68" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="K68" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="L68" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7208,50 +7731,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39936</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146536</v>
+      </c>
+      <c r="C69" t="s">
+        <v>630</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="J69" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="K69" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="L69" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7275,50 +7802,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39936</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146541</v>
+      </c>
+      <c r="C70" t="s">
+        <v>662</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="J70" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="K70" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="L70" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="O70" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7342,50 +7873,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39936</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146542</v>
+      </c>
+      <c r="C71" t="s">
+        <v>668</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="J71" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="K71" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="L71" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="O71" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7409,41 +7944,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39936</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146543</v>
+      </c>
+      <c r="C72" t="s">
+        <v>674</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="J72" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="K72" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="L72" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
@@ -7470,56 +8009,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="X72" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="Y72" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39936</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146544</v>
+      </c>
+      <c r="C73" t="s">
+        <v>683</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="J73" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="K73" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="L73" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="O73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7541,56 +8084,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="X73" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="Y73" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39936</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146545</v>
+      </c>
+      <c r="C74" t="s">
+        <v>692</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="J74" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="K74" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="L74" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="O74" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7612,56 +8159,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="X74" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="Y74" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>39936</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146546</v>
+      </c>
+      <c r="C75" t="s">
+        <v>700</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="J75" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="K75" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="L75" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7683,56 +8234,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="X75" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="Y75" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>39936</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146547</v>
+      </c>
+      <c r="C76" t="s">
+        <v>710</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="J76" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="K76" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="L76" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="O76" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P76" t="n">
         <v>1</v>
@@ -7754,56 +8309,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="X76" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="Y76" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>39936</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146548</v>
+      </c>
+      <c r="C77" t="s">
+        <v>720</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="J77" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="K77" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="L77" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7825,47 +8384,51 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="X77" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="Y77" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>39936</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146549</v>
+      </c>
+      <c r="C78" t="s">
+        <v>729</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="J78" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="K78" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="L78" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
@@ -7892,56 +8455,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="X78" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="Y78" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>39936</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146550</v>
+      </c>
+      <c r="C79" t="s">
+        <v>738</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="J79" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="K79" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="L79" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -7961,56 +8528,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="X79" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="Y79" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>39936</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146551</v>
+      </c>
+      <c r="C80" t="s">
+        <v>748</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="J80" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="K80" t="s">
-        <v>674</v>
+        <v>752</v>
       </c>
       <c r="L80" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>676</v>
+        <v>754</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -8022,56 +8593,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
       <c r="X80" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="Y80" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>39936</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C81" t="s">
+        <v>758</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="J81" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="K81" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="L81" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="O81" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8093,56 +8668,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="X81" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="Y81" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>39936</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146552</v>
+      </c>
+      <c r="C82" t="s">
+        <v>768</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="J82" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="K82" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="L82" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
       <c r="O82" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8164,56 +8743,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="X82" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="Y82" t="s">
-        <v>697</v>
+        <v>777</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>39936</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146553</v>
+      </c>
+      <c r="C83" t="s">
+        <v>778</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>698</v>
+        <v>779</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>699</v>
+        <v>780</v>
       </c>
       <c r="J83" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="K83" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
       <c r="L83" t="s">
-        <v>702</v>
+        <v>783</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
       <c r="O83" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -8235,47 +8818,51 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>704</v>
+        <v>785</v>
       </c>
       <c r="X83" t="s">
-        <v>705</v>
+        <v>786</v>
       </c>
       <c r="Y83" t="s">
-        <v>706</v>
+        <v>787</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>39936</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146554</v>
+      </c>
+      <c r="C84" t="s">
+        <v>788</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
       <c r="J84" t="s">
-        <v>709</v>
+        <v>791</v>
       </c>
       <c r="K84" t="s">
-        <v>710</v>
+        <v>792</v>
       </c>
       <c r="L84" t="s">
-        <v>711</v>
+        <v>793</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
@@ -8302,47 +8889,51 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>704</v>
+        <v>785</v>
       </c>
       <c r="X84" t="s">
-        <v>705</v>
+        <v>786</v>
       </c>
       <c r="Y84" t="s">
-        <v>712</v>
+        <v>794</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>39936</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146555</v>
+      </c>
+      <c r="C85" t="s">
+        <v>795</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="J85" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
       <c r="K85" t="s">
-        <v>716</v>
+        <v>799</v>
       </c>
       <c r="L85" t="s">
-        <v>717</v>
+        <v>800</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
@@ -8369,56 +8960,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>704</v>
+        <v>785</v>
       </c>
       <c r="X85" t="s">
-        <v>705</v>
+        <v>786</v>
       </c>
       <c r="Y85" t="s">
-        <v>718</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>39936</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>94132</v>
+      </c>
+      <c r="C86" t="s">
+        <v>802</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="J86" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="K86" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
       <c r="L86" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
       <c r="O86" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8442,50 +9037,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>39936</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>146556</v>
+      </c>
+      <c r="C87" t="s">
+        <v>809</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
       <c r="J87" t="s">
-        <v>727</v>
+        <v>812</v>
       </c>
       <c r="K87" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
       <c r="L87" t="s">
-        <v>729</v>
+        <v>814</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
       <c r="O87" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8509,7 +9108,7 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>729</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_266.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_266.xlsx
@@ -3168,7 +3168,7 @@
         <v>39936</v>
       </c>
       <c r="B4" t="n">
-        <v>146487</v>
+        <v>177830</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -3239,7 +3239,7 @@
         <v>39936</v>
       </c>
       <c r="B5" t="n">
-        <v>146488</v>
+        <v>177831</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -3314,7 +3314,7 @@
         <v>39936</v>
       </c>
       <c r="B6" t="n">
-        <v>146489</v>
+        <v>177832</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -3385,7 +3385,7 @@
         <v>39936</v>
       </c>
       <c r="B7" t="n">
-        <v>146490</v>
+        <v>177833</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -3460,7 +3460,7 @@
         <v>39936</v>
       </c>
       <c r="B8" t="n">
-        <v>146491</v>
+        <v>177834</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -3535,7 +3535,7 @@
         <v>39936</v>
       </c>
       <c r="B9" t="n">
-        <v>146492</v>
+        <v>177835</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -3604,7 +3604,7 @@
         <v>39936</v>
       </c>
       <c r="B10" t="n">
-        <v>146493</v>
+        <v>177836</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -3679,7 +3679,7 @@
         <v>39936</v>
       </c>
       <c r="B11" t="n">
-        <v>146494</v>
+        <v>177837</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
@@ -3750,7 +3750,7 @@
         <v>39936</v>
       </c>
       <c r="B12" t="n">
-        <v>146495</v>
+        <v>177838</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -3825,7 +3825,7 @@
         <v>39936</v>
       </c>
       <c r="B13" t="n">
-        <v>146496</v>
+        <v>177839</v>
       </c>
       <c r="C13" t="s">
         <v>157</v>
@@ -3900,7 +3900,7 @@
         <v>39936</v>
       </c>
       <c r="B14" t="n">
-        <v>146497</v>
+        <v>177840</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -3975,7 +3975,7 @@
         <v>39936</v>
       </c>
       <c r="B15" t="n">
-        <v>146498</v>
+        <v>177841</v>
       </c>
       <c r="C15" t="s">
         <v>174</v>
@@ -4050,7 +4050,7 @@
         <v>39936</v>
       </c>
       <c r="B16" t="n">
-        <v>146499</v>
+        <v>177842</v>
       </c>
       <c r="C16" t="s">
         <v>184</v>
@@ -4125,7 +4125,7 @@
         <v>39936</v>
       </c>
       <c r="B17" t="n">
-        <v>146500</v>
+        <v>177843</v>
       </c>
       <c r="C17" t="s">
         <v>193</v>
@@ -4190,7 +4190,7 @@
         <v>39936</v>
       </c>
       <c r="B18" t="n">
-        <v>146501</v>
+        <v>177844</v>
       </c>
       <c r="C18" t="s">
         <v>203</v>
@@ -4265,7 +4265,7 @@
         <v>39936</v>
       </c>
       <c r="B19" t="n">
-        <v>146502</v>
+        <v>177845</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -4336,7 +4336,7 @@
         <v>39936</v>
       </c>
       <c r="B20" t="n">
-        <v>146503</v>
+        <v>177846</v>
       </c>
       <c r="C20" t="s">
         <v>219</v>
@@ -4411,7 +4411,7 @@
         <v>39936</v>
       </c>
       <c r="B21" t="n">
-        <v>146504</v>
+        <v>177847</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -4486,7 +4486,7 @@
         <v>39936</v>
       </c>
       <c r="B22" t="n">
-        <v>146505</v>
+        <v>177848</v>
       </c>
       <c r="C22" t="s">
         <v>239</v>
@@ -4561,7 +4561,7 @@
         <v>39936</v>
       </c>
       <c r="B23" t="n">
-        <v>146506</v>
+        <v>177849</v>
       </c>
       <c r="C23" t="s">
         <v>248</v>
@@ -4636,7 +4636,7 @@
         <v>39936</v>
       </c>
       <c r="B24" t="n">
-        <v>146507</v>
+        <v>177850</v>
       </c>
       <c r="C24" t="s">
         <v>257</v>
@@ -4701,7 +4701,7 @@
         <v>39936</v>
       </c>
       <c r="B25" t="n">
-        <v>146508</v>
+        <v>177851</v>
       </c>
       <c r="C25" t="s">
         <v>266</v>
@@ -4847,7 +4847,7 @@
         <v>39936</v>
       </c>
       <c r="B27" t="n">
-        <v>146509</v>
+        <v>177852</v>
       </c>
       <c r="C27" t="s">
         <v>285</v>
@@ -4918,7 +4918,7 @@
         <v>39936</v>
       </c>
       <c r="B28" t="n">
-        <v>146510</v>
+        <v>177853</v>
       </c>
       <c r="C28" t="s">
         <v>294</v>
@@ -4983,7 +4983,7 @@
         <v>39936</v>
       </c>
       <c r="B29" t="n">
-        <v>146511</v>
+        <v>177854</v>
       </c>
       <c r="C29" t="s">
         <v>304</v>
@@ -5052,7 +5052,7 @@
         <v>39936</v>
       </c>
       <c r="B30" t="n">
-        <v>146512</v>
+        <v>177855</v>
       </c>
       <c r="C30" t="s">
         <v>314</v>
@@ -5117,7 +5117,7 @@
         <v>39936</v>
       </c>
       <c r="B31" t="n">
-        <v>146513</v>
+        <v>177856</v>
       </c>
       <c r="C31" t="s">
         <v>324</v>
@@ -5188,7 +5188,7 @@
         <v>39936</v>
       </c>
       <c r="B32" t="n">
-        <v>146514</v>
+        <v>177857</v>
       </c>
       <c r="C32" t="s">
         <v>333</v>
@@ -5385,7 +5385,7 @@
         <v>39936</v>
       </c>
       <c r="B35" t="n">
-        <v>146515</v>
+        <v>177858</v>
       </c>
       <c r="C35" t="s">
         <v>362</v>
@@ -5456,7 +5456,7 @@
         <v>39936</v>
       </c>
       <c r="B36" t="n">
-        <v>146516</v>
+        <v>177859</v>
       </c>
       <c r="C36" t="s">
         <v>371</v>
@@ -5525,7 +5525,7 @@
         <v>39936</v>
       </c>
       <c r="B37" t="n">
-        <v>146517</v>
+        <v>177860</v>
       </c>
       <c r="C37" t="s">
         <v>381</v>
@@ -5596,7 +5596,7 @@
         <v>39936</v>
       </c>
       <c r="B38" t="n">
-        <v>146518</v>
+        <v>177861</v>
       </c>
       <c r="C38" t="s">
         <v>391</v>
@@ -5730,7 +5730,7 @@
         <v>39936</v>
       </c>
       <c r="B40" t="n">
-        <v>146519</v>
+        <v>177862</v>
       </c>
       <c r="C40" t="s">
         <v>410</v>
@@ -5939,7 +5939,7 @@
         <v>39936</v>
       </c>
       <c r="B43" t="n">
-        <v>146520</v>
+        <v>177863</v>
       </c>
       <c r="C43" t="s">
         <v>438</v>
@@ -6075,7 +6075,7 @@
         <v>39936</v>
       </c>
       <c r="B45" t="n">
-        <v>146521</v>
+        <v>177864</v>
       </c>
       <c r="C45" t="s">
         <v>457</v>
@@ -6146,7 +6146,7 @@
         <v>39936</v>
       </c>
       <c r="B46" t="n">
-        <v>146522</v>
+        <v>177865</v>
       </c>
       <c r="C46" t="s">
         <v>466</v>
@@ -6215,7 +6215,7 @@
         <v>39936</v>
       </c>
       <c r="B47" t="n">
-        <v>146523</v>
+        <v>177866</v>
       </c>
       <c r="C47" t="s">
         <v>476</v>
@@ -6276,7 +6276,7 @@
         <v>39936</v>
       </c>
       <c r="B48" t="n">
-        <v>146524</v>
+        <v>177867</v>
       </c>
       <c r="C48" t="s">
         <v>484</v>
@@ -6343,7 +6343,7 @@
         <v>39936</v>
       </c>
       <c r="B49" t="n">
-        <v>146525</v>
+        <v>177868</v>
       </c>
       <c r="C49" t="s">
         <v>491</v>
@@ -6471,7 +6471,7 @@
         <v>39936</v>
       </c>
       <c r="B51" t="n">
-        <v>146526</v>
+        <v>177869</v>
       </c>
       <c r="C51" t="s">
         <v>509</v>
@@ -6538,7 +6538,7 @@
         <v>39936</v>
       </c>
       <c r="B52" t="n">
-        <v>146527</v>
+        <v>177870</v>
       </c>
       <c r="C52" t="s">
         <v>515</v>
@@ -6605,7 +6605,7 @@
         <v>39936</v>
       </c>
       <c r="B53" t="n">
-        <v>146528</v>
+        <v>177871</v>
       </c>
       <c r="C53" t="s">
         <v>521</v>
@@ -6739,7 +6739,7 @@
         <v>39936</v>
       </c>
       <c r="B55" t="n">
-        <v>146529</v>
+        <v>177872</v>
       </c>
       <c r="C55" t="s">
         <v>538</v>
@@ -6877,7 +6877,7 @@
         <v>39936</v>
       </c>
       <c r="B57" t="n">
-        <v>146530</v>
+        <v>177873</v>
       </c>
       <c r="C57" t="s">
         <v>555</v>
@@ -6952,7 +6952,7 @@
         <v>39936</v>
       </c>
       <c r="B58" t="n">
-        <v>146531</v>
+        <v>177874</v>
       </c>
       <c r="C58" t="s">
         <v>565</v>
@@ -7098,7 +7098,7 @@
         <v>39936</v>
       </c>
       <c r="B60" t="n">
-        <v>146532</v>
+        <v>177875</v>
       </c>
       <c r="C60" t="s">
         <v>584</v>
@@ -7169,7 +7169,7 @@
         <v>39936</v>
       </c>
       <c r="B61" t="n">
-        <v>146533</v>
+        <v>177876</v>
       </c>
       <c r="C61" t="s">
         <v>591</v>
@@ -7244,7 +7244,7 @@
         <v>39936</v>
       </c>
       <c r="B62" t="n">
-        <v>146534</v>
+        <v>177877</v>
       </c>
       <c r="C62" t="s">
         <v>601</v>
@@ -7319,7 +7319,7 @@
         <v>39936</v>
       </c>
       <c r="B63" t="n">
-        <v>146535</v>
+        <v>177878</v>
       </c>
       <c r="C63" t="s">
         <v>611</v>
@@ -7394,7 +7394,7 @@
         <v>39936</v>
       </c>
       <c r="B64" t="n">
-        <v>146536</v>
+        <v>177879</v>
       </c>
       <c r="C64" t="s">
         <v>620</v>
@@ -7459,7 +7459,7 @@
         <v>39936</v>
       </c>
       <c r="B65" t="n">
-        <v>146537</v>
+        <v>146499</v>
       </c>
       <c r="C65" t="s">
         <v>630</v>
@@ -7530,7 +7530,7 @@
         <v>39936</v>
       </c>
       <c r="B66" t="n">
-        <v>146538</v>
+        <v>177880</v>
       </c>
       <c r="C66" t="s">
         <v>637</v>
@@ -7601,7 +7601,7 @@
         <v>39936</v>
       </c>
       <c r="B67" t="n">
-        <v>146539</v>
+        <v>177881</v>
       </c>
       <c r="C67" t="s">
         <v>644</v>
@@ -7668,7 +7668,7 @@
         <v>39936</v>
       </c>
       <c r="B68" t="n">
-        <v>146540</v>
+        <v>177882</v>
       </c>
       <c r="C68" t="s">
         <v>650</v>
@@ -7739,7 +7739,7 @@
         <v>39936</v>
       </c>
       <c r="B69" t="n">
-        <v>146536</v>
+        <v>146499</v>
       </c>
       <c r="C69" t="s">
         <v>630</v>
@@ -7810,7 +7810,7 @@
         <v>39936</v>
       </c>
       <c r="B70" t="n">
-        <v>146541</v>
+        <v>177883</v>
       </c>
       <c r="C70" t="s">
         <v>662</v>
@@ -7881,7 +7881,7 @@
         <v>39936</v>
       </c>
       <c r="B71" t="n">
-        <v>146542</v>
+        <v>177884</v>
       </c>
       <c r="C71" t="s">
         <v>668</v>
@@ -7952,7 +7952,7 @@
         <v>39936</v>
       </c>
       <c r="B72" t="n">
-        <v>146543</v>
+        <v>177885</v>
       </c>
       <c r="C72" t="s">
         <v>674</v>
@@ -8023,7 +8023,7 @@
         <v>39936</v>
       </c>
       <c r="B73" t="n">
-        <v>146544</v>
+        <v>177886</v>
       </c>
       <c r="C73" t="s">
         <v>683</v>
@@ -8098,7 +8098,7 @@
         <v>39936</v>
       </c>
       <c r="B74" t="n">
-        <v>146545</v>
+        <v>177887</v>
       </c>
       <c r="C74" t="s">
         <v>692</v>
@@ -8173,7 +8173,7 @@
         <v>39936</v>
       </c>
       <c r="B75" t="n">
-        <v>146546</v>
+        <v>177888</v>
       </c>
       <c r="C75" t="s">
         <v>700</v>
@@ -8248,7 +8248,7 @@
         <v>39936</v>
       </c>
       <c r="B76" t="n">
-        <v>146547</v>
+        <v>177889</v>
       </c>
       <c r="C76" t="s">
         <v>710</v>
@@ -8323,7 +8323,7 @@
         <v>39936</v>
       </c>
       <c r="B77" t="n">
-        <v>146548</v>
+        <v>177890</v>
       </c>
       <c r="C77" t="s">
         <v>720</v>
@@ -8398,7 +8398,7 @@
         <v>39936</v>
       </c>
       <c r="B78" t="n">
-        <v>146549</v>
+        <v>177891</v>
       </c>
       <c r="C78" t="s">
         <v>729</v>
@@ -8469,7 +8469,7 @@
         <v>39936</v>
       </c>
       <c r="B79" t="n">
-        <v>146550</v>
+        <v>177892</v>
       </c>
       <c r="C79" t="s">
         <v>738</v>
@@ -8542,7 +8542,7 @@
         <v>39936</v>
       </c>
       <c r="B80" t="n">
-        <v>146551</v>
+        <v>177893</v>
       </c>
       <c r="C80" t="s">
         <v>748</v>
@@ -8682,7 +8682,7 @@
         <v>39936</v>
       </c>
       <c r="B82" t="n">
-        <v>146552</v>
+        <v>177894</v>
       </c>
       <c r="C82" t="s">
         <v>768</v>
@@ -8757,7 +8757,7 @@
         <v>39936</v>
       </c>
       <c r="B83" t="n">
-        <v>146553</v>
+        <v>177895</v>
       </c>
       <c r="C83" t="s">
         <v>778</v>
@@ -8832,7 +8832,7 @@
         <v>39936</v>
       </c>
       <c r="B84" t="n">
-        <v>146554</v>
+        <v>177896</v>
       </c>
       <c r="C84" t="s">
         <v>788</v>
@@ -8903,7 +8903,7 @@
         <v>39936</v>
       </c>
       <c r="B85" t="n">
-        <v>146555</v>
+        <v>177897</v>
       </c>
       <c r="C85" t="s">
         <v>795</v>
@@ -9045,7 +9045,7 @@
         <v>39936</v>
       </c>
       <c r="B87" t="n">
-        <v>146556</v>
+        <v>177898</v>
       </c>
       <c r="C87" t="s">
         <v>809</v>
